--- a/english.xlsx
+++ b/english.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\popoves\Desktop\experience\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BBD052-4561-4A7E-A239-FA1E3E6057F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBACB894-F367-4217-BFA7-5F38AAD36FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{AF848DA1-86EF-4FED-9942-D008ADCF70E9}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="757">
   <si>
     <t>word</t>
   </si>
@@ -1715,9 +1715,6 @@
     <t>we considered flying, but it is too expensive to fly with three kids</t>
   </si>
   <si>
-    <t>мы думали полететь, но лететь с тремя детьми очень дорого</t>
-  </si>
-  <si>
     <t>particularly expensive</t>
   </si>
   <si>
@@ -1745,24 +1742,12 @@
     <t>кроме того</t>
   </si>
   <si>
-    <t>when we get to our destination</t>
-  </si>
-  <si>
-    <t>когда мы доберемся до местоназначения</t>
-  </si>
-  <si>
     <t>we would have</t>
   </si>
   <si>
     <t>нам придется</t>
   </si>
   <si>
-    <t>to rent car</t>
-  </si>
-  <si>
-    <t>арендовать машину</t>
-  </si>
-  <si>
     <t>besides, when we get to our destination, we would have to rent a car</t>
   </si>
   <si>
@@ -1790,18 +1775,6 @@
     <t>дешево</t>
   </si>
   <si>
-    <t>driving</t>
-  </si>
-  <si>
-    <t>поездка на машине</t>
-  </si>
-  <si>
-    <t>much better option</t>
-  </si>
-  <si>
-    <t>гораздо лучший вариант</t>
-  </si>
-  <si>
     <t>driving is a much better option</t>
   </si>
   <si>
@@ -1826,15 +1799,9 @@
     <t>мы можем остановиться</t>
   </si>
   <si>
-    <t>visit places on the way</t>
-  </si>
-  <si>
     <t>посещать мета по пути</t>
   </si>
   <si>
-    <t>it takes more time and it is more tiring, but we can stop and visit places on the way</t>
-  </si>
-  <si>
     <t>это займет больше времени и это более утомительно, но мы можем остановиться и посетить мета по пути</t>
   </si>
   <si>
@@ -1850,15 +1817,9 @@
     <t>он имеет достаточно места для нас</t>
   </si>
   <si>
-    <t>out luggage</t>
-  </si>
-  <si>
     <t>наш багаж</t>
   </si>
   <si>
-    <t>we have mini-van that has enough space for us and out luggage</t>
-  </si>
-  <si>
     <t>у нас есть мини-вен, в котором достаточно места для нас и нашего багажа</t>
   </si>
   <si>
@@ -1949,247 +1910,394 @@
     <t>симпатичный</t>
   </si>
   <si>
-    <t>spring breaks</t>
-  </si>
-  <si>
     <t>there are many places</t>
   </si>
   <si>
     <t>seven wonders of the world</t>
   </si>
   <si>
-    <t>spring break is a a great time to go on vacation</t>
-  </si>
-  <si>
     <t>there are many places we want to visit</t>
   </si>
   <si>
+    <t>it will take us two days</t>
+  </si>
+  <si>
+    <t>это займет у нас 2 дня</t>
+  </si>
+  <si>
+    <t>to get to our destination</t>
+  </si>
+  <si>
+    <t>добираться до метса назначения</t>
+  </si>
+  <si>
+    <t>it will take us two days to get to our destination</t>
+  </si>
+  <si>
+    <t>нам понадобится два дня, чтобы добраться до места назначения</t>
+  </si>
+  <si>
+    <t>we also booked a hotel</t>
+  </si>
+  <si>
+    <t>мы так же забронировали отель</t>
+  </si>
+  <si>
+    <t>where we can stay</t>
+  </si>
+  <si>
+    <t>где мы можем остановиться</t>
+  </si>
+  <si>
+    <t>на ночь</t>
+  </si>
+  <si>
+    <t>for the night</t>
+  </si>
+  <si>
+    <t>we also booked a hotel where we can stay for the night</t>
+  </si>
+  <si>
+    <t>мы так же забронировали отель, где мы можем остановиться на ночь</t>
+  </si>
+  <si>
+    <t>the hotel provides breakfast</t>
+  </si>
+  <si>
+    <t>отель предоставляет завтрак</t>
+  </si>
+  <si>
+    <t>нам не нужно беспокоиться о</t>
+  </si>
+  <si>
+    <t>finding food in the morning</t>
+  </si>
+  <si>
+    <t>поиск еды на утро</t>
+  </si>
+  <si>
+    <t>we don’t need to worry about finding food in the morning</t>
+  </si>
+  <si>
+    <t>нам не унжно беспокоиться о поиске еды на утро</t>
+  </si>
+  <si>
+    <t>it is very convinient</t>
+  </si>
+  <si>
+    <t>это очень удобно</t>
+  </si>
+  <si>
+    <t>and usually</t>
+  </si>
+  <si>
+    <t>и обычно</t>
+  </si>
+  <si>
+    <t>food is quite good</t>
+  </si>
+  <si>
+    <t>еда довольно вкусная</t>
+  </si>
+  <si>
+    <t>it is very convinient, and usually, the food is quite good</t>
+  </si>
+  <si>
+    <t>we can quickly eat</t>
+  </si>
+  <si>
+    <t>мы можем быстро поесть</t>
+  </si>
+  <si>
+    <t>check out</t>
+  </si>
+  <si>
+    <t>выписаться из отеля</t>
+  </si>
+  <si>
+    <t>and continue our journey</t>
+  </si>
+  <si>
+    <t>и продолжить наше путешествие</t>
+  </si>
+  <si>
+    <t>we can quickly eat, check out, and continue our journey</t>
+  </si>
+  <si>
+    <t>мы можем быстро поесть, выписаться из отеля и продолжить наше путишествие</t>
+  </si>
+  <si>
+    <t>we always plan</t>
+  </si>
+  <si>
+    <t>мы всегда планируем</t>
+  </si>
+  <si>
+    <t>we always plan on leaving early in the morning, so we have plenty of time to drive</t>
+  </si>
+  <si>
+    <t>мы всегда планируем отъезд рано утром, так, чтобы иметь достаточно времени на дорогу</t>
+  </si>
+  <si>
+    <t>but when you have children</t>
+  </si>
+  <si>
+    <t>но когда у вас есть дети</t>
+  </si>
+  <si>
+    <t>it is very difficult to leave early</t>
+  </si>
+  <si>
+    <t>это очень сложно  - выезжать рано</t>
+  </si>
+  <si>
+    <t>but when your have children, it is very difficult to leave early</t>
+  </si>
+  <si>
+    <t>но когда у вас есть дети, то сложно выезжать рано</t>
+  </si>
+  <si>
+    <t>I just hope</t>
+  </si>
+  <si>
+    <t>я просто надеюсь</t>
+  </si>
+  <si>
+    <t>we get to hotel</t>
+  </si>
+  <si>
+    <t>мы добераемся до отеля</t>
+  </si>
+  <si>
+    <t>I just hope we get to hotel before it gets dark</t>
+  </si>
+  <si>
+    <t>it is hard to me</t>
+  </si>
+  <si>
+    <t>to drive at night</t>
+  </si>
+  <si>
+    <t>ехать ночью</t>
+  </si>
+  <si>
+    <t>it is hard to me to drive at night</t>
+  </si>
+  <si>
+    <t>это сложно для меня - ехать ночью</t>
+  </si>
+  <si>
+    <t>вам нравится путешествовать?</t>
+  </si>
+  <si>
+    <t>do you like traveling?</t>
+  </si>
+  <si>
+    <t>do you have any plans for the spring break?</t>
+  </si>
+  <si>
+    <t>let me know in the comments</t>
+  </si>
+  <si>
+    <t>дайте мне знать об этом в коментариях</t>
+  </si>
+  <si>
+    <t>try your best to practice</t>
+  </si>
+  <si>
+    <t>старайтесь изо всех сил практиковаться</t>
+  </si>
+  <si>
+    <t>write your comments in English</t>
+  </si>
+  <si>
+    <t>пишите ваши комментарии на английском</t>
+  </si>
+  <si>
+    <t>try your best to practice and write your comments in English</t>
+  </si>
+  <si>
+    <t>старайтесь изо всех сил и  пишите ваши коментарии на английском</t>
+  </si>
+  <si>
+    <t>don’t worry about mistakes</t>
+  </si>
+  <si>
+    <t>не волнуйтесь об ошибках</t>
+  </si>
+  <si>
+    <t>I will be happy</t>
+  </si>
+  <si>
+    <t>я буду счастлив</t>
+  </si>
+  <si>
+    <t>to correct them for you</t>
+  </si>
+  <si>
+    <t>исправить их для вас</t>
+  </si>
+  <si>
+    <t>I will be happy to correct them for you</t>
+  </si>
+  <si>
+    <t>я буду рад исправить их для вас</t>
+  </si>
+  <si>
+    <t>to visit places on the way</t>
+  </si>
+  <si>
+    <t>мы рассматривали вариант полета на самолете, но лететь с тремя детьми очень дорого</t>
+  </si>
+  <si>
+    <t>it takes more time and it is more tiring, but we can to stop and visit places on the way</t>
+  </si>
+  <si>
+    <t>our luggage</t>
+  </si>
+  <si>
+    <t>we have mini-van that has enough space for us and our luggage</t>
+  </si>
+  <si>
+    <t>we don’t need to worry about</t>
+  </si>
+  <si>
+    <t>это очень удобно, и обычно эта еда довольно хорошая</t>
+  </si>
+  <si>
+    <t>у нас есть достаточно времени</t>
+  </si>
+  <si>
+    <t>у нас есть достаточно времени на дорогу</t>
+  </si>
+  <si>
+    <t>мы всегда планируем отъезд рано утром</t>
+  </si>
+  <si>
+    <t>we alwase plan on leaving early in the morning</t>
+  </si>
+  <si>
+    <t>we have plenty of time</t>
+  </si>
+  <si>
+    <t>we have plenty of time to drive</t>
+  </si>
+  <si>
+    <t>я надеюсь что мы доберемся до отеля до того как стемнеет</t>
+  </si>
+  <si>
+    <t>мы доберемся до отеля до того как стемнеет</t>
+  </si>
+  <si>
+    <t>we get to hotel before it gets dark</t>
+  </si>
+  <si>
+    <t>У вас есть какие-нибудь планы на весенние каникулы?</t>
+  </si>
+  <si>
     <t>Grand Canyon is one of the seven wonders of the world</t>
   </si>
   <si>
-    <t>fly with three kids</t>
-  </si>
-  <si>
-    <t>to rent a car</t>
-  </si>
-  <si>
-    <t>it will take us two days</t>
-  </si>
-  <si>
-    <t>это займет у нас 2 дня</t>
-  </si>
-  <si>
-    <t>to get to our destination</t>
-  </si>
-  <si>
-    <t>добираться до метса назначения</t>
-  </si>
-  <si>
-    <t>it will take us two days to get to our destination</t>
-  </si>
-  <si>
-    <t>нам понадобится два дня, чтобы добраться до места назначения</t>
-  </si>
-  <si>
-    <t>we also booked a hotel</t>
-  </si>
-  <si>
-    <t>мы так же забронировали отель</t>
-  </si>
-  <si>
-    <t>where we can stay</t>
-  </si>
-  <si>
-    <t>где мы можем остановиться</t>
-  </si>
-  <si>
-    <t>на ночь</t>
-  </si>
-  <si>
-    <t>for the night</t>
-  </si>
-  <si>
-    <t>we also booked a hotel where we can stay for the night</t>
-  </si>
-  <si>
-    <t>мы так же забронировали отель, где мы можем остановиться на ночь</t>
-  </si>
-  <si>
-    <t>the hotel</t>
-  </si>
-  <si>
-    <t>отель</t>
-  </si>
-  <si>
-    <t>предоставляет завтрак</t>
-  </si>
-  <si>
-    <t>the hotel provides breakfast</t>
-  </si>
-  <si>
-    <t>to provides breakfast</t>
-  </si>
-  <si>
-    <t>отель предоставляет завтрак</t>
-  </si>
-  <si>
-    <t>we don’t nood to worry about</t>
-  </si>
-  <si>
-    <t>нам не нужно беспокоиться о</t>
-  </si>
-  <si>
-    <t>finding food in the morning</t>
-  </si>
-  <si>
-    <t>поиск еды на утро</t>
-  </si>
-  <si>
-    <t>we don’t need to worry about finding food in the morning</t>
-  </si>
-  <si>
-    <t>нам не унжно беспокоиться о поиске еды на утро</t>
-  </si>
-  <si>
-    <t>it is very convinient</t>
-  </si>
-  <si>
-    <t>это очень удобно</t>
-  </si>
-  <si>
-    <t>and usually</t>
-  </si>
-  <si>
-    <t>и обычно</t>
-  </si>
-  <si>
-    <t>food is quite good</t>
-  </si>
-  <si>
-    <t>еда довольно вкусная</t>
-  </si>
-  <si>
-    <t>it is very convinient, and usually, the food is quite good</t>
-  </si>
-  <si>
-    <t>это очень удобно, и обычно эта еда довольно вкусная</t>
-  </si>
-  <si>
-    <t>we can quickly eat</t>
-  </si>
-  <si>
-    <t>мы можем быстро поесть</t>
-  </si>
-  <si>
-    <t>check out</t>
-  </si>
-  <si>
-    <t>выписаться из отеля</t>
-  </si>
-  <si>
-    <t>and continue our journey</t>
-  </si>
-  <si>
-    <t>и продолжить наше путешествие</t>
-  </si>
-  <si>
-    <t>we can quickly eat, check out, and continue our journey</t>
-  </si>
-  <si>
-    <t>мы можем быстро поесть, выписаться из отеля и продолжить наше путишествие</t>
-  </si>
-  <si>
-    <t>we always plan</t>
-  </si>
-  <si>
-    <t>мы всегда планируем</t>
-  </si>
-  <si>
-    <t>a leaving early in the morning</t>
-  </si>
-  <si>
-    <t>отъезд рано утром</t>
-  </si>
-  <si>
-    <t>we have</t>
-  </si>
-  <si>
-    <t>у нас есть</t>
-  </si>
-  <si>
-    <t>we always plan on leaving early in the morning, so we have plenty of time to drive</t>
-  </si>
-  <si>
-    <t>мы всегда планируем отъезд рано утром, так, чтобы иметь достаточно времени на дорогу</t>
-  </si>
-  <si>
-    <t>but when you have children</t>
-  </si>
-  <si>
-    <t>но когда у вас есть дети</t>
-  </si>
-  <si>
-    <t>it is very difficult to leave early</t>
-  </si>
-  <si>
-    <t>это очень сложно  - выезжать рано</t>
-  </si>
-  <si>
-    <t>but when your have children, it is very difficult to leave early</t>
-  </si>
-  <si>
-    <t>но когда у вас есть дети, то сложно выезжать рано</t>
-  </si>
-  <si>
-    <t>I just hope</t>
-  </si>
-  <si>
-    <t>я просто надеюсь</t>
-  </si>
-  <si>
-    <t>we get to hotel</t>
-  </si>
-  <si>
-    <t>мы добераемся до отеля</t>
-  </si>
-  <si>
-    <t>до того, как стемнеет</t>
-  </si>
-  <si>
-    <t>I just hope we get to hotel before it gets dark</t>
-  </si>
-  <si>
-    <t>before it gets dark</t>
-  </si>
-  <si>
-    <t>it is hard to me</t>
-  </si>
-  <si>
-    <t>это сложно для меня</t>
-  </si>
-  <si>
-    <t>to drive at night</t>
-  </si>
-  <si>
-    <t>ехать ночью</t>
-  </si>
-  <si>
-    <t>it is hard to me to drive at night</t>
-  </si>
-  <si>
-    <t>это сложно для меня - ехать ночью</t>
-  </si>
-  <si>
-    <t>Do you like traveling?</t>
-  </si>
-  <si>
-    <t>вам нравится путешествовать?</t>
-  </si>
-  <si>
-    <t>plenty of time to drive</t>
-  </si>
-  <si>
-    <t>достаточно времени на дорогу</t>
+    <t>a great time</t>
+  </si>
+  <si>
+    <t>it is very expensive</t>
+  </si>
+  <si>
+    <t>we considered flying, but it is very expensive to fly with three kids</t>
+  </si>
+  <si>
+    <t>кроме того, когда мы доберемся до местоназначения</t>
+  </si>
+  <si>
+    <t>besides, when we get to our destination</t>
+  </si>
+  <si>
+    <t>нам придется арендовать машину</t>
+  </si>
+  <si>
+    <t>we would have to rent car</t>
+  </si>
+  <si>
+    <t>we would have to rent a car</t>
+  </si>
+  <si>
+    <t>besides, when we get to our destination we would have to rent a car</t>
+  </si>
+  <si>
+    <t>it is not very convinient</t>
+  </si>
+  <si>
+    <t>it is not very convinient and it is not cheap either</t>
+  </si>
+  <si>
+    <t>it takes more time and it is more tiring, but we can stop and to visit places on the way</t>
+  </si>
+  <si>
+    <t>there is not breakfast provided</t>
+  </si>
+  <si>
+    <t>we always plan on leaving early in the morning</t>
+  </si>
+  <si>
+    <t>we moved to the USA not that logn ago</t>
+  </si>
+  <si>
+    <t>it is more tiirig</t>
+  </si>
+  <si>
+    <t>we have a mini-van</t>
+  </si>
+  <si>
+    <t>we have a mini-van that has enough space for us and our luggage</t>
+  </si>
+  <si>
+    <t>eating our is not very healthy and can be also very expensive</t>
+  </si>
+  <si>
+    <t>it will takes us two days</t>
+  </si>
+  <si>
+    <t>it will take us two days to get our destination</t>
+  </si>
+  <si>
+    <t>when we can stay</t>
+  </si>
+  <si>
+    <t>we also booked a hotel when we can stay for the night</t>
+  </si>
+  <si>
+    <t>a finding food in the morning</t>
+  </si>
+  <si>
+    <t>a food is quite good</t>
+  </si>
+  <si>
+    <t>it is very convinient and usually the food is quite good</t>
+  </si>
+  <si>
+    <t>and continie our journey</t>
+  </si>
+  <si>
+    <t>we can quickly eat, check out, and continut our journey</t>
+  </si>
+  <si>
+    <t>but when you have children, it is very difficult to leave early</t>
+  </si>
+  <si>
+    <t>it is hard to me drive at nigh</t>
+  </si>
+  <si>
+    <t>это жестко для меня</t>
+  </si>
+  <si>
+    <t>try your best practice</t>
+  </si>
+  <si>
+    <t>to write your comments in English</t>
+  </si>
+  <si>
+    <t>try your best practice and write your comments in English</t>
   </si>
 </sst>
 </file>
@@ -2272,7 +2380,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2295,11 +2403,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2330,8 +2488,29 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9755,7 +9934,7 @@
         <v>323</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="1" t="s">
@@ -9766,7 +9945,7 @@
         <v>true</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="G100" s="1" t="str">
         <f t="shared" si="3"/>
@@ -12779,10 +12958,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E8673C-6BD2-4CFE-B385-306106CCD850}">
-  <dimension ref="A1:D199"/>
+  <dimension ref="A1:D195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="C190" sqref="C190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13762,32 +13941,32 @@
       <c r="A92" s="14" t="s">
         <v>529</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>640</v>
+      <c r="C92" s="20" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>531</v>
+      <c r="C93" s="21" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
         <v>534</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="16" t="s">
         <v>535</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="21" t="s">
         <v>534</v>
       </c>
     </row>
@@ -13795,21 +13974,21 @@
       <c r="A95" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="B95" s="17" t="s">
         <v>536</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>643</v>
+      <c r="C95" s="19" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="B96" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="20" t="s">
         <v>537</v>
       </c>
     </row>
@@ -13817,10 +13996,10 @@
       <c r="A97" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="B97" s="15" t="s">
+      <c r="B97" s="16" t="s">
         <v>540</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="21" t="s">
         <v>539</v>
       </c>
     </row>
@@ -13828,54 +14007,54 @@
       <c r="A98" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>541</v>
+      <c r="C98" s="19" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>641</v>
-      </c>
-      <c r="B99" s="15" t="s">
+        <v>627</v>
+      </c>
+      <c r="B99" s="16" t="s">
         <v>543</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>641</v>
+      <c r="C99" s="20" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="16" t="s">
         <v>545</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="21" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>644</v>
-      </c>
-      <c r="B101" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="B101" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>644</v>
+      <c r="C101" s="19" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="16" t="s">
         <v>548</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="20" t="s">
         <v>547</v>
       </c>
     </row>
@@ -13883,10 +14062,10 @@
       <c r="A103" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="B103" s="16" t="s">
         <v>550</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="21" t="s">
         <v>549</v>
       </c>
     </row>
@@ -13894,32 +14073,32 @@
       <c r="A104" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="B104" s="15" t="s">
+      <c r="B104" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>642</v>
+      <c r="C104" s="21" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>553</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>645</v>
+      <c r="C105" s="19" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="B106" s="15" t="s">
+      <c r="B106" s="16" t="s">
         <v>556</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="20" t="s">
         <v>555</v>
       </c>
     </row>
@@ -13927,691 +14106,924 @@
       <c r="A107" s="15" t="s">
         <v>557</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="B107" s="16" t="s">
         <v>559</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>557</v>
+      <c r="C107" s="21" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>646</v>
+      <c r="C108" s="21" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="B109" s="13" t="s">
-        <v>562</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>561</v>
+      <c r="B109" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="B110" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="B110" s="15" t="s">
-        <v>564</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>563</v>
+      <c r="C110" s="21" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="B111" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
-        <v>566</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>569</v>
-      </c>
-      <c r="B113" s="13" t="s">
-        <v>580</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>569</v>
+        <v>568</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="C113" s="22" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="B114" s="16" t="s">
         <v>570</v>
       </c>
-      <c r="B114" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>570</v>
+      <c r="C114" s="21" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
-        <v>572</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>572</v>
+        <v>727</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>726</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="B116" s="15" t="s">
-        <v>575</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="B117" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>647</v>
+        <v>729</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>728</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
-        <v>578</v>
-      </c>
-      <c r="B118" s="13" t="s">
-        <v>579</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>578</v>
+        <v>573</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>574</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
-        <v>581</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>582</v>
+        <v>576</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>577</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
-        <v>583</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>586</v>
+        <v>578</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="C120" s="21" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
-        <v>584</v>
-      </c>
-      <c r="B121" s="13" t="s">
-        <v>585</v>
+        <v>579</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="15" t="s">
-        <v>587</v>
-      </c>
-      <c r="B122" s="15" t="s">
-        <v>588</v>
+      <c r="A122" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
-        <v>589</v>
-      </c>
-      <c r="B123" s="15" t="s">
-        <v>590</v>
+        <v>584</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="B124" s="13" t="s">
-        <v>592</v>
+      <c r="A124" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>587</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
-        <v>593</v>
-      </c>
-      <c r="B125" s="15" t="s">
-        <v>594</v>
+        <v>588</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
-        <v>595</v>
-      </c>
-      <c r="B126" s="15" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="15" t="s">
-        <v>597</v>
-      </c>
-      <c r="B127" s="15" t="s">
-        <v>598</v>
+        <v>705</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="B127" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="C127" s="22" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="C128" s="20" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="B132" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="B128" s="15" t="s">
+      <c r="C132" s="20" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="15" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="13" t="s">
+      <c r="B133" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="B129" s="13" t="s">
+      <c r="C133" s="21" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="15" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="15" t="s">
+      <c r="B134" s="15" t="s">
         <v>603</v>
       </c>
-      <c r="B130" s="15" t="s">
+      <c r="C134" s="21" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="13" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="15" t="s">
+      <c r="B135" s="13" t="s">
         <v>605</v>
       </c>
-      <c r="B131" s="15" t="s">
+      <c r="C135" s="18" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="15" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="15" t="s">
+      <c r="B136" s="15" t="s">
         <v>607</v>
       </c>
-      <c r="B132" s="15" t="s">
+      <c r="C136" s="20" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="15" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="13" t="s">
+      <c r="B137" s="15" t="s">
         <v>609</v>
       </c>
-      <c r="B133" s="13" t="s">
+      <c r="C137" s="21" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="13" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="15" t="s">
+      <c r="B138" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="B134" s="15" t="s">
+      <c r="C138" s="18" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="15" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="15" t="s">
+      <c r="B139" s="15" t="s">
         <v>613</v>
       </c>
-      <c r="B135" s="15" t="s">
+      <c r="C139" s="20" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="15" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="15" t="s">
+      <c r="B140" s="15" t="s">
         <v>615</v>
       </c>
-      <c r="B136" s="15" t="s">
+      <c r="C140" s="21" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="13" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="13" t="s">
+      <c r="B141" s="13" t="s">
         <v>617</v>
       </c>
-      <c r="B137" s="13" t="s">
+      <c r="C141" s="18" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="15" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="15" t="s">
+      <c r="B142" s="15" t="s">
         <v>619</v>
       </c>
-      <c r="B138" s="15" t="s">
+      <c r="C142" s="20" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="15" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="15" t="s">
+      <c r="B143" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="B139" s="15" t="s">
+      <c r="C143" s="21" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="15" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="13" t="s">
+      <c r="B144" s="15" t="s">
         <v>623</v>
       </c>
-      <c r="B140" s="13" t="s">
+      <c r="C144" s="21" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="13" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="15" t="s">
+      <c r="B145" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="B141" s="15" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="15" t="s">
-        <v>627</v>
-      </c>
-      <c r="B142" s="15" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="13" t="s">
-        <v>629</v>
-      </c>
-      <c r="B143" s="13" t="s">
+      <c r="C145" s="18" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="15" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="15" t="s">
+      <c r="B146" s="15" t="s">
         <v>631</v>
       </c>
-      <c r="B144" s="15" t="s">
+      <c r="C146" s="20" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="15" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="15" t="s">
+      <c r="B147" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="B145" s="15" t="s">
+      <c r="C147" s="21" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="13" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="15" t="s">
+      <c r="B148" s="13" t="s">
         <v>635</v>
       </c>
-      <c r="B146" s="15" t="s">
+      <c r="C148" s="18" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="15" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="13" t="s">
+      <c r="B149" s="15" t="s">
         <v>637</v>
       </c>
-      <c r="B147" s="13" t="s">
+      <c r="C149" s="20" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="15" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="15" t="s">
+      <c r="B150" s="15" t="s">
+        <v>639</v>
+      </c>
+      <c r="C150" s="21" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="C151" s="21" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="13" t="s">
+        <v>642</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="C152" s="18" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="13" t="s">
+        <v>644</v>
+      </c>
+      <c r="B153" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="C153" s="18" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="15" t="s">
+        <v>710</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>646</v>
+      </c>
+      <c r="C154" s="20" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="15" t="s">
+        <v>647</v>
+      </c>
+      <c r="B155" s="15" t="s">
         <v>648</v>
       </c>
-      <c r="B148" s="15" t="s">
+      <c r="C155" s="21" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="13" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="15" t="s">
+      <c r="B156" s="13" t="s">
         <v>650</v>
       </c>
-      <c r="B149" s="15" t="s">
+      <c r="C156" s="18" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="15" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="13" t="s">
+      <c r="B157" s="15" t="s">
         <v>652</v>
       </c>
-      <c r="B150" s="13" t="s">
+      <c r="C157" s="20" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="15" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="15" t="s">
+      <c r="B158" s="15" t="s">
         <v>654</v>
       </c>
-      <c r="B151" s="15" t="s">
+      <c r="C158" s="21" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="15" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="15" t="s">
+      <c r="B159" s="15" t="s">
         <v>656</v>
       </c>
-      <c r="B152" s="15" t="s">
+      <c r="C159" s="21" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="13" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="15" t="s">
+      <c r="B160" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="C160" s="18" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="15" t="s">
+        <v>658</v>
+      </c>
+      <c r="B161" s="15" t="s">
         <v>659</v>
       </c>
-      <c r="B153" s="15" t="s">
+      <c r="C161" s="20" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="13" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="15" t="s">
         <v>660</v>
       </c>
-      <c r="B154" s="13" t="s">
+      <c r="B162" s="15" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="15" t="s">
+      <c r="C162" s="21" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="15" t="s">
         <v>662</v>
       </c>
-      <c r="B155" s="15" t="s">
+      <c r="B163" s="15" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="15" t="s">
+      <c r="C163" s="21" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="13" t="s">
+        <v>664</v>
+      </c>
+      <c r="B164" s="13" t="s">
+        <v>665</v>
+      </c>
+      <c r="C164" s="18" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="15" t="s">
         <v>666</v>
       </c>
-      <c r="B156" s="15" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="13" t="s">
-        <v>665</v>
-      </c>
-      <c r="B157" s="13" t="s">
+      <c r="B165" s="15" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="15" t="s">
+      <c r="C165" s="20" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="B166" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="C166" s="21" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="15" t="s">
+        <v>716</v>
+      </c>
+      <c r="B167" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="C167" s="21" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="15" t="s">
+        <v>717</v>
+      </c>
+      <c r="B168" s="15" t="s">
+        <v>713</v>
+      </c>
+      <c r="C168" s="21" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="13" t="s">
         <v>668</v>
       </c>
-      <c r="B158" s="15" t="s">
+      <c r="B169" s="13" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="15" t="s">
+      <c r="C169" s="22" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="15" t="s">
         <v>670</v>
       </c>
-      <c r="B159" s="15" t="s">
+      <c r="B170" s="15" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="13" t="s">
+      <c r="C170" s="20" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="15" t="s">
         <v>672</v>
       </c>
-      <c r="B160" s="13" t="s">
+      <c r="B171" s="15" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="15" t="s">
+      <c r="C171" s="21" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="13" t="s">
         <v>674</v>
       </c>
-      <c r="B161" s="15" t="s">
+      <c r="B172" s="13" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="15" t="s">
+      <c r="C172" s="18" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="B162" s="15" t="s">
+      <c r="B173" s="15" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="15" t="s">
+      <c r="C173" s="20" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="15" t="s">
         <v>678</v>
       </c>
-      <c r="B163" s="15" t="s">
+      <c r="B174" s="15" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="13" t="s">
+      <c r="C174" s="21" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="15" t="s">
+        <v>720</v>
+      </c>
+      <c r="B175" s="15" t="s">
+        <v>719</v>
+      </c>
+      <c r="C175" s="21" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="13" t="s">
         <v>680</v>
       </c>
-      <c r="B164" s="13" t="s">
+      <c r="B176" s="13" t="s">
+        <v>718</v>
+      </c>
+      <c r="C176" s="18" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="15" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="15" t="s">
+      <c r="B177" s="15" t="s">
+        <v>753</v>
+      </c>
+      <c r="C177" s="20" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="15" t="s">
         <v>682</v>
       </c>
-      <c r="B165" s="15" t="s">
+      <c r="B178" s="15" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="15" t="s">
+      <c r="C178" s="21" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="13" t="s">
         <v>684</v>
       </c>
-      <c r="B166" s="15" t="s">
+      <c r="B179" s="13" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="15" t="s">
+      <c r="C179" s="18" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="B180" s="13" t="s">
         <v>686</v>
       </c>
-      <c r="B167" s="15" t="s">
+      <c r="C180" s="23" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" s="13" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="13" t="s">
         <v>688</v>
       </c>
-      <c r="B168" s="13" t="s">
+      <c r="B181" s="13" t="s">
+        <v>721</v>
+      </c>
+      <c r="C181" s="23" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="13" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="15" t="s">
+      <c r="B182" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="B169" s="15" t="s">
+      <c r="C182" s="23" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="15" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="15" t="s">
+      <c r="B183" s="15" t="s">
         <v>692</v>
       </c>
-      <c r="B170" s="15" t="s">
+      <c r="C183" s="20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="15" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="15" t="s">
+      <c r="B184" s="15" t="s">
         <v>694</v>
       </c>
-      <c r="B171" s="15" t="s">
+      <c r="C184" s="21" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="13" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="15" t="s">
-        <v>719</v>
-      </c>
-      <c r="B172" s="15" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A173" s="13" t="s">
+      <c r="B185" s="13" t="s">
         <v>696</v>
       </c>
-      <c r="B173" s="13" t="s">
+      <c r="C185" s="18" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="13" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="15" t="s">
+      <c r="B186" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="B174" s="15" t="s">
+      <c r="C186" s="23" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="15" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="15" t="s">
+      <c r="B187" s="15" t="s">
         <v>700</v>
       </c>
-      <c r="B175" s="15" t="s">
+      <c r="C187" s="20" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="15" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="13" t="s">
+      <c r="B188" s="15" t="s">
         <v>702</v>
       </c>
-      <c r="B176" s="13" t="s">
+      <c r="C188" s="21" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="13" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="15" t="s">
+      <c r="B189" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="B177" s="15" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="15" t="s">
-        <v>706</v>
-      </c>
-      <c r="B178" s="15" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="15" t="s">
-        <v>710</v>
-      </c>
-      <c r="B179" s="15" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="13" t="s">
-        <v>709</v>
-      </c>
-      <c r="B180" s="13" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="15" t="s">
-        <v>711</v>
-      </c>
-      <c r="B181" s="15" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="15" t="s">
-        <v>713</v>
-      </c>
-      <c r="B182" s="15" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="13" t="s">
-        <v>715</v>
-      </c>
-      <c r="B183" s="13" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="13" t="s">
-        <v>717</v>
-      </c>
-      <c r="B184" s="13" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="13"/>
-      <c r="B185" s="13"/>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="13"/>
-      <c r="B186" s="13"/>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="13"/>
-      <c r="B187" s="13"/>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="13"/>
-      <c r="B188" s="13"/>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="13"/>
-      <c r="B189" s="13"/>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C189" s="18" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="13"/>
       <c r="B190" s="13"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="13"/>
       <c r="B191" s="13"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="13"/>
       <c r="B192" s="13"/>
     </row>
@@ -14626,22 +15038,6 @@
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="13"/>
       <c r="B195" s="13"/>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="13"/>
-      <c r="B196" s="13"/>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="13"/>
-      <c r="B197" s="13"/>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="13"/>
-      <c r="B198" s="13"/>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="13"/>
-      <c r="B199" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/english.xlsx
+++ b/english.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\popoves\Desktop\experience\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\espopov\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBACB894-F367-4217-BFA7-5F38AAD36FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{AF848DA1-86EF-4FED-9942-D008ADCF70E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="words" sheetId="1" r:id="rId1"/>
     <sheet name="dualingo" sheetId="3" r:id="rId2"/>
     <sheet name="sentences" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="896">
   <si>
     <t>word</t>
   </si>
@@ -2298,12 +2297,429 @@
   </si>
   <si>
     <t>try your best practice and write your comments in English</t>
+  </si>
+  <si>
+    <t>an American businessman</t>
+  </si>
+  <si>
+    <t>американский бисзнесмен</t>
+  </si>
+  <si>
+    <t>was on vacation in Mexico</t>
+  </si>
+  <si>
+    <t>был в отпуске в Мексике</t>
+  </si>
+  <si>
+    <t>an American businessman was on vacation in Mexico</t>
+  </si>
+  <si>
+    <t>один американский бизнесмен был в отпуске в Мексике</t>
+  </si>
+  <si>
+    <t>every day</t>
+  </si>
+  <si>
+    <t>каждый день</t>
+  </si>
+  <si>
+    <t>he was on the beach</t>
+  </si>
+  <si>
+    <t>он был на пляже</t>
+  </si>
+  <si>
+    <t>every day he was on the beach</t>
+  </si>
+  <si>
+    <t>каждый день он был на пляже</t>
+  </si>
+  <si>
+    <t>он не мог не заметить</t>
+  </si>
+  <si>
+    <t>he could not help but notice</t>
+  </si>
+  <si>
+    <t>распорядок местного рыбака</t>
+  </si>
+  <si>
+    <t>он не мог не заметить распорядок местного рыбака</t>
+  </si>
+  <si>
+    <t>the routine of a local fisherman</t>
+  </si>
+  <si>
+    <t>he could not help but notice the routine of a local fisherman</t>
+  </si>
+  <si>
+    <t>every morning</t>
+  </si>
+  <si>
+    <t>каждое утро</t>
+  </si>
+  <si>
+    <t>the fisherman went out</t>
+  </si>
+  <si>
+    <t>рыбак отправлялся</t>
+  </si>
+  <si>
+    <t>the fisherman went out in his small boat</t>
+  </si>
+  <si>
+    <t>рыбак отправлялся в своей маленькой лодке</t>
+  </si>
+  <si>
+    <t>the fisherman went out in his small boat to catch fish</t>
+  </si>
+  <si>
+    <t>рыбак отправлялся в своей маленькой лодке ловить рыбу</t>
+  </si>
+  <si>
+    <t>every morning the fisherman went out in his small boat to catch fish</t>
+  </si>
+  <si>
+    <t>каждое утро рыбак отправлялся на своей малелькой лодке ловить рыбу</t>
+  </si>
+  <si>
+    <t>he would fish</t>
+  </si>
+  <si>
+    <t>он рыбачил</t>
+  </si>
+  <si>
+    <t>he would fish for a couple of hours</t>
+  </si>
+  <si>
+    <t>он рыбачил пару часов</t>
+  </si>
+  <si>
+    <t>and then return home</t>
+  </si>
+  <si>
+    <t>а затем возвращался домой</t>
+  </si>
+  <si>
+    <t>and then return home with some fish</t>
+  </si>
+  <si>
+    <t>а затем возвращался домой с какой-то рыбой</t>
+  </si>
+  <si>
+    <t>he would fish for a couple of hours and then return home with some fish</t>
+  </si>
+  <si>
+    <t>он рыбачил пару часов, а затем возвращался домой с какой-то рыбой</t>
+  </si>
+  <si>
+    <t>he would bring</t>
+  </si>
+  <si>
+    <t>он приносил</t>
+  </si>
+  <si>
+    <t>он приносил рыбу домой</t>
+  </si>
+  <si>
+    <t>he would bring fish home</t>
+  </si>
+  <si>
+    <t>and give it to his wife</t>
+  </si>
+  <si>
+    <t>и отдавал своей жене</t>
+  </si>
+  <si>
+    <t>and give it to his wife to cook for lunch</t>
+  </si>
+  <si>
+    <t>и отдавал своей жене, чтобы она приготовила обед</t>
+  </si>
+  <si>
+    <t>he would bring fish home and give it to his wife to cook for lunch</t>
+  </si>
+  <si>
+    <t>он приносил рыбу домой и отдавал своей жене, чтобы она приготовила обед</t>
+  </si>
+  <si>
+    <t>also he would give some fish</t>
+  </si>
+  <si>
+    <t>также он отдавал немного рыбы</t>
+  </si>
+  <si>
+    <t>also he would give some fish to his neighbours</t>
+  </si>
+  <si>
+    <t>также он отдавал немного рыбы своим соседям</t>
+  </si>
+  <si>
+    <t>the businessman noticed</t>
+  </si>
+  <si>
+    <t>биснесмен заметил</t>
+  </si>
+  <si>
+    <t>the businessman noticed that in the afternoon</t>
+  </si>
+  <si>
+    <t>биснесмен заметил, что после обеда</t>
+  </si>
+  <si>
+    <t>in the afternoon the fisherman didn’t work</t>
+  </si>
+  <si>
+    <t>после обеда рыбак не работал</t>
+  </si>
+  <si>
+    <t>the businessman noticed that in the afternoon the fisherman didn’t work</t>
+  </si>
+  <si>
+    <t>бизнесмен заметил, что поле обеда рыбак не работал</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>вместо этого</t>
+  </si>
+  <si>
+    <t>he spent time</t>
+  </si>
+  <si>
+    <t>он проводил время</t>
+  </si>
+  <si>
+    <t>he spent time with his family</t>
+  </si>
+  <si>
+    <t>он проводил время с семьей</t>
+  </si>
+  <si>
+    <t>played the guitar</t>
+  </si>
+  <si>
+    <t>играл на гитаре</t>
+  </si>
+  <si>
+    <t>and enjoyed the company of his friends and neighbours</t>
+  </si>
+  <si>
+    <t>и наслаждался компанией своих друзей и соседей</t>
+  </si>
+  <si>
+    <t>instead, he spent time with his family, played the guitar, and enjoyed company of his friends and neighbours</t>
+  </si>
+  <si>
+    <t>вместо этого он проводил время с семьей, играл на гитаре, и наслаждался компанией своих друзей и соседей</t>
+  </si>
+  <si>
+    <t>one day</t>
+  </si>
+  <si>
+    <t>the businessman approached the fisherman</t>
+  </si>
+  <si>
+    <t>and said</t>
+  </si>
+  <si>
+    <t>бизнесмен подошел к рыбаку</t>
+  </si>
+  <si>
+    <t>и сказал</t>
+  </si>
+  <si>
+    <t>one day, the businessman approached the fisherman and said</t>
+  </si>
+  <si>
+    <t>однажды, бизнесмен подошел к рыбаку и сказал</t>
+  </si>
+  <si>
+    <t>listen friend</t>
+  </si>
+  <si>
+    <t>послушай друг</t>
+  </si>
+  <si>
+    <t>I noticed</t>
+  </si>
+  <si>
+    <t>я заметил</t>
+  </si>
+  <si>
+    <t>I noticed that you have a lot of free time</t>
+  </si>
+  <si>
+    <t>я заметил что у тебя много свободного времени</t>
+  </si>
+  <si>
+    <t>listen friend, I noticed that you have a lot of free time</t>
+  </si>
+  <si>
+    <t>послушай друг, я заметил, что у тебя очень много свободного времени</t>
+  </si>
+  <si>
+    <t>why don’t you stay out</t>
+  </si>
+  <si>
+    <t>почему бы тебе не оставаться подольше</t>
+  </si>
+  <si>
+    <t>почему бы тебе не оставаться</t>
+  </si>
+  <si>
+    <t>why don’t you stay out longer</t>
+  </si>
+  <si>
+    <t>and catch more fish</t>
+  </si>
+  <si>
+    <t>и ловить больше рыбы</t>
+  </si>
+  <si>
+    <t>why don’t you stays out longer and catch more fish</t>
+  </si>
+  <si>
+    <t>почему бы тебе не оставаться подольше и ловить больше рыбы</t>
+  </si>
+  <si>
+    <t>the fisherman replied</t>
+  </si>
+  <si>
+    <t>рыбак ответил</t>
+  </si>
+  <si>
+    <t>I catch enough</t>
+  </si>
+  <si>
+    <t>я ловлю достаточно</t>
+  </si>
+  <si>
+    <t>I catch enough to support my family</t>
+  </si>
+  <si>
+    <t>я ловлю досточно для поддержки моей семьи</t>
+  </si>
+  <si>
+    <t>and little more</t>
+  </si>
+  <si>
+    <t>и еще немного</t>
+  </si>
+  <si>
+    <t>and little more to share with friends</t>
+  </si>
+  <si>
+    <t>и еще немного, чтобы поделиться с друзьями</t>
+  </si>
+  <si>
+    <t>I catch enough to support my family, and little more to share with friends</t>
+  </si>
+  <si>
+    <t>я ловлю достаточно для поддержки семьи,  и еще немного, чтобы поделиться с друзьями</t>
+  </si>
+  <si>
+    <t>the businessman shook his head</t>
+  </si>
+  <si>
+    <t>бизнесмен покачал головой</t>
+  </si>
+  <si>
+    <t>I had great success</t>
+  </si>
+  <si>
+    <t>я добился большого успеха</t>
+  </si>
+  <si>
+    <t>building many business back home</t>
+  </si>
+  <si>
+    <t>построив множество бизнесов у себя дома</t>
+  </si>
+  <si>
+    <t>said businessman</t>
+  </si>
+  <si>
+    <t>сказал бизнесмен</t>
+  </si>
+  <si>
+    <t>I had great success building many business back home - said businessman</t>
+  </si>
+  <si>
+    <t>я добился большого успеха, построив множество бизнесов у себя дома - сказал бизнесмен</t>
+  </si>
+  <si>
+    <t>I can teach you</t>
+  </si>
+  <si>
+    <t>я могу научить тебя</t>
+  </si>
+  <si>
+    <t>I can teach you how to become rich</t>
+  </si>
+  <si>
+    <t>я могу научить тебя как стать богатым</t>
+  </si>
+  <si>
+    <t>the fisherman looked at the businessman with curiosity</t>
+  </si>
+  <si>
+    <t>the fisherman looked at the businessman</t>
+  </si>
+  <si>
+    <t>рыбак посмотрел на бизнесмена</t>
+  </si>
+  <si>
+    <t>рыбак посмотрел на бизнесмена с любопытством</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>you have to spend</t>
+  </si>
+  <si>
+    <t>you have to spend more time</t>
+  </si>
+  <si>
+    <t>you have to spend more time fishing</t>
+  </si>
+  <si>
+    <t>so you can catch more fish</t>
+  </si>
+  <si>
+    <t>started businessman</t>
+  </si>
+  <si>
+    <t>first, you have to spend more time fishing so you can catch more fish - started businessman</t>
+  </si>
+  <si>
+    <t>во-первых</t>
+  </si>
+  <si>
+    <t>ты должен проводить</t>
+  </si>
+  <si>
+    <t>ты должен проводить больше времени</t>
+  </si>
+  <si>
+    <t>ты должен проводить больше времени на рыбалке</t>
+  </si>
+  <si>
+    <t>так ты сможешь поймать больше рыбы</t>
+  </si>
+  <si>
+    <t>начал бизнесмен</t>
+  </si>
+  <si>
+    <t>во-первых, ты должен проводить больше времени на рыбалке, так ты можешь поймать больше рыбы - начал бизнесмен</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2457,7 +2873,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2511,6 +2927,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2825,25 +3244,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2423808-4693-41AC-A444-D72962B0689A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G300"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2866,7 +3285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2889,7 +3308,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2912,7 +3331,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2937,7 +3356,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -2962,7 +3381,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>105</v>
       </c>
@@ -2985,7 +3404,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>107</v>
       </c>
@@ -3008,7 +3427,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>109</v>
       </c>
@@ -3031,7 +3450,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>111</v>
       </c>
@@ -3054,7 +3473,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>113</v>
       </c>
@@ -3077,7 +3496,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>115</v>
       </c>
@@ -3100,7 +3519,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>117</v>
       </c>
@@ -3123,7 +3542,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>120</v>
       </c>
@@ -3146,7 +3565,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>122</v>
       </c>
@@ -3171,7 +3590,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>124</v>
       </c>
@@ -3194,7 +3613,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>126</v>
       </c>
@@ -3217,7 +3636,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>128</v>
       </c>
@@ -3240,7 +3659,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>130</v>
       </c>
@@ -3263,7 +3682,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>132</v>
       </c>
@@ -3286,7 +3705,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>134</v>
       </c>
@@ -3309,7 +3728,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>217</v>
       </c>
@@ -3330,7 +3749,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>219</v>
       </c>
@@ -3349,7 +3768,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>221</v>
       </c>
@@ -3368,7 +3787,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>223</v>
       </c>
@@ -3387,7 +3806,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>225</v>
       </c>
@@ -3406,7 +3825,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>227</v>
       </c>
@@ -3425,7 +3844,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>229</v>
       </c>
@@ -3444,7 +3863,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>231</v>
       </c>
@@ -3463,7 +3882,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>233</v>
       </c>
@@ -3482,7 +3901,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>235</v>
       </c>
@@ -3501,7 +3920,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>237</v>
       </c>
@@ -3520,7 +3939,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>240</v>
       </c>
@@ -3539,7 +3958,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>242</v>
       </c>
@@ -3558,7 +3977,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>244</v>
       </c>
@@ -3577,7 +3996,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>246</v>
       </c>
@@ -3596,7 +4015,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>248</v>
       </c>
@@ -3617,7 +4036,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>251</v>
       </c>
@@ -3636,7 +4055,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>253</v>
       </c>
@@ -3657,7 +4076,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>256</v>
       </c>
@@ -3676,7 +4095,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>258</v>
       </c>
@@ -3695,7 +4114,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>260</v>
       </c>
@@ -3714,7 +4133,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>262</v>
       </c>
@@ -3733,7 +4152,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
@@ -3748,7 +4167,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
@@ -3763,7 +4182,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
@@ -3778,7 +4197,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
@@ -3793,7 +4212,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
@@ -3808,7 +4227,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
@@ -3823,7 +4242,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
@@ -3838,7 +4257,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
@@ -3853,7 +4272,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
@@ -3868,7 +4287,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
@@ -3883,7 +4302,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
@@ -3898,7 +4317,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
@@ -3913,7 +4332,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
@@ -3928,7 +4347,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
@@ -3943,7 +4362,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
@@ -3958,7 +4377,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
@@ -3973,7 +4392,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
@@ -3988,7 +4407,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="5"/>
@@ -4003,7 +4422,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="5"/>
@@ -4018,7 +4437,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="5"/>
@@ -4033,7 +4452,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="5"/>
@@ -4048,7 +4467,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="5"/>
@@ -4063,7 +4482,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="5"/>
@@ -4078,7 +4497,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="5"/>
@@ -4093,7 +4512,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="5"/>
@@ -4108,7 +4527,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="5"/>
@@ -4123,7 +4542,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="5"/>
@@ -4138,7 +4557,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="5"/>
@@ -4153,7 +4572,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="5"/>
@@ -4168,7 +4587,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="5"/>
@@ -4183,7 +4602,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="5"/>
@@ -4198,7 +4617,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="5"/>
@@ -4213,7 +4632,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="5"/>
@@ -4228,7 +4647,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="5"/>
@@ -4243,7 +4662,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="5"/>
@@ -4258,7 +4677,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="5"/>
@@ -4273,7 +4692,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="5"/>
@@ -4288,7 +4707,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="5"/>
@@ -4303,7 +4722,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="5"/>
@@ -4318,7 +4737,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="5"/>
@@ -4333,7 +4752,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="5"/>
@@ -4348,7 +4767,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="5"/>
@@ -4363,7 +4782,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="5"/>
@@ -4378,7 +4797,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="5"/>
@@ -4393,7 +4812,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="5"/>
@@ -4408,7 +4827,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="5"/>
@@ -4423,7 +4842,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="5"/>
@@ -4438,7 +4857,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="5"/>
@@ -4453,7 +4872,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="5"/>
@@ -4468,7 +4887,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="5"/>
@@ -4483,7 +4902,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="5"/>
@@ -4498,7 +4917,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="5"/>
@@ -4513,7 +4932,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="5"/>
@@ -4528,7 +4947,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="5"/>
@@ -4543,7 +4962,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="5"/>
@@ -4558,7 +4977,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="5"/>
@@ -4573,7 +4992,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="5"/>
@@ -4588,7 +5007,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="5"/>
@@ -4603,7 +5022,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="5"/>
@@ -4618,7 +5037,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="5"/>
@@ -4633,7 +5052,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="5"/>
@@ -4648,7 +5067,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="5"/>
@@ -4663,7 +5082,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="5"/>
@@ -4678,7 +5097,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="5"/>
@@ -4693,7 +5112,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="5"/>
@@ -4708,7 +5127,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="5"/>
@@ -4723,7 +5142,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="5"/>
@@ -4738,7 +5157,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="5"/>
@@ -4753,7 +5172,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="5"/>
@@ -4768,7 +5187,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="5"/>
@@ -4783,7 +5202,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="5"/>
@@ -4798,7 +5217,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="5"/>
@@ -4813,7 +5232,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="5"/>
@@ -4828,7 +5247,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="5"/>
@@ -4843,7 +5262,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="5"/>
@@ -4858,7 +5277,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="5"/>
@@ -4873,7 +5292,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="5"/>
@@ -4888,7 +5307,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="5"/>
@@ -4903,7 +5322,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="5"/>
@@ -4918,7 +5337,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="5"/>
@@ -4933,7 +5352,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="5"/>
@@ -4948,7 +5367,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="5"/>
@@ -4963,7 +5382,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="5"/>
@@ -4978,7 +5397,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="5"/>
@@ -4993,7 +5412,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="5"/>
@@ -5008,7 +5427,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="5"/>
@@ -5023,7 +5442,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="5"/>
@@ -5038,7 +5457,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="5"/>
@@ -5053,7 +5472,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="5"/>
@@ -5068,7 +5487,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="5"/>
@@ -5083,7 +5502,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="5"/>
@@ -5098,7 +5517,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="5"/>
@@ -5113,7 +5532,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="5"/>
@@ -5128,7 +5547,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="5"/>
@@ -5143,7 +5562,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="5"/>
@@ -5158,7 +5577,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="5"/>
@@ -5173,7 +5592,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="5"/>
@@ -5188,7 +5607,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="5"/>
@@ -5203,7 +5622,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="5"/>
@@ -5218,7 +5637,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="5"/>
@@ -5233,7 +5652,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="5"/>
@@ -5248,7 +5667,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="5"/>
@@ -5263,7 +5682,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="5"/>
@@ -5278,7 +5697,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="5"/>
@@ -5293,7 +5712,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="5"/>
@@ -5308,7 +5727,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="5"/>
@@ -5323,7 +5742,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="5"/>
@@ -5338,7 +5757,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="5"/>
@@ -5353,7 +5772,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="5"/>
@@ -5368,7 +5787,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="5"/>
@@ -5383,7 +5802,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="5"/>
@@ -5398,7 +5817,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="5"/>
@@ -5413,7 +5832,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="5"/>
@@ -5428,7 +5847,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="5"/>
@@ -5443,7 +5862,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="5"/>
@@ -5458,7 +5877,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="5"/>
@@ -5473,7 +5892,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="5"/>
@@ -5488,7 +5907,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="5"/>
@@ -5503,7 +5922,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="5"/>
@@ -5518,7 +5937,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="5"/>
@@ -5533,7 +5952,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="5"/>
@@ -5548,7 +5967,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="5"/>
@@ -5563,7 +5982,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="5"/>
@@ -5578,7 +5997,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="5"/>
@@ -5593,7 +6012,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="5"/>
@@ -5608,7 +6027,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="5"/>
@@ -5623,7 +6042,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="5"/>
@@ -5638,7 +6057,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="5"/>
@@ -5653,7 +6072,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="5"/>
@@ -5668,7 +6087,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="5"/>
@@ -5683,7 +6102,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="5"/>
@@ -5698,7 +6117,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="5"/>
@@ -5713,7 +6132,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="5"/>
@@ -5728,7 +6147,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="5"/>
@@ -5743,7 +6162,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="5"/>
@@ -5758,7 +6177,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="5"/>
@@ -5773,7 +6192,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="5"/>
@@ -5788,7 +6207,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="5"/>
@@ -5803,7 +6222,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="5"/>
@@ -5818,7 +6237,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="5"/>
@@ -5833,7 +6252,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="5"/>
@@ -5848,7 +6267,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="5"/>
@@ -5863,7 +6282,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="5"/>
@@ -5878,7 +6297,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="5"/>
@@ -5893,7 +6312,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="5"/>
@@ -5908,7 +6327,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="5"/>
@@ -5923,7 +6342,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="5"/>
@@ -5938,7 +6357,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="5"/>
@@ -5953,7 +6372,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="5"/>
@@ -5968,7 +6387,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="5"/>
@@ -5983,7 +6402,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="5"/>
@@ -5998,7 +6417,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="5"/>
@@ -6013,7 +6432,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="5"/>
@@ -6028,7 +6447,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="5"/>
@@ -6043,7 +6462,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="5"/>
@@ -6058,7 +6477,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="5"/>
@@ -6073,7 +6492,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="5"/>
@@ -6088,7 +6507,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="5"/>
@@ -6103,7 +6522,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="5"/>
@@ -6118,7 +6537,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="5"/>
@@ -6133,7 +6552,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="5"/>
@@ -6148,7 +6567,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="5"/>
@@ -6163,7 +6582,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="5"/>
@@ -6178,7 +6597,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="5"/>
@@ -6193,7 +6612,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="5"/>
@@ -6208,7 +6627,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="5"/>
@@ -6223,7 +6642,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="5"/>
@@ -6238,7 +6657,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="5"/>
@@ -6253,7 +6672,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="5"/>
@@ -6268,7 +6687,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="5"/>
@@ -6283,7 +6702,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="5"/>
@@ -6298,7 +6717,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="5"/>
@@ -6313,7 +6732,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="5"/>
@@ -6328,7 +6747,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="5"/>
@@ -6343,7 +6762,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="5"/>
@@ -6358,7 +6777,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="5"/>
@@ -6373,7 +6792,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="5"/>
@@ -6388,7 +6807,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="5"/>
@@ -6403,7 +6822,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="5"/>
@@ -6418,7 +6837,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="5"/>
@@ -6433,7 +6852,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="5"/>
@@ -6448,7 +6867,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="5"/>
@@ -6463,7 +6882,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="5"/>
@@ -6478,7 +6897,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="5"/>
@@ -6493,7 +6912,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="5"/>
@@ -6508,7 +6927,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="5"/>
@@ -6523,7 +6942,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="5"/>
@@ -6538,7 +6957,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="5"/>
@@ -6553,7 +6972,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="5"/>
@@ -6568,7 +6987,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="5"/>
@@ -6583,7 +7002,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="5"/>
@@ -6598,7 +7017,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="5"/>
@@ -6613,7 +7032,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="5"/>
@@ -6628,7 +7047,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="5"/>
@@ -6643,7 +7062,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="5"/>
@@ -6658,7 +7077,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="5"/>
@@ -6673,7 +7092,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="5"/>
@@ -6688,7 +7107,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="5"/>
@@ -6703,7 +7122,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="5"/>
@@ -6718,7 +7137,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="5"/>
@@ -6733,7 +7152,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="5"/>
@@ -6748,7 +7167,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="5"/>
@@ -6763,7 +7182,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="5"/>
@@ -6778,7 +7197,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="5"/>
@@ -6793,7 +7212,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="5"/>
@@ -6808,7 +7227,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="5"/>
@@ -6823,7 +7242,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="5"/>
@@ -6838,7 +7257,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="5"/>
@@ -6853,7 +7272,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="5"/>
@@ -6868,7 +7287,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="5"/>
@@ -6883,7 +7302,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="5"/>
@@ -6898,7 +7317,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="5"/>
@@ -6913,7 +7332,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="5"/>
@@ -6928,7 +7347,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="5"/>
@@ -6943,7 +7362,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="5"/>
@@ -6958,7 +7377,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="5"/>
@@ -6973,7 +7392,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="5"/>
@@ -6988,7 +7407,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="5"/>
@@ -7003,7 +7422,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="5"/>
@@ -7018,7 +7437,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="5"/>
@@ -7033,7 +7452,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="5"/>
@@ -7048,7 +7467,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="5"/>
@@ -7063,7 +7482,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="5"/>
@@ -7078,7 +7497,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="5"/>
@@ -7093,7 +7512,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="5"/>
@@ -7108,7 +7527,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="5"/>
@@ -7123,7 +7542,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="5"/>
@@ -7138,7 +7557,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="5"/>
@@ -7153,7 +7572,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="5"/>
@@ -7168,7 +7587,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="5"/>
@@ -7183,7 +7602,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="5"/>
@@ -7198,7 +7617,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="5"/>
@@ -7213,7 +7632,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="5"/>
@@ -7228,7 +7647,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="5"/>
@@ -7243,7 +7662,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="5"/>
@@ -7258,7 +7677,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="5"/>
@@ -7273,7 +7692,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="5"/>
@@ -7288,7 +7707,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="5"/>
@@ -7303,7 +7722,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="5"/>
@@ -7318,7 +7737,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="5"/>
@@ -7333,7 +7752,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="5"/>
@@ -7348,7 +7767,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="5"/>
@@ -7363,7 +7782,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="5"/>
@@ -7378,7 +7797,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="5"/>
@@ -7393,7 +7812,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="5"/>
@@ -7408,7 +7827,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="5"/>
@@ -7423,7 +7842,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="5"/>
@@ -7438,7 +7857,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="5"/>
@@ -7453,7 +7872,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="5"/>
@@ -7468,7 +7887,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="5"/>
@@ -7483,7 +7902,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="5"/>
@@ -7498,7 +7917,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="5"/>
@@ -7513,7 +7932,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="5"/>
@@ -7528,7 +7947,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="5"/>
@@ -7543,7 +7962,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="5"/>
@@ -7558,7 +7977,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="5"/>
@@ -7573,7 +7992,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="5"/>
@@ -7588,7 +8007,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="5"/>
@@ -7610,25 +8029,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C9EED5-17C0-4928-B4E3-7D80F3164236}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I296"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7651,7 +8070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -7674,7 +8093,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -7697,7 +8116,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -7720,7 +8139,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -7743,7 +8162,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -7766,7 +8185,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -7789,7 +8208,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -7812,7 +8231,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -7835,7 +8254,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -7858,7 +8277,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -7883,7 +8302,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -7906,7 +8325,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
@@ -7929,7 +8348,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -7952,7 +8371,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -7975,7 +8394,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
@@ -7998,7 +8417,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -8021,7 +8440,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
@@ -8044,7 +8463,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -8067,7 +8486,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -8090,7 +8509,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -8113,7 +8532,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
@@ -8136,7 +8555,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
@@ -8159,7 +8578,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -8182,7 +8601,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>68</v>
       </c>
@@ -8205,7 +8624,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>70</v>
       </c>
@@ -8228,7 +8647,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
@@ -8251,7 +8670,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>74</v>
       </c>
@@ -8274,7 +8693,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
@@ -8297,7 +8716,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>78</v>
       </c>
@@ -8320,7 +8739,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
@@ -8345,7 +8764,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>83</v>
       </c>
@@ -8370,7 +8789,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
@@ -8393,7 +8812,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>87</v>
       </c>
@@ -8416,7 +8835,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>89</v>
       </c>
@@ -8439,7 +8858,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>211</v>
       </c>
@@ -8462,7 +8881,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>91</v>
       </c>
@@ -8485,7 +8904,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>93</v>
       </c>
@@ -8510,7 +8929,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>96</v>
       </c>
@@ -8533,7 +8952,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>98</v>
       </c>
@@ -8556,7 +8975,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>100</v>
       </c>
@@ -8579,7 +8998,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>102</v>
       </c>
@@ -8604,7 +9023,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>136</v>
       </c>
@@ -8627,7 +9046,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>138</v>
       </c>
@@ -8650,7 +9069,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>143</v>
       </c>
@@ -8673,7 +9092,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>145</v>
       </c>
@@ -8696,7 +9115,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>147</v>
       </c>
@@ -8721,7 +9140,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>150</v>
       </c>
@@ -8744,7 +9163,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>152</v>
       </c>
@@ -8767,7 +9186,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>154</v>
       </c>
@@ -8790,7 +9209,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>214</v>
       </c>
@@ -8813,7 +9232,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>157</v>
       </c>
@@ -8836,7 +9255,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>159</v>
       </c>
@@ -8859,7 +9278,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>161</v>
       </c>
@@ -8882,7 +9301,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>163</v>
       </c>
@@ -8907,7 +9326,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>165</v>
       </c>
@@ -8930,7 +9349,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>167</v>
       </c>
@@ -8953,7 +9372,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>169</v>
       </c>
@@ -8976,7 +9395,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>171</v>
       </c>
@@ -8999,7 +9418,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>173</v>
       </c>
@@ -9022,7 +9441,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>175</v>
       </c>
@@ -9045,7 +9464,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>177</v>
       </c>
@@ -9068,7 +9487,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>181</v>
       </c>
@@ -9091,7 +9510,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>184</v>
       </c>
@@ -9114,7 +9533,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>186</v>
       </c>
@@ -9137,7 +9556,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>188</v>
       </c>
@@ -9160,7 +9579,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>190</v>
       </c>
@@ -9183,7 +9602,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>192</v>
       </c>
@@ -9206,7 +9625,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>194</v>
       </c>
@@ -9231,7 +9650,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>197</v>
       </c>
@@ -9254,7 +9673,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>200</v>
       </c>
@@ -9277,7 +9696,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>201</v>
       </c>
@@ -9300,7 +9719,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>203</v>
       </c>
@@ -9323,7 +9742,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>205</v>
       </c>
@@ -9346,7 +9765,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>207</v>
       </c>
@@ -9369,7 +9788,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>209</v>
       </c>
@@ -9392,7 +9811,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>264</v>
       </c>
@@ -9415,7 +9834,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>266</v>
       </c>
@@ -9438,7 +9857,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>268</v>
       </c>
@@ -9461,7 +9880,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>270</v>
       </c>
@@ -9484,7 +9903,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>272</v>
       </c>
@@ -9507,7 +9926,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>274</v>
       </c>
@@ -9530,7 +9949,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>276</v>
       </c>
@@ -9555,7 +9974,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>279</v>
       </c>
@@ -9580,7 +9999,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>282</v>
       </c>
@@ -9603,7 +10022,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>284</v>
       </c>
@@ -9626,7 +10045,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>286</v>
       </c>
@@ -9649,7 +10068,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>288</v>
       </c>
@@ -9672,7 +10091,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>290</v>
       </c>
@@ -9695,7 +10114,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>297</v>
       </c>
@@ -9720,7 +10139,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>300</v>
       </c>
@@ -9743,7 +10162,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>304</v>
       </c>
@@ -9766,7 +10185,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>306</v>
       </c>
@@ -9789,7 +10208,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>309</v>
       </c>
@@ -9812,7 +10231,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>311</v>
       </c>
@@ -9835,7 +10254,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>313</v>
       </c>
@@ -9858,7 +10277,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>316</v>
       </c>
@@ -9883,7 +10302,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>319</v>
       </c>
@@ -9906,7 +10325,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>321</v>
       </c>
@@ -9929,7 +10348,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>323</v>
       </c>
@@ -9952,7 +10371,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>324</v>
       </c>
@@ -9975,7 +10394,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>328</v>
       </c>
@@ -9998,7 +10417,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>332</v>
       </c>
@@ -10021,7 +10440,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>334</v>
       </c>
@@ -10044,7 +10463,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>336</v>
       </c>
@@ -10067,7 +10486,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>338</v>
       </c>
@@ -10093,7 +10512,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>340</v>
       </c>
@@ -10116,7 +10535,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="5"/>
@@ -10131,7 +10550,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="5"/>
@@ -10146,7 +10565,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="5"/>
@@ -10161,7 +10580,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="5"/>
@@ -10176,7 +10595,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="5"/>
@@ -10191,7 +10610,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="5"/>
@@ -10206,7 +10625,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="5"/>
@@ -10221,7 +10640,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="5"/>
@@ -10236,7 +10655,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="5"/>
@@ -10251,7 +10670,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="5"/>
@@ -10266,7 +10685,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="5"/>
@@ -10281,7 +10700,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="5"/>
@@ -10296,7 +10715,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="5"/>
@@ -10311,7 +10730,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="5"/>
@@ -10326,7 +10745,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="5"/>
@@ -10341,7 +10760,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="5"/>
@@ -10356,7 +10775,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="5"/>
@@ -10371,7 +10790,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="5"/>
@@ -10386,7 +10805,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="5"/>
@@ -10401,7 +10820,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="5"/>
@@ -10416,7 +10835,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="5"/>
@@ -10431,7 +10850,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="5"/>
@@ -10446,7 +10865,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="5"/>
@@ -10461,7 +10880,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="5"/>
@@ -10476,7 +10895,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="5"/>
@@ -10491,7 +10910,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="5"/>
@@ -10506,7 +10925,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="5"/>
@@ -10521,7 +10940,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="5"/>
@@ -10536,7 +10955,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="5"/>
@@ -10551,7 +10970,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="5"/>
@@ -10566,7 +10985,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="5"/>
@@ -10581,7 +11000,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="5"/>
@@ -10596,7 +11015,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="5"/>
@@ -10611,7 +11030,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="5"/>
@@ -10626,7 +11045,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="5"/>
@@ -10641,7 +11060,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="5"/>
@@ -10656,7 +11075,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="5"/>
@@ -10671,7 +11090,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="5"/>
@@ -10686,7 +11105,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="5"/>
@@ -10701,7 +11120,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="5"/>
@@ -10716,7 +11135,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="5"/>
@@ -10731,7 +11150,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="5"/>
@@ -10746,7 +11165,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="5"/>
@@ -10761,7 +11180,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="5"/>
@@ -10776,7 +11195,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="5"/>
@@ -10791,7 +11210,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="5"/>
@@ -10806,7 +11225,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="5"/>
@@ -10821,7 +11240,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="5"/>
@@ -10836,7 +11255,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="5"/>
@@ -10851,7 +11270,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="5"/>
@@ -10866,7 +11285,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="5"/>
@@ -10881,7 +11300,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="5"/>
@@ -10896,7 +11315,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="5"/>
@@ -10911,7 +11330,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="5"/>
@@ -10926,7 +11345,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="5"/>
@@ -10941,7 +11360,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="5"/>
@@ -10956,7 +11375,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="5"/>
@@ -10971,7 +11390,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="5"/>
@@ -10986,7 +11405,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="5"/>
@@ -11001,7 +11420,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="5"/>
@@ -11016,7 +11435,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="5"/>
@@ -11031,7 +11450,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="5"/>
@@ -11046,7 +11465,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="5"/>
@@ -11061,7 +11480,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="5"/>
@@ -11076,7 +11495,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="5"/>
@@ -11091,7 +11510,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="5"/>
@@ -11106,7 +11525,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="5"/>
@@ -11121,7 +11540,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="5"/>
@@ -11136,7 +11555,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="5"/>
@@ -11151,7 +11570,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="5"/>
@@ -11166,7 +11585,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="5"/>
@@ -11181,7 +11600,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="5"/>
@@ -11196,7 +11615,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="5"/>
@@ -11211,7 +11630,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="5"/>
@@ -11226,7 +11645,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="5"/>
@@ -11241,7 +11660,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="5"/>
@@ -11256,7 +11675,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="5"/>
@@ -11271,7 +11690,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="5"/>
@@ -11286,7 +11705,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="5"/>
@@ -11301,7 +11720,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="5"/>
@@ -11316,7 +11735,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="5"/>
@@ -11331,7 +11750,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="5"/>
@@ -11346,7 +11765,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="5"/>
@@ -11361,7 +11780,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="5"/>
@@ -11376,7 +11795,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="5"/>
@@ -11391,7 +11810,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="5"/>
@@ -11406,7 +11825,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="5"/>
@@ -11421,7 +11840,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="5"/>
@@ -11436,7 +11855,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="5"/>
@@ -11451,7 +11870,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="5"/>
@@ -11466,7 +11885,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="5"/>
@@ -11481,7 +11900,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="5"/>
@@ -11496,7 +11915,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="5"/>
@@ -11511,7 +11930,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="5"/>
@@ -11526,7 +11945,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="5"/>
@@ -11541,7 +11960,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="5"/>
@@ -11556,7 +11975,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="5"/>
@@ -11571,7 +11990,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="5"/>
@@ -11586,7 +12005,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="5"/>
@@ -11601,7 +12020,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="5"/>
@@ -11616,7 +12035,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="5"/>
@@ -11631,7 +12050,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="5"/>
@@ -11646,7 +12065,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="5"/>
@@ -11661,7 +12080,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="5"/>
@@ -11676,7 +12095,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="5"/>
@@ -11691,7 +12110,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="5"/>
@@ -11706,7 +12125,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="5"/>
@@ -11721,7 +12140,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="5"/>
@@ -11736,7 +12155,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="5"/>
@@ -11751,7 +12170,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="5"/>
@@ -11766,7 +12185,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="5"/>
@@ -11781,7 +12200,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="5"/>
@@ -11796,7 +12215,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="5"/>
@@ -11811,7 +12230,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="5"/>
@@ -11826,7 +12245,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="5"/>
@@ -11841,7 +12260,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="5"/>
@@ -11856,7 +12275,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="5"/>
@@ -11871,7 +12290,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="5"/>
@@ -11886,7 +12305,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="5"/>
@@ -11901,7 +12320,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="5"/>
@@ -11916,7 +12335,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="5"/>
@@ -11931,7 +12350,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="5"/>
@@ -11946,7 +12365,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="5"/>
@@ -11961,7 +12380,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="5"/>
@@ -11976,7 +12395,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="5"/>
@@ -11991,7 +12410,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="5"/>
@@ -12006,7 +12425,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="5"/>
@@ -12021,7 +12440,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="5"/>
@@ -12036,7 +12455,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="5"/>
@@ -12051,7 +12470,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="5"/>
@@ -12066,7 +12485,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="5"/>
@@ -12081,7 +12500,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="5"/>
@@ -12096,7 +12515,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="5"/>
@@ -12111,7 +12530,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="5"/>
@@ -12126,7 +12545,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="5"/>
@@ -12141,7 +12560,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="5"/>
@@ -12156,7 +12575,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="5"/>
@@ -12171,7 +12590,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="5"/>
@@ -12186,7 +12605,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="5"/>
@@ -12201,7 +12620,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="5"/>
@@ -12216,7 +12635,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="5"/>
@@ -12231,7 +12650,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="5"/>
@@ -12246,7 +12665,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="5"/>
@@ -12261,7 +12680,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="5"/>
@@ -12276,7 +12695,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="5"/>
@@ -12291,7 +12710,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="5"/>
@@ -12306,7 +12725,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="5"/>
@@ -12321,7 +12740,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="5"/>
@@ -12336,7 +12755,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="5"/>
@@ -12351,7 +12770,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="5"/>
@@ -12366,7 +12785,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="5"/>
@@ -12381,7 +12800,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="5"/>
@@ -12396,7 +12815,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="5"/>
@@ -12411,7 +12830,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="5"/>
@@ -12426,7 +12845,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="5"/>
@@ -12441,7 +12860,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="5"/>
@@ -12456,7 +12875,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="5"/>
@@ -12471,7 +12890,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="5"/>
@@ -12486,7 +12905,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="5"/>
@@ -12501,7 +12920,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="5"/>
@@ -12516,7 +12935,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="5"/>
@@ -12531,7 +12950,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="5"/>
@@ -12546,7 +12965,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="5"/>
@@ -12561,7 +12980,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="5"/>
@@ -12576,7 +12995,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="5"/>
@@ -12591,7 +13010,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="5"/>
@@ -12606,7 +13025,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="5"/>
@@ -12621,7 +13040,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="5"/>
@@ -12636,7 +13055,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="5"/>
@@ -12651,7 +13070,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="5"/>
@@ -12666,7 +13085,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="5"/>
@@ -12681,7 +13100,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="5"/>
@@ -12696,7 +13115,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="5"/>
@@ -12711,7 +13130,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="5"/>
@@ -12726,7 +13145,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="5"/>
@@ -12741,7 +13160,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="5"/>
@@ -12756,7 +13175,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="5"/>
@@ -12771,7 +13190,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="5"/>
@@ -12786,7 +13205,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="5"/>
@@ -12801,7 +13220,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="5"/>
@@ -12816,7 +13235,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="5"/>
@@ -12831,7 +13250,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="5"/>
@@ -12846,7 +13265,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="5"/>
@@ -12861,7 +13280,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="5"/>
@@ -12876,7 +13295,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="5"/>
@@ -12891,7 +13310,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="5"/>
@@ -12906,7 +13325,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="5"/>
@@ -12921,7 +13340,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="5"/>
@@ -12936,7 +13355,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="5"/>
@@ -12957,24 +13376,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E8673C-6BD2-4CFE-B385-306106CCD850}">
-  <dimension ref="A1:D195"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="C190" sqref="C190"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="A258" sqref="A258"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.7109375" customWidth="1"/>
-    <col min="2" max="2" width="73.7109375" customWidth="1"/>
+    <col min="1" max="1" width="57.6640625" customWidth="1"/>
+    <col min="2" max="2" width="73.6640625" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
-    <col min="4" max="4" width="53.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="53.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -12982,7 +13401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -12993,7 +13412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -13004,7 +13423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -13015,7 +13434,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>118</v>
       </c>
@@ -13026,7 +13445,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>179</v>
       </c>
@@ -13034,7 +13453,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>182</v>
       </c>
@@ -13042,7 +13461,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>238</v>
       </c>
@@ -13050,7 +13469,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>292</v>
       </c>
@@ -13058,7 +13477,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>294</v>
       </c>
@@ -13066,7 +13485,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>296</v>
       </c>
@@ -13074,7 +13493,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>302</v>
       </c>
@@ -13082,7 +13501,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>307</v>
       </c>
@@ -13090,7 +13509,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>326</v>
       </c>
@@ -13098,7 +13517,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>330</v>
       </c>
@@ -13106,7 +13525,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>342</v>
       </c>
@@ -13114,7 +13533,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>346</v>
       </c>
@@ -13122,7 +13541,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>348</v>
       </c>
@@ -13130,7 +13549,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>350</v>
       </c>
@@ -13141,7 +13560,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>352</v>
       </c>
@@ -13153,7 +13572,7 @@
       </c>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>354</v>
       </c>
@@ -13164,7 +13583,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>356</v>
       </c>
@@ -13175,7 +13594,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>358</v>
       </c>
@@ -13186,7 +13605,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>360</v>
       </c>
@@ -13197,7 +13616,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>362</v>
       </c>
@@ -13208,7 +13627,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>364</v>
       </c>
@@ -13219,7 +13638,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>366</v>
       </c>
@@ -13230,7 +13649,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>368</v>
       </c>
@@ -13241,7 +13660,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>370</v>
       </c>
@@ -13252,7 +13671,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>372</v>
       </c>
@@ -13263,7 +13682,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>374</v>
       </c>
@@ -13274,7 +13693,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>376</v>
       </c>
@@ -13285,7 +13704,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>378</v>
       </c>
@@ -13296,7 +13715,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>380</v>
       </c>
@@ -13307,7 +13726,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>382</v>
       </c>
@@ -13318,7 +13737,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>384</v>
       </c>
@@ -13329,7 +13748,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>386</v>
       </c>
@@ -13340,7 +13759,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>411</v>
       </c>
@@ -13351,7 +13770,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>389</v>
       </c>
@@ -13362,7 +13781,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>391</v>
       </c>
@@ -13373,7 +13792,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>393</v>
       </c>
@@ -13384,7 +13803,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>395</v>
       </c>
@@ -13398,7 +13817,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>397</v>
       </c>
@@ -13409,7 +13828,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>399</v>
       </c>
@@ -13420,7 +13839,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>401</v>
       </c>
@@ -13431,7 +13850,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>403</v>
       </c>
@@ -13442,7 +13861,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>405</v>
       </c>
@@ -13453,7 +13872,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>407</v>
       </c>
@@ -13464,7 +13883,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>408</v>
       </c>
@@ -13475,7 +13894,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>413</v>
       </c>
@@ -13486,7 +13905,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>414</v>
       </c>
@@ -13497,7 +13916,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>416</v>
       </c>
@@ -13508,7 +13927,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>418</v>
       </c>
@@ -13519,7 +13938,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>420</v>
       </c>
@@ -13530,7 +13949,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>422</v>
       </c>
@@ -13541,7 +13960,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>424</v>
       </c>
@@ -13552,7 +13971,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>426</v>
       </c>
@@ -13563,7 +13982,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>428</v>
       </c>
@@ -13574,7 +13993,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>430</v>
       </c>
@@ -13585,7 +14004,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>432</v>
       </c>
@@ -13599,7 +14018,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>434</v>
       </c>
@@ -13610,7 +14029,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>436</v>
       </c>
@@ -13621,7 +14040,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>438</v>
       </c>
@@ -13632,7 +14051,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>440</v>
       </c>
@@ -13643,7 +14062,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>442</v>
       </c>
@@ -13654,7 +14073,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>444</v>
       </c>
@@ -13665,7 +14084,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>446</v>
       </c>
@@ -13676,7 +14095,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>448</v>
       </c>
@@ -13687,7 +14106,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>453</v>
       </c>
@@ -13698,7 +14117,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>521</v>
       </c>
@@ -13709,7 +14128,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>456</v>
       </c>
@@ -13720,7 +14139,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>458</v>
       </c>
@@ -13731,7 +14150,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>460</v>
       </c>
@@ -13742,7 +14161,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>462</v>
       </c>
@@ -13753,7 +14172,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>463</v>
       </c>
@@ -13764,7 +14183,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>465</v>
       </c>
@@ -13775,7 +14194,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>466</v>
       </c>
@@ -13786,7 +14205,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>469</v>
       </c>
@@ -13797,7 +14216,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>471</v>
       </c>
@@ -13808,7 +14227,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>473</v>
       </c>
@@ -13819,7 +14238,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>495</v>
       </c>
@@ -13830,7 +14249,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>476</v>
       </c>
@@ -13841,7 +14260,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>493</v>
       </c>
@@ -13852,7 +14271,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>479</v>
       </c>
@@ -13863,7 +14282,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>481</v>
       </c>
@@ -13874,7 +14293,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>483</v>
       </c>
@@ -13885,7 +14304,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>485</v>
       </c>
@@ -13896,7 +14315,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>487</v>
       </c>
@@ -13907,7 +14326,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>488</v>
       </c>
@@ -13918,7 +14337,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>490</v>
       </c>
@@ -13929,7 +14348,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="12"/>
@@ -13937,7 +14356,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="s">
         <v>529</v>
       </c>
@@ -13948,7 +14367,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
         <v>531</v>
       </c>
@@ -13959,7 +14378,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
         <v>534</v>
       </c>
@@ -13970,7 +14389,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
         <v>533</v>
       </c>
@@ -13981,7 +14400,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
         <v>537</v>
       </c>
@@ -13992,7 +14411,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
         <v>539</v>
       </c>
@@ -14003,7 +14422,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
         <v>541</v>
       </c>
@@ -14014,7 +14433,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
         <v>627</v>
       </c>
@@ -14025,7 +14444,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
         <v>544</v>
       </c>
@@ -14036,7 +14455,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
         <v>629</v>
       </c>
@@ -14047,7 +14466,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
         <v>547</v>
       </c>
@@ -14058,7 +14477,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
         <v>549</v>
       </c>
@@ -14069,7 +14488,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
         <v>551</v>
       </c>
@@ -14080,7 +14499,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="13" t="s">
         <v>553</v>
       </c>
@@ -14091,7 +14510,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
         <v>555</v>
       </c>
@@ -14102,7 +14521,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="15" t="s">
         <v>557</v>
       </c>
@@ -14113,7 +14532,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="15" t="s">
         <v>558</v>
       </c>
@@ -14124,7 +14543,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="13" t="s">
         <v>561</v>
       </c>
@@ -14135,7 +14554,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="15" t="s">
         <v>562</v>
       </c>
@@ -14146,7 +14565,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="15" t="s">
         <v>564</v>
       </c>
@@ -14157,7 +14576,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="15" t="s">
         <v>565</v>
       </c>
@@ -14168,7 +14587,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="13" t="s">
         <v>568</v>
       </c>
@@ -14179,7 +14598,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="15" t="s">
         <v>569</v>
       </c>
@@ -14190,7 +14609,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="15" t="s">
         <v>727</v>
       </c>
@@ -14201,7 +14620,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="15" t="s">
         <v>571</v>
       </c>
@@ -14212,7 +14631,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="15" t="s">
         <v>729</v>
       </c>
@@ -14223,7 +14642,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="13" t="s">
         <v>573</v>
       </c>
@@ -14234,7 +14653,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="15" t="s">
         <v>576</v>
       </c>
@@ -14245,7 +14664,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="15" t="s">
         <v>578</v>
       </c>
@@ -14256,7 +14675,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="13" t="s">
         <v>579</v>
       </c>
@@ -14267,7 +14686,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="13" t="s">
         <v>582</v>
       </c>
@@ -14278,7 +14697,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="15" t="s">
         <v>584</v>
       </c>
@@ -14289,7 +14708,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="15" t="s">
         <v>586</v>
       </c>
@@ -14300,7 +14719,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="15" t="s">
         <v>588</v>
       </c>
@@ -14311,7 +14730,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="15" t="s">
         <v>705</v>
       </c>
@@ -14322,7 +14741,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="13" t="s">
         <v>707</v>
       </c>
@@ -14333,7 +14752,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="15" t="s">
         <v>592</v>
       </c>
@@ -14344,7 +14763,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="15" t="s">
         <v>594</v>
       </c>
@@ -14355,7 +14774,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="15" t="s">
         <v>708</v>
       </c>
@@ -14366,7 +14785,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="13" t="s">
         <v>709</v>
       </c>
@@ -14377,7 +14796,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="15" t="s">
         <v>598</v>
       </c>
@@ -14388,7 +14807,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="15" t="s">
         <v>600</v>
       </c>
@@ -14399,7 +14818,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="15" t="s">
         <v>602</v>
       </c>
@@ -14410,7 +14829,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="13" t="s">
         <v>604</v>
       </c>
@@ -14421,7 +14840,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="15" t="s">
         <v>606</v>
       </c>
@@ -14432,7 +14851,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="15" t="s">
         <v>608</v>
       </c>
@@ -14443,7 +14862,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="13" t="s">
         <v>610</v>
       </c>
@@ -14454,7 +14873,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="15" t="s">
         <v>612</v>
       </c>
@@ -14465,7 +14884,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="15" t="s">
         <v>614</v>
       </c>
@@ -14476,7 +14895,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="13" t="s">
         <v>616</v>
       </c>
@@ -14487,7 +14906,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="15" t="s">
         <v>618</v>
       </c>
@@ -14498,7 +14917,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="15" t="s">
         <v>620</v>
       </c>
@@ -14509,7 +14928,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="15" t="s">
         <v>622</v>
       </c>
@@ -14520,7 +14939,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="13" t="s">
         <v>624</v>
       </c>
@@ -14531,7 +14950,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="15" t="s">
         <v>630</v>
       </c>
@@ -14542,7 +14961,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="15" t="s">
         <v>632</v>
       </c>
@@ -14553,7 +14972,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="13" t="s">
         <v>634</v>
       </c>
@@ -14564,7 +14983,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="15" t="s">
         <v>636</v>
       </c>
@@ -14575,7 +14994,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="15" t="s">
         <v>638</v>
       </c>
@@ -14586,7 +15005,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="15" t="s">
         <v>641</v>
       </c>
@@ -14597,7 +15016,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="13" t="s">
         <v>642</v>
       </c>
@@ -14608,7 +15027,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="13" t="s">
         <v>644</v>
       </c>
@@ -14619,7 +15038,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
         <v>710</v>
       </c>
@@ -14630,7 +15049,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="s">
         <v>647</v>
       </c>
@@ -14641,7 +15060,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="13" t="s">
         <v>649</v>
       </c>
@@ -14652,7 +15071,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="s">
         <v>651</v>
       </c>
@@ -14663,7 +15082,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
         <v>653</v>
       </c>
@@ -14674,7 +15093,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="s">
         <v>655</v>
       </c>
@@ -14685,7 +15104,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="13" t="s">
         <v>657</v>
       </c>
@@ -14696,7 +15115,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="15" t="s">
         <v>658</v>
       </c>
@@ -14707,7 +15126,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="15" t="s">
         <v>660</v>
       </c>
@@ -14718,7 +15137,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="15" t="s">
         <v>662</v>
       </c>
@@ -14729,7 +15148,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="13" t="s">
         <v>664</v>
       </c>
@@ -14740,7 +15159,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="15" t="s">
         <v>666</v>
       </c>
@@ -14751,7 +15170,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="15" t="s">
         <v>715</v>
       </c>
@@ -14762,7 +15181,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="15" t="s">
         <v>716</v>
       </c>
@@ -14773,7 +15192,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="15" t="s">
         <v>717</v>
       </c>
@@ -14784,7 +15203,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="13" t="s">
         <v>668</v>
       </c>
@@ -14795,7 +15214,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="15" t="s">
         <v>670</v>
       </c>
@@ -14806,7 +15225,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="15" t="s">
         <v>672</v>
       </c>
@@ -14817,7 +15236,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="13" t="s">
         <v>674</v>
       </c>
@@ -14828,7 +15247,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="15" t="s">
         <v>676</v>
       </c>
@@ -14839,7 +15258,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="15" t="s">
         <v>678</v>
       </c>
@@ -14850,7 +15269,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="15" t="s">
         <v>720</v>
       </c>
@@ -14861,7 +15280,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="13" t="s">
         <v>680</v>
       </c>
@@ -14872,7 +15291,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="15" t="s">
         <v>681</v>
       </c>
@@ -14883,7 +15302,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="15" t="s">
         <v>682</v>
       </c>
@@ -14894,7 +15313,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="13" t="s">
         <v>684</v>
       </c>
@@ -14905,7 +15324,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="13" t="s">
         <v>687</v>
       </c>
@@ -14916,7 +15335,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="13" t="s">
         <v>688</v>
       </c>
@@ -14927,7 +15346,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="13" t="s">
         <v>689</v>
       </c>
@@ -14938,7 +15357,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="15" t="s">
         <v>691</v>
       </c>
@@ -14949,7 +15368,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="15" t="s">
         <v>693</v>
       </c>
@@ -14960,7 +15379,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="13" t="s">
         <v>695</v>
       </c>
@@ -14971,7 +15390,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="13" t="s">
         <v>697</v>
       </c>
@@ -14982,7 +15401,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
         <v>699</v>
       </c>
@@ -14993,7 +15412,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
         <v>701</v>
       </c>
@@ -15004,7 +15423,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="13" t="s">
         <v>703</v>
       </c>
@@ -15015,29 +15434,931 @@
         <v>703</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="13"/>
-      <c r="B190" s="13"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="13"/>
-      <c r="B191" s="13"/>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="13"/>
-      <c r="B192" s="13"/>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="13"/>
-      <c r="B193" s="13"/>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="13"/>
-      <c r="B194" s="13"/>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="13"/>
-      <c r="B195" s="13"/>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="24"/>
+      <c r="B190" s="24"/>
+      <c r="C190" s="12"/>
+      <c r="D190" s="12"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="B191" s="13" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="13" t="s">
+        <v>759</v>
+      </c>
+      <c r="B192" s="13" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="15" t="s">
+        <v>761</v>
+      </c>
+      <c r="B193" s="15" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="13" t="s">
+        <v>763</v>
+      </c>
+      <c r="B194" s="13" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="13" t="s">
+        <v>765</v>
+      </c>
+      <c r="B195" s="13" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="15" t="s">
+        <v>767</v>
+      </c>
+      <c r="B196" s="15" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="B197" s="13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="B198" s="13" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="15" t="s">
+        <v>774</v>
+      </c>
+      <c r="B199" s="15" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="B200" s="13" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="B201" s="13" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="13" t="s">
+        <v>779</v>
+      </c>
+      <c r="B202" s="13" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="B203" s="13" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="B204" s="15" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="B205" s="13" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="B206" s="13" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="13" t="s">
+        <v>789</v>
+      </c>
+      <c r="B207" s="13" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="13" t="s">
+        <v>791</v>
+      </c>
+      <c r="B208" s="13" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A209" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="B209" s="15" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="B210" s="13" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="B211" s="13" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="13" t="s">
+        <v>799</v>
+      </c>
+      <c r="B212" s="13" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="13" t="s">
+        <v>801</v>
+      </c>
+      <c r="B213" s="13" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="B214" s="15" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="13" t="s">
+        <v>805</v>
+      </c>
+      <c r="B215" s="13" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="B216" s="15" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="13" t="s">
+        <v>809</v>
+      </c>
+      <c r="B217" s="13" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="13" t="s">
+        <v>811</v>
+      </c>
+      <c r="B218" s="13" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="13" t="s">
+        <v>813</v>
+      </c>
+      <c r="B219" s="13" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A220" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="B220" s="15" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="13" t="s">
+        <v>817</v>
+      </c>
+      <c r="B221" s="13" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="13" t="s">
+        <v>819</v>
+      </c>
+      <c r="B222" s="13" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="13" t="s">
+        <v>821</v>
+      </c>
+      <c r="B223" s="13" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="13" t="s">
+        <v>823</v>
+      </c>
+      <c r="B224" s="13" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="13" t="s">
+        <v>825</v>
+      </c>
+      <c r="B225" s="13" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A226" s="15" t="s">
+        <v>827</v>
+      </c>
+      <c r="B226" s="15" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="13" t="s">
+        <v>829</v>
+      </c>
+      <c r="B227" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="13" t="s">
+        <v>830</v>
+      </c>
+      <c r="B228" s="13" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="13" t="s">
+        <v>831</v>
+      </c>
+      <c r="B229" s="13" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="15" t="s">
+        <v>834</v>
+      </c>
+      <c r="B230" s="15" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="13" t="s">
+        <v>836</v>
+      </c>
+      <c r="B231" s="13" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="13" t="s">
+        <v>838</v>
+      </c>
+      <c r="B232" s="13" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="13" t="s">
+        <v>840</v>
+      </c>
+      <c r="B233" s="13" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="B234" s="15" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="13" t="s">
+        <v>844</v>
+      </c>
+      <c r="B235" s="13" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="B236" s="13" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="13" t="s">
+        <v>848</v>
+      </c>
+      <c r="B237" s="13" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="15" t="s">
+        <v>850</v>
+      </c>
+      <c r="B238" s="15" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="15" t="s">
+        <v>852</v>
+      </c>
+      <c r="B239" s="15" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="B240" s="13" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="13" t="s">
+        <v>856</v>
+      </c>
+      <c r="B241" s="13" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="13" t="s">
+        <v>858</v>
+      </c>
+      <c r="B242" s="13" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="13" t="s">
+        <v>860</v>
+      </c>
+      <c r="B243" s="13" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A244" s="15" t="s">
+        <v>862</v>
+      </c>
+      <c r="B244" s="15" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="15" t="s">
+        <v>864</v>
+      </c>
+      <c r="B245" s="15" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="13" t="s">
+        <v>866</v>
+      </c>
+      <c r="B246" s="13" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="13" t="s">
+        <v>868</v>
+      </c>
+      <c r="B247" s="13" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="B248" s="13" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A249" s="15" t="s">
+        <v>872</v>
+      </c>
+      <c r="B249" s="15" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="13" t="s">
+        <v>874</v>
+      </c>
+      <c r="B250" s="13" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="15" t="s">
+        <v>876</v>
+      </c>
+      <c r="B251" s="15" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="13" t="s">
+        <v>879</v>
+      </c>
+      <c r="B252" s="13" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="15" t="s">
+        <v>878</v>
+      </c>
+      <c r="B253" s="15" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="13" t="s">
+        <v>882</v>
+      </c>
+      <c r="B254" s="13" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" s="13" t="s">
+        <v>883</v>
+      </c>
+      <c r="B255" s="13" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="13" t="s">
+        <v>884</v>
+      </c>
+      <c r="B256" s="13" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="13" t="s">
+        <v>885</v>
+      </c>
+      <c r="B257" s="13" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="13" t="s">
+        <v>886</v>
+      </c>
+      <c r="B258" s="13" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="13" t="s">
+        <v>887</v>
+      </c>
+      <c r="B259" s="13" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A260" s="15" t="s">
+        <v>888</v>
+      </c>
+      <c r="B260" s="15" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="13"/>
+      <c r="B261" s="13"/>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="13"/>
+      <c r="B262" s="13"/>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="13"/>
+      <c r="B263" s="13"/>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="13"/>
+      <c r="B264" s="13"/>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" s="13"/>
+      <c r="B265" s="13"/>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" s="13"/>
+      <c r="B266" s="13"/>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" s="13"/>
+      <c r="B267" s="13"/>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" s="13"/>
+      <c r="B268" s="13"/>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" s="13"/>
+      <c r="B269" s="13"/>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" s="13"/>
+      <c r="B270" s="13"/>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" s="13"/>
+      <c r="B271" s="13"/>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" s="13"/>
+      <c r="B272" s="13"/>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" s="13"/>
+      <c r="B273" s="13"/>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="13"/>
+      <c r="B274" s="13"/>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" s="13"/>
+      <c r="B275" s="13"/>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" s="13"/>
+      <c r="B276" s="13"/>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" s="13"/>
+      <c r="B277" s="13"/>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" s="13"/>
+      <c r="B278" s="13"/>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="13"/>
+      <c r="B279" s="13"/>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" s="13"/>
+      <c r="B280" s="13"/>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" s="13"/>
+      <c r="B281" s="13"/>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" s="13"/>
+      <c r="B282" s="13"/>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" s="13"/>
+      <c r="B283" s="13"/>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" s="13"/>
+      <c r="B284" s="13"/>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" s="13"/>
+      <c r="B285" s="13"/>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" s="13"/>
+      <c r="B286" s="13"/>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" s="13"/>
+      <c r="B287" s="13"/>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" s="13"/>
+      <c r="B288" s="13"/>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" s="13"/>
+      <c r="B289" s="13"/>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" s="13"/>
+      <c r="B290" s="13"/>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" s="13"/>
+      <c r="B291" s="13"/>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" s="13"/>
+      <c r="B292" s="13"/>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" s="13"/>
+      <c r="B293" s="13"/>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" s="13"/>
+      <c r="B294" s="13"/>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" s="13"/>
+      <c r="B295" s="13"/>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" s="13"/>
+      <c r="B296" s="13"/>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" s="13"/>
+      <c r="B297" s="13"/>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" s="13"/>
+      <c r="B298" s="13"/>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" s="13"/>
+      <c r="B299" s="13"/>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" s="13"/>
+      <c r="B300" s="13"/>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" s="13"/>
+      <c r="B301" s="13"/>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" s="13"/>
+      <c r="B302" s="13"/>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" s="13"/>
+      <c r="B303" s="13"/>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" s="13"/>
+      <c r="B304" s="13"/>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" s="13"/>
+      <c r="B305" s="13"/>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" s="13"/>
+      <c r="B306" s="13"/>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" s="13"/>
+      <c r="B307" s="13"/>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" s="13"/>
+      <c r="B308" s="13"/>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" s="13"/>
+      <c r="B309" s="13"/>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" s="13"/>
+      <c r="B310" s="13"/>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" s="13"/>
+      <c r="B311" s="13"/>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" s="13"/>
+      <c r="B312" s="13"/>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" s="13"/>
+      <c r="B313" s="13"/>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" s="13"/>
+      <c r="B314" s="13"/>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" s="13"/>
+      <c r="B315" s="13"/>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" s="13"/>
+      <c r="B316" s="13"/>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" s="13"/>
+      <c r="B317" s="13"/>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" s="13"/>
+      <c r="B318" s="13"/>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" s="13"/>
+      <c r="B319" s="13"/>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" s="13"/>
+      <c r="B320" s="13"/>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" s="13"/>
+      <c r="B321" s="13"/>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" s="13"/>
+      <c r="B322" s="13"/>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" s="13"/>
+      <c r="B323" s="13"/>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" s="13"/>
+      <c r="B324" s="13"/>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" s="13"/>
+      <c r="B325" s="13"/>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" s="13"/>
+      <c r="B326" s="13"/>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" s="13"/>
+      <c r="B327" s="13"/>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" s="13"/>
+      <c r="B328" s="13"/>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" s="13"/>
+      <c r="B329" s="13"/>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" s="13"/>
+      <c r="B330" s="13"/>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" s="13"/>
+      <c r="B331" s="13"/>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" s="13"/>
+      <c r="B332" s="13"/>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" s="13"/>
+      <c r="B333" s="13"/>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" s="13"/>
+      <c r="B334" s="13"/>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" s="13"/>
+      <c r="B335" s="13"/>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" s="13"/>
+      <c r="B336" s="13"/>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" s="13"/>
+      <c r="B337" s="13"/>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" s="13"/>
+      <c r="B338" s="13"/>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" s="13"/>
+      <c r="B339" s="13"/>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" s="13"/>
+      <c r="B340" s="13"/>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" s="13"/>
+      <c r="B341" s="13"/>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" s="13"/>
+      <c r="B342" s="13"/>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" s="13"/>
+      <c r="B343" s="13"/>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" s="13"/>
+      <c r="B344" s="13"/>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" s="13"/>
+      <c r="B345" s="13"/>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" s="13"/>
+      <c r="B346" s="13"/>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" s="13"/>
+      <c r="B347" s="13"/>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" s="13"/>
+      <c r="B348" s="13"/>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" s="13"/>
+      <c r="B349" s="13"/>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" s="13"/>
+      <c r="B350" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/english.xlsx
+++ b/english.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="979">
   <si>
     <t>word</t>
   </si>
@@ -2714,6 +2714,255 @@
   </si>
   <si>
     <t>во-первых, ты должен проводить больше времени на рыбалке, так ты можешь поймать больше рыбы - начал бизнесмен</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>that would be easy to do</t>
+  </si>
+  <si>
+    <t>said fisherman</t>
+  </si>
+  <si>
+    <t>ok, that would be easy to do - said fisherman</t>
+  </si>
+  <si>
+    <t>это будет легко сделать</t>
+  </si>
+  <si>
+    <t>сказал рыбак</t>
+  </si>
+  <si>
+    <t>хорошо, это будет легко сделать - сказал рыбак</t>
+  </si>
+  <si>
+    <t>the businessman nodded in agreement</t>
+  </si>
+  <si>
+    <t>бизнесмен кивнул в знак согласия</t>
+  </si>
+  <si>
+    <t>and buy a bigger boat</t>
+  </si>
+  <si>
+    <t>и купить более большую лодку</t>
+  </si>
+  <si>
+    <t>continued the businessman</t>
+  </si>
+  <si>
+    <t>продолжил бизнесмен</t>
+  </si>
+  <si>
+    <t>you can then</t>
+  </si>
+  <si>
+    <t>you can then sell the extra fish</t>
+  </si>
+  <si>
+    <t>затем ты сможешь</t>
+  </si>
+  <si>
+    <t>затем ты сможешь продавать дополнительную рыбу</t>
+  </si>
+  <si>
+    <t>you can then sell the extra fish and buy a bigger boat - continued businessman</t>
+  </si>
+  <si>
+    <t>затем ты сможешь продавать дополнительную рыбу и купить более большую лодку - продолжил бизнесмен</t>
+  </si>
+  <si>
+    <t>what for</t>
+  </si>
+  <si>
+    <t>зачем</t>
+  </si>
+  <si>
+    <t>asked the fisherman</t>
+  </si>
+  <si>
+    <t>спросил рыбак</t>
+  </si>
+  <si>
+    <t>asked the fisherman very politely</t>
+  </si>
+  <si>
+    <t>what for - asked the fisherman very politely</t>
+  </si>
+  <si>
+    <t>спросил рыбае очень вежливо</t>
+  </si>
+  <si>
+    <t>зачем - спросил рыбак очень вежливо</t>
+  </si>
+  <si>
+    <t>with a bigger boat</t>
+  </si>
+  <si>
+    <t>с более большой лодкой</t>
+  </si>
+  <si>
+    <t>you will catch even more fish</t>
+  </si>
+  <si>
+    <t>ты поймаешь еще больше рыбы</t>
+  </si>
+  <si>
+    <t>said the businessman</t>
+  </si>
+  <si>
+    <t>with a bigger boat, you will catch even more fish - said businessman</t>
+  </si>
+  <si>
+    <t>с более большой лодкой, ты поймаешь еще больше рыбы - сказал бизнесмен</t>
+  </si>
+  <si>
+    <t>soon</t>
+  </si>
+  <si>
+    <t>скоро</t>
+  </si>
+  <si>
+    <t>you will be able</t>
+  </si>
+  <si>
+    <t>ты сможешь</t>
+  </si>
+  <si>
+    <t>to buy another boat</t>
+  </si>
+  <si>
+    <t>купить другую лодку</t>
+  </si>
+  <si>
+    <t>hire people</t>
+  </si>
+  <si>
+    <t>нанять людей</t>
+  </si>
+  <si>
+    <t>and build a big business</t>
+  </si>
+  <si>
+    <t>и построить большой бизнес</t>
+  </si>
+  <si>
+    <t>soon you will be able to by another boat, hire people, and build a big business</t>
+  </si>
+  <si>
+    <t>скоро, ты сможешь купить другую лодку, нанять людей, и построить большой бизнес</t>
+  </si>
+  <si>
+    <t>the businessman was very excided</t>
+  </si>
+  <si>
+    <t>бизнесмен был очень взволнован</t>
+  </si>
+  <si>
+    <t>когда</t>
+  </si>
+  <si>
+    <t>ones</t>
+  </si>
+  <si>
+    <t>your business is big enough</t>
+  </si>
+  <si>
+    <t>твой бизнес станет достаточно большим</t>
+  </si>
+  <si>
+    <t>you can sell it</t>
+  </si>
+  <si>
+    <t>ты можешь продать его</t>
+  </si>
+  <si>
+    <t>and make a lot of money</t>
+  </si>
+  <si>
+    <t>и заработать много денег</t>
+  </si>
+  <si>
+    <t>ones your business is big enough, you can sell it and make a lot of money</t>
+  </si>
+  <si>
+    <t>когда твой бизнес станет достаточно большим, ты сможешь продать его, и заработать много денег</t>
+  </si>
+  <si>
+    <t>that sounds great</t>
+  </si>
+  <si>
+    <t>звучит здорово</t>
+  </si>
+  <si>
+    <t>said the fisherman</t>
+  </si>
+  <si>
+    <t>that sounds great - said the fisherman</t>
+  </si>
+  <si>
+    <t>звучит здорово - сказал рыбак</t>
+  </si>
+  <si>
+    <t>and what then</t>
+  </si>
+  <si>
+    <t>и что потом</t>
+  </si>
+  <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>затем</t>
+  </si>
+  <si>
+    <t>you can retire</t>
+  </si>
+  <si>
+    <t>ты сможешь уйти на пенсию</t>
+  </si>
+  <si>
+    <t>spend time with your family</t>
+  </si>
+  <si>
+    <t>play the guitar</t>
+  </si>
+  <si>
+    <t>and enjoy life with your friends</t>
+  </si>
+  <si>
+    <t>then, you can retire, spend time with your family, play the guitar, and enjoy life with your friends - said the businessman</t>
+  </si>
+  <si>
+    <t>проводить время со своей семьей</t>
+  </si>
+  <si>
+    <t>играть на гитаре</t>
+  </si>
+  <si>
+    <t>и радоваться жизни со своими друзьями</t>
+  </si>
+  <si>
+    <t>затем, ты можешь уйти на пенсию, проводить время с семьей, играть на гитаре, радоваться жизни со своими друзьями - сказал бизнесмен</t>
+  </si>
+  <si>
+    <t>the fisherman smiled and said</t>
+  </si>
+  <si>
+    <t>рыбал улыбнулся и сказал</t>
+  </si>
+  <si>
+    <t>is not that what I am doing right now</t>
+  </si>
+  <si>
+    <t>разве это не то, что я делаю прямо сейчас</t>
+  </si>
+  <si>
+    <t>the fisherman smiled and said - is not thar what I am doing right now</t>
+  </si>
+  <si>
+    <t>рыбак улыбнулся и сказал - разве это не то, что делаю прямо сейчас</t>
   </si>
 </sst>
 </file>
@@ -13379,8 +13628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="A258" sqref="A258"/>
+    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
+      <selection activeCell="A305" sqref="A305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16001,180 +16250,356 @@
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" s="13"/>
-      <c r="B261" s="13"/>
+      <c r="A261" s="13" t="s">
+        <v>896</v>
+      </c>
+      <c r="B261" s="13" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" s="13"/>
-      <c r="B262" s="13"/>
+      <c r="A262" s="13" t="s">
+        <v>897</v>
+      </c>
+      <c r="B262" s="13" t="s">
+        <v>900</v>
+      </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" s="13"/>
-      <c r="B263" s="13"/>
+      <c r="A263" s="13" t="s">
+        <v>898</v>
+      </c>
+      <c r="B263" s="13" t="s">
+        <v>901</v>
+      </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" s="13"/>
-      <c r="B264" s="13"/>
+      <c r="A264" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="B264" s="15" t="s">
+        <v>902</v>
+      </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" s="13"/>
-      <c r="B265" s="13"/>
+      <c r="A265" s="15" t="s">
+        <v>903</v>
+      </c>
+      <c r="B265" s="15" t="s">
+        <v>904</v>
+      </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" s="13"/>
-      <c r="B266" s="13"/>
+      <c r="A266" s="13" t="s">
+        <v>909</v>
+      </c>
+      <c r="B266" s="13" t="s">
+        <v>911</v>
+      </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" s="13"/>
-      <c r="B267" s="13"/>
+      <c r="A267" s="13" t="s">
+        <v>910</v>
+      </c>
+      <c r="B267" s="13" t="s">
+        <v>912</v>
+      </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" s="13"/>
-      <c r="B268" s="13"/>
+      <c r="A268" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="B268" s="13" t="s">
+        <v>906</v>
+      </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" s="13"/>
-      <c r="B269" s="13"/>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" s="13"/>
-      <c r="B270" s="13"/>
+      <c r="A269" s="13" t="s">
+        <v>907</v>
+      </c>
+      <c r="B269" s="13" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A270" s="15" t="s">
+        <v>913</v>
+      </c>
+      <c r="B270" s="15" t="s">
+        <v>914</v>
+      </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" s="13"/>
-      <c r="B271" s="13"/>
+      <c r="A271" s="13" t="s">
+        <v>915</v>
+      </c>
+      <c r="B271" s="13" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" s="13"/>
-      <c r="B272" s="13"/>
+      <c r="A272" s="13" t="s">
+        <v>917</v>
+      </c>
+      <c r="B272" s="13" t="s">
+        <v>918</v>
+      </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" s="13"/>
-      <c r="B273" s="13"/>
+      <c r="A273" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="B273" s="13" t="s">
+        <v>921</v>
+      </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" s="13"/>
-      <c r="B274" s="13"/>
+      <c r="A274" s="15" t="s">
+        <v>920</v>
+      </c>
+      <c r="B274" s="15" t="s">
+        <v>922</v>
+      </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" s="13"/>
-      <c r="B275" s="13"/>
+      <c r="A275" s="13" t="s">
+        <v>923</v>
+      </c>
+      <c r="B275" s="13" t="s">
+        <v>924</v>
+      </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" s="13"/>
-      <c r="B276" s="13"/>
+      <c r="A276" s="13" t="s">
+        <v>925</v>
+      </c>
+      <c r="B276" s="13" t="s">
+        <v>926</v>
+      </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" s="13"/>
-      <c r="B277" s="13"/>
+      <c r="A277" s="13" t="s">
+        <v>927</v>
+      </c>
+      <c r="B277" s="13" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" s="13"/>
-      <c r="B278" s="13"/>
+      <c r="A278" s="15" t="s">
+        <v>928</v>
+      </c>
+      <c r="B278" s="15" t="s">
+        <v>929</v>
+      </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" s="13"/>
-      <c r="B279" s="13"/>
+      <c r="A279" s="13" t="s">
+        <v>930</v>
+      </c>
+      <c r="B279" s="13" t="s">
+        <v>931</v>
+      </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" s="13"/>
-      <c r="B280" s="13"/>
+      <c r="A280" s="13" t="s">
+        <v>932</v>
+      </c>
+      <c r="B280" s="13" t="s">
+        <v>933</v>
+      </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" s="13"/>
-      <c r="B281" s="13"/>
+      <c r="A281" s="13" t="s">
+        <v>934</v>
+      </c>
+      <c r="B281" s="13" t="s">
+        <v>935</v>
+      </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" s="13"/>
-      <c r="B282" s="13"/>
+      <c r="A282" s="13" t="s">
+        <v>936</v>
+      </c>
+      <c r="B282" s="13" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" s="13"/>
-      <c r="B283" s="13"/>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284" s="13"/>
-      <c r="B284" s="13"/>
+      <c r="A283" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="B283" s="13" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A284" s="15" t="s">
+        <v>940</v>
+      </c>
+      <c r="B284" s="15" t="s">
+        <v>941</v>
+      </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285" s="13"/>
-      <c r="B285" s="13"/>
+      <c r="A285" s="15" t="s">
+        <v>942</v>
+      </c>
+      <c r="B285" s="15" t="s">
+        <v>943</v>
+      </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286" s="13"/>
-      <c r="B286" s="13"/>
+      <c r="A286" s="13" t="s">
+        <v>945</v>
+      </c>
+      <c r="B286" s="13" t="s">
+        <v>944</v>
+      </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" s="13"/>
-      <c r="B287" s="13"/>
+      <c r="A287" s="13" t="s">
+        <v>946</v>
+      </c>
+      <c r="B287" s="13" t="s">
+        <v>947</v>
+      </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288" s="13"/>
-      <c r="B288" s="13"/>
+      <c r="A288" s="13" t="s">
+        <v>948</v>
+      </c>
+      <c r="B288" s="13" t="s">
+        <v>949</v>
+      </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289" s="13"/>
-      <c r="B289" s="13"/>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290" s="13"/>
-      <c r="B290" s="13"/>
+      <c r="A289" s="13" t="s">
+        <v>950</v>
+      </c>
+      <c r="B289" s="13" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A290" s="15" t="s">
+        <v>952</v>
+      </c>
+      <c r="B290" s="15" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291" s="13"/>
-      <c r="B291" s="13"/>
+      <c r="A291" s="13" t="s">
+        <v>954</v>
+      </c>
+      <c r="B291" s="13" t="s">
+        <v>955</v>
+      </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292" s="13"/>
-      <c r="B292" s="13"/>
+      <c r="A292" s="13" t="s">
+        <v>956</v>
+      </c>
+      <c r="B292" s="13" t="s">
+        <v>901</v>
+      </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293" s="13"/>
-      <c r="B293" s="13"/>
+      <c r="A293" s="15" t="s">
+        <v>957</v>
+      </c>
+      <c r="B293" s="15" t="s">
+        <v>958</v>
+      </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294" s="13"/>
-      <c r="B294" s="13"/>
+      <c r="A294" s="15" t="s">
+        <v>959</v>
+      </c>
+      <c r="B294" s="15" t="s">
+        <v>960</v>
+      </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295" s="13"/>
-      <c r="B295" s="13"/>
+      <c r="A295" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="B295" s="13" t="s">
+        <v>962</v>
+      </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296" s="13"/>
-      <c r="B296" s="13"/>
+      <c r="A296" s="13" t="s">
+        <v>963</v>
+      </c>
+      <c r="B296" s="13" t="s">
+        <v>964</v>
+      </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297" s="13"/>
-      <c r="B297" s="13"/>
+      <c r="A297" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="B297" s="13" t="s">
+        <v>969</v>
+      </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298" s="13"/>
-      <c r="B298" s="13"/>
+      <c r="A298" s="13" t="s">
+        <v>966</v>
+      </c>
+      <c r="B298" s="13" t="s">
+        <v>970</v>
+      </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299" s="13"/>
-      <c r="B299" s="13"/>
+      <c r="A299" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="B299" s="13" t="s">
+        <v>971</v>
+      </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" s="13"/>
-      <c r="B300" s="13"/>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301" s="13"/>
-      <c r="B301" s="13"/>
+      <c r="A300" s="13" t="s">
+        <v>927</v>
+      </c>
+      <c r="B300" s="13" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A301" s="15" t="s">
+        <v>968</v>
+      </c>
+      <c r="B301" s="15" t="s">
+        <v>972</v>
+      </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" s="13"/>
-      <c r="B302" s="13"/>
+      <c r="A302" s="13" t="s">
+        <v>973</v>
+      </c>
+      <c r="B302" s="13" t="s">
+        <v>974</v>
+      </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" s="13"/>
-      <c r="B303" s="13"/>
+      <c r="A303" s="13" t="s">
+        <v>975</v>
+      </c>
+      <c r="B303" s="13" t="s">
+        <v>976</v>
+      </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304" s="13"/>
-      <c r="B304" s="13"/>
+      <c r="A304" s="15" t="s">
+        <v>977</v>
+      </c>
+      <c r="B304" s="15" t="s">
+        <v>978</v>
+      </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="13"/>

--- a/english.xlsx
+++ b/english.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\espopov\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\popoves\Desktop\experience\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DC8081-B8A1-4C87-833C-D1B5BFF093AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="words" sheetId="1" r:id="rId1"/>
     <sheet name="dualingo" sheetId="3" r:id="rId2"/>
-    <sheet name="sentences" sheetId="2" r:id="rId3"/>
+    <sheet name="histories" sheetId="2" r:id="rId3"/>
+    <sheet name="technical documentation" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="1031">
   <si>
     <t>word</t>
   </si>
@@ -2963,12 +2965,168 @@
   </si>
   <si>
     <t>рыбак улыбнулся и сказал - разве это не то, что делаю прямо сейчас</t>
+  </si>
+  <si>
+    <t>let's learn by example</t>
+  </si>
+  <si>
+    <t>давайте учиться на примере</t>
+  </si>
+  <si>
+    <t>throughtout this tutorial</t>
+  </si>
+  <si>
+    <t>на протяжении всего этого руководства</t>
+  </si>
+  <si>
+    <t>we will walk you through</t>
+  </si>
+  <si>
+    <t>мы проведем вас через</t>
+  </si>
+  <si>
+    <t>the creation of basic poll application</t>
+  </si>
+  <si>
+    <t>создание базового опросного приложения</t>
+  </si>
+  <si>
+    <t>throughtout this tutorial, we will walk you through the creation of basic poll application</t>
+  </si>
+  <si>
+    <t>на протяжении всего этого руководства, мы проведем вас через срздание базового опросного приложения</t>
+  </si>
+  <si>
+    <t>it will consist if two parts</t>
+  </si>
+  <si>
+    <t>оно состоит из двух частей</t>
+  </si>
+  <si>
+    <t>a public site</t>
+  </si>
+  <si>
+    <t>публичный сайт</t>
+  </si>
+  <si>
+    <t>that lets people</t>
+  </si>
+  <si>
+    <t>который позволяет людям</t>
+  </si>
+  <si>
+    <t>that lets people view polls and vote in them</t>
+  </si>
+  <si>
+    <t>который позволяет людям просматривать опросы и голосование в них</t>
+  </si>
+  <si>
+    <t>публичный сайт, который позволяет людям просматривать опросы и голосование в них</t>
+  </si>
+  <si>
+    <t>a public site that lets people view polls and vote in them</t>
+  </si>
+  <si>
+    <t>an adim site</t>
+  </si>
+  <si>
+    <t>сайт администрирования</t>
+  </si>
+  <si>
+    <t>that lets you add, cahnge and delete polls</t>
+  </si>
+  <si>
+    <t>который позволяет вам добавлять, изменять и удалять опросы</t>
+  </si>
+  <si>
+    <t>an admin site that lets you add, change and delete polls</t>
+  </si>
+  <si>
+    <t>сайт администрирования, который позволяет вам добавлять, изменять и удалять опросы</t>
+  </si>
+  <si>
+    <t>we will assume</t>
+  </si>
+  <si>
+    <t>мы предполагаем</t>
+  </si>
+  <si>
+    <t>we will assume you have django</t>
+  </si>
+  <si>
+    <t>мы предполагаем, что у вас есть django</t>
+  </si>
+  <si>
+    <t>you have django installed already</t>
+  </si>
+  <si>
+    <t>у вас есть уже установленный django</t>
+  </si>
+  <si>
+    <t>we will assume you have django installed already</t>
+  </si>
+  <si>
+    <t>мы предполагаем, что у вас уже есть установленный django</t>
+  </si>
+  <si>
+    <t>you can tell</t>
+  </si>
+  <si>
+    <t>вы можете узнать</t>
+  </si>
+  <si>
+    <t>you can tell django is installed</t>
+  </si>
+  <si>
+    <t>вы можете узнать установлен ли django</t>
+  </si>
+  <si>
+    <t>you can tell django is installed and which version</t>
+  </si>
+  <si>
+    <t>вы можете узнать установлен ли django и какой версии</t>
+  </si>
+  <si>
+    <t>by running the following command</t>
+  </si>
+  <si>
+    <t>запустив следующую команду</t>
+  </si>
+  <si>
+    <t>you can tell django is installed and which version by running the following command</t>
+  </si>
+  <si>
+    <t>вы можете узнать установлен ли django и какой версии запустив следующую команду</t>
+  </si>
+  <si>
+    <t>если django установлен</t>
+  </si>
+  <si>
+    <t>if django is installed</t>
+  </si>
+  <si>
+    <t>you should see</t>
+  </si>
+  <si>
+    <t>вы увидите</t>
+  </si>
+  <si>
+    <t>the version of your installation</t>
+  </si>
+  <si>
+    <t>версия вашей установки</t>
+  </si>
+  <si>
+    <t>if django is installed you should see the version of your installation</t>
+  </si>
+  <si>
+    <t>если django установлен, вы увидите версию вашей установки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3122,7 +3280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3179,6 +3337,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3493,25 +3654,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G300"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3534,7 +3695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3557,7 +3718,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -3580,7 +3741,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -3605,7 +3766,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -3630,7 +3791,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>105</v>
       </c>
@@ -3653,7 +3814,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>107</v>
       </c>
@@ -3676,7 +3837,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>109</v>
       </c>
@@ -3699,7 +3860,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>111</v>
       </c>
@@ -3722,7 +3883,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>113</v>
       </c>
@@ -3745,7 +3906,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>115</v>
       </c>
@@ -3768,7 +3929,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>117</v>
       </c>
@@ -3791,7 +3952,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>120</v>
       </c>
@@ -3814,7 +3975,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>122</v>
       </c>
@@ -3839,7 +4000,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>124</v>
       </c>
@@ -3862,7 +4023,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>126</v>
       </c>
@@ -3885,7 +4046,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>128</v>
       </c>
@@ -3908,7 +4069,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>130</v>
       </c>
@@ -3931,7 +4092,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>132</v>
       </c>
@@ -3954,7 +4115,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>134</v>
       </c>
@@ -3977,7 +4138,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>217</v>
       </c>
@@ -3998,7 +4159,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>219</v>
       </c>
@@ -4017,7 +4178,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>221</v>
       </c>
@@ -4036,7 +4197,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>223</v>
       </c>
@@ -4055,7 +4216,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>225</v>
       </c>
@@ -4074,7 +4235,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>227</v>
       </c>
@@ -4093,7 +4254,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>229</v>
       </c>
@@ -4112,7 +4273,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>231</v>
       </c>
@@ -4131,7 +4292,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>233</v>
       </c>
@@ -4150,7 +4311,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>235</v>
       </c>
@@ -4169,7 +4330,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>237</v>
       </c>
@@ -4188,7 +4349,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>240</v>
       </c>
@@ -4207,7 +4368,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>242</v>
       </c>
@@ -4226,7 +4387,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>244</v>
       </c>
@@ -4245,7 +4406,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>246</v>
       </c>
@@ -4264,7 +4425,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>248</v>
       </c>
@@ -4285,7 +4446,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>251</v>
       </c>
@@ -4304,7 +4465,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>253</v>
       </c>
@@ -4325,7 +4486,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>256</v>
       </c>
@@ -4344,7 +4505,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>258</v>
       </c>
@@ -4363,7 +4524,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>260</v>
       </c>
@@ -4382,7 +4543,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>262</v>
       </c>
@@ -4401,7 +4562,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
@@ -4416,7 +4577,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
@@ -4431,7 +4592,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
@@ -4446,7 +4607,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
@@ -4461,7 +4622,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
@@ -4476,7 +4637,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
@@ -4491,7 +4652,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
@@ -4506,7 +4667,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
@@ -4521,7 +4682,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
@@ -4536,7 +4697,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
@@ -4551,7 +4712,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
@@ -4566,7 +4727,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
@@ -4581,7 +4742,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
@@ -4596,7 +4757,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
@@ -4611,7 +4772,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
@@ -4626,7 +4787,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
@@ -4641,7 +4802,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
@@ -4656,7 +4817,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="5"/>
@@ -4671,7 +4832,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="5"/>
@@ -4686,7 +4847,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="5"/>
@@ -4701,7 +4862,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="5"/>
@@ -4716,7 +4877,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="5"/>
@@ -4731,7 +4892,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="5"/>
@@ -4746,7 +4907,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="5"/>
@@ -4761,7 +4922,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="5"/>
@@ -4776,7 +4937,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="5"/>
@@ -4791,7 +4952,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="5"/>
@@ -4806,7 +4967,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="5"/>
@@ -4821,7 +4982,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="5"/>
@@ -4836,7 +4997,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="5"/>
@@ -4851,7 +5012,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="5"/>
@@ -4866,7 +5027,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="5"/>
@@ -4881,7 +5042,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="5"/>
@@ -4896,7 +5057,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="5"/>
@@ -4911,7 +5072,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="5"/>
@@ -4926,7 +5087,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="5"/>
@@ -4941,7 +5102,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="5"/>
@@ -4956,7 +5117,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="5"/>
@@ -4971,7 +5132,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="5"/>
@@ -4986,7 +5147,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="5"/>
@@ -5001,7 +5162,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="5"/>
@@ -5016,7 +5177,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="5"/>
@@ -5031,7 +5192,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="5"/>
@@ -5046,7 +5207,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="5"/>
@@ -5061,7 +5222,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="5"/>
@@ -5076,7 +5237,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="5"/>
@@ -5091,7 +5252,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="5"/>
@@ -5106,7 +5267,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="5"/>
@@ -5121,7 +5282,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="5"/>
@@ -5136,7 +5297,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="5"/>
@@ -5151,7 +5312,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="5"/>
@@ -5166,7 +5327,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="5"/>
@@ -5181,7 +5342,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="5"/>
@@ -5196,7 +5357,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="5"/>
@@ -5211,7 +5372,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="5"/>
@@ -5226,7 +5387,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="5"/>
@@ -5241,7 +5402,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="5"/>
@@ -5256,7 +5417,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="5"/>
@@ -5271,7 +5432,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="5"/>
@@ -5286,7 +5447,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="5"/>
@@ -5301,7 +5462,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="5"/>
@@ -5316,7 +5477,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="5"/>
@@ -5331,7 +5492,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="5"/>
@@ -5346,7 +5507,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="5"/>
@@ -5361,7 +5522,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="5"/>
@@ -5376,7 +5537,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="5"/>
@@ -5391,7 +5552,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="5"/>
@@ -5406,7 +5567,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="5"/>
@@ -5421,7 +5582,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="5"/>
@@ -5436,7 +5597,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="5"/>
@@ -5451,7 +5612,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="5"/>
@@ -5466,7 +5627,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="5"/>
@@ -5481,7 +5642,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="5"/>
@@ -5496,7 +5657,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="5"/>
@@ -5511,7 +5672,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="5"/>
@@ -5526,7 +5687,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="5"/>
@@ -5541,7 +5702,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="5"/>
@@ -5556,7 +5717,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="5"/>
@@ -5571,7 +5732,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="5"/>
@@ -5586,7 +5747,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="5"/>
@@ -5601,7 +5762,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="5"/>
@@ -5616,7 +5777,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="5"/>
@@ -5631,7 +5792,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="5"/>
@@ -5646,7 +5807,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="5"/>
@@ -5661,7 +5822,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="5"/>
@@ -5676,7 +5837,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="5"/>
@@ -5691,7 +5852,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="5"/>
@@ -5706,7 +5867,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="5"/>
@@ -5721,7 +5882,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="5"/>
@@ -5736,7 +5897,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="5"/>
@@ -5751,7 +5912,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="5"/>
@@ -5766,7 +5927,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="5"/>
@@ -5781,7 +5942,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="5"/>
@@ -5796,7 +5957,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="5"/>
@@ -5811,7 +5972,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="5"/>
@@ -5826,7 +5987,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="5"/>
@@ -5841,7 +6002,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="5"/>
@@ -5856,7 +6017,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="5"/>
@@ -5871,7 +6032,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="5"/>
@@ -5886,7 +6047,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="5"/>
@@ -5901,7 +6062,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="5"/>
@@ -5916,7 +6077,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="5"/>
@@ -5931,7 +6092,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="5"/>
@@ -5946,7 +6107,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="5"/>
@@ -5961,7 +6122,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="5"/>
@@ -5976,7 +6137,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="5"/>
@@ -5991,7 +6152,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="5"/>
@@ -6006,7 +6167,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="5"/>
@@ -6021,7 +6182,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="5"/>
@@ -6036,7 +6197,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="5"/>
@@ -6051,7 +6212,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="5"/>
@@ -6066,7 +6227,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="5"/>
@@ -6081,7 +6242,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="5"/>
@@ -6096,7 +6257,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="5"/>
@@ -6111,7 +6272,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="5"/>
@@ -6126,7 +6287,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="5"/>
@@ -6141,7 +6302,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="5"/>
@@ -6156,7 +6317,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="5"/>
@@ -6171,7 +6332,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="5"/>
@@ -6186,7 +6347,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="5"/>
@@ -6201,7 +6362,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="5"/>
@@ -6216,7 +6377,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="5"/>
@@ -6231,7 +6392,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="5"/>
@@ -6246,7 +6407,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="5"/>
@@ -6261,7 +6422,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="5"/>
@@ -6276,7 +6437,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="5"/>
@@ -6291,7 +6452,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="5"/>
@@ -6306,7 +6467,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="5"/>
@@ -6321,7 +6482,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="5"/>
@@ -6336,7 +6497,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="5"/>
@@ -6351,7 +6512,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="5"/>
@@ -6366,7 +6527,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="5"/>
@@ -6381,7 +6542,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="5"/>
@@ -6396,7 +6557,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="5"/>
@@ -6411,7 +6572,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="5"/>
@@ -6426,7 +6587,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="5"/>
@@ -6441,7 +6602,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="5"/>
@@ -6456,7 +6617,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="5"/>
@@ -6471,7 +6632,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="5"/>
@@ -6486,7 +6647,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="5"/>
@@ -6501,7 +6662,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="5"/>
@@ -6516,7 +6677,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="5"/>
@@ -6531,7 +6692,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="5"/>
@@ -6546,7 +6707,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="5"/>
@@ -6561,7 +6722,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="5"/>
@@ -6576,7 +6737,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="5"/>
@@ -6591,7 +6752,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="5"/>
@@ -6606,7 +6767,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="5"/>
@@ -6621,7 +6782,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="5"/>
@@ -6636,7 +6797,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="5"/>
@@ -6651,7 +6812,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="5"/>
@@ -6666,7 +6827,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="5"/>
@@ -6681,7 +6842,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="5"/>
@@ -6696,7 +6857,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="5"/>
@@ -6711,7 +6872,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="5"/>
@@ -6726,7 +6887,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="5"/>
@@ -6741,7 +6902,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="5"/>
@@ -6756,7 +6917,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="5"/>
@@ -6771,7 +6932,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="5"/>
@@ -6786,7 +6947,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="5"/>
@@ -6801,7 +6962,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="5"/>
@@ -6816,7 +6977,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="5"/>
@@ -6831,7 +6992,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="5"/>
@@ -6846,7 +7007,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="5"/>
@@ -6861,7 +7022,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="5"/>
@@ -6876,7 +7037,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="5"/>
@@ -6891,7 +7052,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="5"/>
@@ -6906,7 +7067,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="5"/>
@@ -6921,7 +7082,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="5"/>
@@ -6936,7 +7097,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="5"/>
@@ -6951,7 +7112,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="5"/>
@@ -6966,7 +7127,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="5"/>
@@ -6981,7 +7142,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="5"/>
@@ -6996,7 +7157,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="5"/>
@@ -7011,7 +7172,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="5"/>
@@ -7026,7 +7187,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="5"/>
@@ -7041,7 +7202,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="5"/>
@@ -7056,7 +7217,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="5"/>
@@ -7071,7 +7232,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="5"/>
@@ -7086,7 +7247,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="5"/>
@@ -7101,7 +7262,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="5"/>
@@ -7116,7 +7277,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="5"/>
@@ -7131,7 +7292,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="5"/>
@@ -7146,7 +7307,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="5"/>
@@ -7161,7 +7322,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="5"/>
@@ -7176,7 +7337,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="5"/>
@@ -7191,7 +7352,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="5"/>
@@ -7206,7 +7367,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="5"/>
@@ -7221,7 +7382,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="5"/>
@@ -7236,7 +7397,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="5"/>
@@ -7251,7 +7412,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="5"/>
@@ -7266,7 +7427,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="5"/>
@@ -7281,7 +7442,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="5"/>
@@ -7296,7 +7457,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="5"/>
@@ -7311,7 +7472,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="5"/>
@@ -7326,7 +7487,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="5"/>
@@ -7341,7 +7502,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="5"/>
@@ -7356,7 +7517,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="5"/>
@@ -7371,7 +7532,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="5"/>
@@ -7386,7 +7547,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="5"/>
@@ -7401,7 +7562,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="5"/>
@@ -7416,7 +7577,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="5"/>
@@ -7431,7 +7592,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="5"/>
@@ -7446,7 +7607,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="5"/>
@@ -7461,7 +7622,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="5"/>
@@ -7476,7 +7637,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="5"/>
@@ -7491,7 +7652,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="5"/>
@@ -7506,7 +7667,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="5"/>
@@ -7521,7 +7682,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="5"/>
@@ -7536,7 +7697,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="5"/>
@@ -7551,7 +7712,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="5"/>
@@ -7566,7 +7727,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="5"/>
@@ -7581,7 +7742,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="5"/>
@@ -7596,7 +7757,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="5"/>
@@ -7611,7 +7772,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="5"/>
@@ -7626,7 +7787,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="5"/>
@@ -7641,7 +7802,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="5"/>
@@ -7656,7 +7817,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="5"/>
@@ -7671,7 +7832,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="5"/>
@@ -7686,7 +7847,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="5"/>
@@ -7701,7 +7862,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="5"/>
@@ -7716,7 +7877,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="5"/>
@@ -7731,7 +7892,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="5"/>
@@ -7746,7 +7907,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="5"/>
@@ -7761,7 +7922,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="5"/>
@@ -7776,7 +7937,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="5"/>
@@ -7791,7 +7952,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="5"/>
@@ -7806,7 +7967,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="5"/>
@@ -7821,7 +7982,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="5"/>
@@ -7836,7 +7997,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="5"/>
@@ -7851,7 +8012,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="5"/>
@@ -7866,7 +8027,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="5"/>
@@ -7881,7 +8042,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="5"/>
@@ -7896,7 +8057,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="5"/>
@@ -7911,7 +8072,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="5"/>
@@ -7926,7 +8087,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="5"/>
@@ -7941,7 +8102,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="5"/>
@@ -7956,7 +8117,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="5"/>
@@ -7971,7 +8132,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="5"/>
@@ -7986,7 +8147,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="5"/>
@@ -8001,7 +8162,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="5"/>
@@ -8016,7 +8177,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="5"/>
@@ -8031,7 +8192,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="5"/>
@@ -8046,7 +8207,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="5"/>
@@ -8061,7 +8222,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="5"/>
@@ -8076,7 +8237,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="5"/>
@@ -8091,7 +8252,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="5"/>
@@ -8106,7 +8267,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="5"/>
@@ -8121,7 +8282,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="5"/>
@@ -8136,7 +8297,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="5"/>
@@ -8151,7 +8312,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="5"/>
@@ -8166,7 +8327,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="5"/>
@@ -8181,7 +8342,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="5"/>
@@ -8196,7 +8357,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="5"/>
@@ -8211,7 +8372,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="5"/>
@@ -8226,7 +8387,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="5"/>
@@ -8241,7 +8402,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="5"/>
@@ -8256,7 +8417,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="5"/>
@@ -8278,25 +8439,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I296"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" customWidth="1"/>
-    <col min="7" max="7" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8319,7 +8480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -8342,7 +8503,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -8365,7 +8526,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -8388,7 +8549,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -8411,7 +8572,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -8434,7 +8595,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -8457,7 +8618,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -8480,7 +8641,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -8503,7 +8664,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -8526,7 +8687,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -8551,7 +8712,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -8574,7 +8735,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
@@ -8597,7 +8758,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -8620,7 +8781,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -8643,7 +8804,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
@@ -8666,7 +8827,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -8689,7 +8850,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
@@ -8712,7 +8873,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -8735,7 +8896,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -8758,7 +8919,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -8781,7 +8942,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
@@ -8804,7 +8965,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
@@ -8827,7 +8988,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -8850,7 +9011,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>68</v>
       </c>
@@ -8873,7 +9034,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>70</v>
       </c>
@@ -8896,7 +9057,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
@@ -8919,7 +9080,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>74</v>
       </c>
@@ -8942,7 +9103,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
@@ -8965,7 +9126,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>78</v>
       </c>
@@ -8988,7 +9149,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
@@ -9013,7 +9174,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>83</v>
       </c>
@@ -9038,7 +9199,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
@@ -9061,7 +9222,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>87</v>
       </c>
@@ -9084,7 +9245,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>89</v>
       </c>
@@ -9107,7 +9268,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>211</v>
       </c>
@@ -9130,7 +9291,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>91</v>
       </c>
@@ -9153,7 +9314,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>93</v>
       </c>
@@ -9178,7 +9339,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>96</v>
       </c>
@@ -9201,7 +9362,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>98</v>
       </c>
@@ -9224,7 +9385,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>100</v>
       </c>
@@ -9247,7 +9408,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>102</v>
       </c>
@@ -9272,7 +9433,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>136</v>
       </c>
@@ -9295,7 +9456,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>138</v>
       </c>
@@ -9318,7 +9479,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>143</v>
       </c>
@@ -9341,7 +9502,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>145</v>
       </c>
@@ -9364,7 +9525,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>147</v>
       </c>
@@ -9389,7 +9550,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>150</v>
       </c>
@@ -9412,7 +9573,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>152</v>
       </c>
@@ -9435,7 +9596,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>154</v>
       </c>
@@ -9458,7 +9619,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>214</v>
       </c>
@@ -9481,7 +9642,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>157</v>
       </c>
@@ -9504,7 +9665,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>159</v>
       </c>
@@ -9527,7 +9688,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>161</v>
       </c>
@@ -9550,7 +9711,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>163</v>
       </c>
@@ -9575,7 +9736,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>165</v>
       </c>
@@ -9598,7 +9759,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>167</v>
       </c>
@@ -9621,7 +9782,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>169</v>
       </c>
@@ -9644,7 +9805,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>171</v>
       </c>
@@ -9667,7 +9828,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>173</v>
       </c>
@@ -9690,7 +9851,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>175</v>
       </c>
@@ -9713,7 +9874,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>177</v>
       </c>
@@ -9736,7 +9897,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>181</v>
       </c>
@@ -9759,7 +9920,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>184</v>
       </c>
@@ -9782,7 +9943,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>186</v>
       </c>
@@ -9805,7 +9966,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>188</v>
       </c>
@@ -9828,7 +9989,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>190</v>
       </c>
@@ -9851,7 +10012,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>192</v>
       </c>
@@ -9874,7 +10035,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>194</v>
       </c>
@@ -9899,7 +10060,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>197</v>
       </c>
@@ -9922,7 +10083,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>200</v>
       </c>
@@ -9945,7 +10106,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>201</v>
       </c>
@@ -9968,7 +10129,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>203</v>
       </c>
@@ -9991,7 +10152,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>205</v>
       </c>
@@ -10014,7 +10175,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>207</v>
       </c>
@@ -10037,7 +10198,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>209</v>
       </c>
@@ -10060,7 +10221,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>264</v>
       </c>
@@ -10083,7 +10244,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>266</v>
       </c>
@@ -10106,7 +10267,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>268</v>
       </c>
@@ -10129,7 +10290,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>270</v>
       </c>
@@ -10152,7 +10313,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>272</v>
       </c>
@@ -10175,7 +10336,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>274</v>
       </c>
@@ -10198,7 +10359,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>276</v>
       </c>
@@ -10223,7 +10384,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>279</v>
       </c>
@@ -10248,7 +10409,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>282</v>
       </c>
@@ -10271,7 +10432,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>284</v>
       </c>
@@ -10294,7 +10455,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>286</v>
       </c>
@@ -10317,7 +10478,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>288</v>
       </c>
@@ -10340,7 +10501,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>290</v>
       </c>
@@ -10363,7 +10524,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>297</v>
       </c>
@@ -10388,7 +10549,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>300</v>
       </c>
@@ -10411,7 +10572,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>304</v>
       </c>
@@ -10434,7 +10595,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>306</v>
       </c>
@@ -10457,7 +10618,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>309</v>
       </c>
@@ -10480,7 +10641,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>311</v>
       </c>
@@ -10503,7 +10664,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>313</v>
       </c>
@@ -10526,7 +10687,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>316</v>
       </c>
@@ -10551,7 +10712,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>319</v>
       </c>
@@ -10574,7 +10735,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>321</v>
       </c>
@@ -10597,7 +10758,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>323</v>
       </c>
@@ -10620,7 +10781,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>324</v>
       </c>
@@ -10643,7 +10804,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>328</v>
       </c>
@@ -10666,7 +10827,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>332</v>
       </c>
@@ -10689,7 +10850,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>334</v>
       </c>
@@ -10712,7 +10873,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>336</v>
       </c>
@@ -10735,7 +10896,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>338</v>
       </c>
@@ -10761,7 +10922,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>340</v>
       </c>
@@ -10784,7 +10945,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="5"/>
@@ -10799,7 +10960,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="5"/>
@@ -10814,7 +10975,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="5"/>
@@ -10829,7 +10990,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="5"/>
@@ -10844,7 +11005,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="5"/>
@@ -10859,7 +11020,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="5"/>
@@ -10874,7 +11035,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="5"/>
@@ -10889,7 +11050,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="5"/>
@@ -10904,7 +11065,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="5"/>
@@ -10919,7 +11080,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="5"/>
@@ -10934,7 +11095,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="5"/>
@@ -10949,7 +11110,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="5"/>
@@ -10964,7 +11125,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="5"/>
@@ -10979,7 +11140,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="5"/>
@@ -10994,7 +11155,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="5"/>
@@ -11009,7 +11170,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="5"/>
@@ -11024,7 +11185,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="5"/>
@@ -11039,7 +11200,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="5"/>
@@ -11054,7 +11215,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="5"/>
@@ -11069,7 +11230,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="5"/>
@@ -11084,7 +11245,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="5"/>
@@ -11099,7 +11260,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="5"/>
@@ -11114,7 +11275,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="5"/>
@@ -11129,7 +11290,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="5"/>
@@ -11144,7 +11305,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="5"/>
@@ -11159,7 +11320,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="5"/>
@@ -11174,7 +11335,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="5"/>
@@ -11189,7 +11350,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="5"/>
@@ -11204,7 +11365,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="5"/>
@@ -11219,7 +11380,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="5"/>
@@ -11234,7 +11395,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="5"/>
@@ -11249,7 +11410,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="5"/>
@@ -11264,7 +11425,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="5"/>
@@ -11279,7 +11440,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="5"/>
@@ -11294,7 +11455,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="5"/>
@@ -11309,7 +11470,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="5"/>
@@ -11324,7 +11485,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="5"/>
@@ -11339,7 +11500,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="5"/>
@@ -11354,7 +11515,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="5"/>
@@ -11369,7 +11530,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="5"/>
@@ -11384,7 +11545,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="5"/>
@@ -11399,7 +11560,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="5"/>
@@ -11414,7 +11575,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="5"/>
@@ -11429,7 +11590,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="5"/>
@@ -11444,7 +11605,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="5"/>
@@ -11459,7 +11620,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="5"/>
@@ -11474,7 +11635,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="5"/>
@@ -11489,7 +11650,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="5"/>
@@ -11504,7 +11665,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="5"/>
@@ -11519,7 +11680,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="5"/>
@@ -11534,7 +11695,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="5"/>
@@ -11549,7 +11710,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="5"/>
@@ -11564,7 +11725,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="5"/>
@@ -11579,7 +11740,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="5"/>
@@ -11594,7 +11755,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="5"/>
@@ -11609,7 +11770,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="5"/>
@@ -11624,7 +11785,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="5"/>
@@ -11639,7 +11800,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="5"/>
@@ -11654,7 +11815,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="5"/>
@@ -11669,7 +11830,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="5"/>
@@ -11684,7 +11845,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="5"/>
@@ -11699,7 +11860,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="5"/>
@@ -11714,7 +11875,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="5"/>
@@ -11729,7 +11890,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="5"/>
@@ -11744,7 +11905,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="5"/>
@@ -11759,7 +11920,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="5"/>
@@ -11774,7 +11935,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="5"/>
@@ -11789,7 +11950,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="5"/>
@@ -11804,7 +11965,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="5"/>
@@ -11819,7 +11980,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="5"/>
@@ -11834,7 +11995,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="5"/>
@@ -11849,7 +12010,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="5"/>
@@ -11864,7 +12025,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="5"/>
@@ -11879,7 +12040,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="5"/>
@@ -11894,7 +12055,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="5"/>
@@ -11909,7 +12070,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="5"/>
@@ -11924,7 +12085,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="5"/>
@@ -11939,7 +12100,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="5"/>
@@ -11954,7 +12115,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="5"/>
@@ -11969,7 +12130,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="5"/>
@@ -11984,7 +12145,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="5"/>
@@ -11999,7 +12160,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="5"/>
@@ -12014,7 +12175,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="5"/>
@@ -12029,7 +12190,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="5"/>
@@ -12044,7 +12205,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="5"/>
@@ -12059,7 +12220,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="5"/>
@@ -12074,7 +12235,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="5"/>
@@ -12089,7 +12250,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="5"/>
@@ -12104,7 +12265,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="5"/>
@@ -12119,7 +12280,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="5"/>
@@ -12134,7 +12295,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="5"/>
@@ -12149,7 +12310,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="5"/>
@@ -12164,7 +12325,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="5"/>
@@ -12179,7 +12340,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="5"/>
@@ -12194,7 +12355,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="5"/>
@@ -12209,7 +12370,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="5"/>
@@ -12224,7 +12385,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="5"/>
@@ -12239,7 +12400,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="5"/>
@@ -12254,7 +12415,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="5"/>
@@ -12269,7 +12430,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="5"/>
@@ -12284,7 +12445,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="5"/>
@@ -12299,7 +12460,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="5"/>
@@ -12314,7 +12475,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="5"/>
@@ -12329,7 +12490,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="5"/>
@@ -12344,7 +12505,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="5"/>
@@ -12359,7 +12520,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="5"/>
@@ -12374,7 +12535,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="5"/>
@@ -12389,7 +12550,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="5"/>
@@ -12404,7 +12565,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="5"/>
@@ -12419,7 +12580,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="5"/>
@@ -12434,7 +12595,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="5"/>
@@ -12449,7 +12610,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="5"/>
@@ -12464,7 +12625,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="5"/>
@@ -12479,7 +12640,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="5"/>
@@ -12494,7 +12655,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="5"/>
@@ -12509,7 +12670,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="5"/>
@@ -12524,7 +12685,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="5"/>
@@ -12539,7 +12700,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="5"/>
@@ -12554,7 +12715,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="5"/>
@@ -12569,7 +12730,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="5"/>
@@ -12584,7 +12745,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="5"/>
@@ -12599,7 +12760,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="5"/>
@@ -12614,7 +12775,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="5"/>
@@ -12629,7 +12790,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="5"/>
@@ -12644,7 +12805,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="5"/>
@@ -12659,7 +12820,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="5"/>
@@ -12674,7 +12835,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="5"/>
@@ -12689,7 +12850,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="5"/>
@@ -12704,7 +12865,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="5"/>
@@ -12719,7 +12880,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="5"/>
@@ -12734,7 +12895,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="5"/>
@@ -12749,7 +12910,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="5"/>
@@ -12764,7 +12925,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="5"/>
@@ -12779,7 +12940,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="5"/>
@@ -12794,7 +12955,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="5"/>
@@ -12809,7 +12970,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="5"/>
@@ -12824,7 +12985,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="5"/>
@@ -12839,7 +13000,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="5"/>
@@ -12854,7 +13015,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="5"/>
@@ -12869,7 +13030,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="5"/>
@@ -12884,7 +13045,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="5"/>
@@ -12899,7 +13060,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="5"/>
@@ -12914,7 +13075,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="5"/>
@@ -12929,7 +13090,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="5"/>
@@ -12944,7 +13105,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="5"/>
@@ -12959,7 +13120,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="5"/>
@@ -12974,7 +13135,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="5"/>
@@ -12989,7 +13150,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="5"/>
@@ -13004,7 +13165,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="5"/>
@@ -13019,7 +13180,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="5"/>
@@ -13034,7 +13195,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="5"/>
@@ -13049,7 +13210,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="5"/>
@@ -13064,7 +13225,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="5"/>
@@ -13079,7 +13240,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="5"/>
@@ -13094,7 +13255,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="5"/>
@@ -13109,7 +13270,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="5"/>
@@ -13124,7 +13285,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="5"/>
@@ -13139,7 +13300,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="5"/>
@@ -13154,7 +13315,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="5"/>
@@ -13169,7 +13330,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="5"/>
@@ -13184,7 +13345,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="5"/>
@@ -13199,7 +13360,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="5"/>
@@ -13214,7 +13375,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="5"/>
@@ -13229,7 +13390,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="5"/>
@@ -13244,7 +13405,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="5"/>
@@ -13259,7 +13420,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="5"/>
@@ -13274,7 +13435,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="5"/>
@@ -13289,7 +13450,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="5"/>
@@ -13304,7 +13465,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="5"/>
@@ -13319,7 +13480,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="5"/>
@@ -13334,7 +13495,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="5"/>
@@ -13349,7 +13510,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="5"/>
@@ -13364,7 +13525,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="5"/>
@@ -13379,7 +13540,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="5"/>
@@ -13394,7 +13555,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="5"/>
@@ -13409,7 +13570,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="5"/>
@@ -13424,7 +13585,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="5"/>
@@ -13439,7 +13600,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="5"/>
@@ -13454,7 +13615,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="5"/>
@@ -13469,7 +13630,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="5"/>
@@ -13484,7 +13645,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="5"/>
@@ -13499,7 +13660,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="5"/>
@@ -13514,7 +13675,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="5"/>
@@ -13529,7 +13690,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="5"/>
@@ -13544,7 +13705,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="5"/>
@@ -13559,7 +13720,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="5"/>
@@ -13574,7 +13735,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="5"/>
@@ -13589,7 +13750,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="5"/>
@@ -13604,7 +13765,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="5"/>
@@ -13625,24 +13786,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
-      <selection activeCell="A305" sqref="A305"/>
+    <sheetView topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="B297" sqref="B297"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.6640625" customWidth="1"/>
-    <col min="2" max="2" width="73.6640625" customWidth="1"/>
+    <col min="1" max="1" width="57.7109375" customWidth="1"/>
+    <col min="2" max="2" width="73.7109375" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
-    <col min="4" max="4" width="53.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="53.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -13650,7 +13811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -13661,7 +13822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -13672,7 +13833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -13683,7 +13844,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>118</v>
       </c>
@@ -13694,7 +13855,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>179</v>
       </c>
@@ -13702,7 +13863,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>182</v>
       </c>
@@ -13710,7 +13871,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>238</v>
       </c>
@@ -13718,7 +13879,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>292</v>
       </c>
@@ -13726,7 +13887,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>294</v>
       </c>
@@ -13734,7 +13895,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>296</v>
       </c>
@@ -13742,7 +13903,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>302</v>
       </c>
@@ -13750,7 +13911,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>307</v>
       </c>
@@ -13758,7 +13919,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>326</v>
       </c>
@@ -13766,7 +13927,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>330</v>
       </c>
@@ -13774,7 +13935,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>342</v>
       </c>
@@ -13782,7 +13943,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>346</v>
       </c>
@@ -13790,7 +13951,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>348</v>
       </c>
@@ -13798,7 +13959,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>350</v>
       </c>
@@ -13809,7 +13970,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>352</v>
       </c>
@@ -13821,7 +13982,7 @@
       </c>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>354</v>
       </c>
@@ -13832,7 +13993,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>356</v>
       </c>
@@ -13843,7 +14004,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>358</v>
       </c>
@@ -13854,7 +14015,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>360</v>
       </c>
@@ -13865,7 +14026,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>362</v>
       </c>
@@ -13876,7 +14037,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>364</v>
       </c>
@@ -13887,7 +14048,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>366</v>
       </c>
@@ -13898,7 +14059,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>368</v>
       </c>
@@ -13909,7 +14070,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>370</v>
       </c>
@@ -13920,7 +14081,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>372</v>
       </c>
@@ -13931,7 +14092,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>374</v>
       </c>
@@ -13942,7 +14103,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>376</v>
       </c>
@@ -13953,7 +14114,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>378</v>
       </c>
@@ -13964,7 +14125,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>380</v>
       </c>
@@ -13975,7 +14136,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>382</v>
       </c>
@@ -13986,7 +14147,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>384</v>
       </c>
@@ -13997,7 +14158,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>386</v>
       </c>
@@ -14008,7 +14169,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>411</v>
       </c>
@@ -14019,7 +14180,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>389</v>
       </c>
@@ -14030,7 +14191,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>391</v>
       </c>
@@ -14041,7 +14202,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>393</v>
       </c>
@@ -14052,7 +14213,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>395</v>
       </c>
@@ -14066,7 +14227,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>397</v>
       </c>
@@ -14077,7 +14238,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>399</v>
       </c>
@@ -14088,7 +14249,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>401</v>
       </c>
@@ -14099,7 +14260,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>403</v>
       </c>
@@ -14110,7 +14271,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>405</v>
       </c>
@@ -14121,7 +14282,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>407</v>
       </c>
@@ -14132,7 +14293,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>408</v>
       </c>
@@ -14143,7 +14304,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>413</v>
       </c>
@@ -14154,7 +14315,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>414</v>
       </c>
@@ -14165,7 +14326,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>416</v>
       </c>
@@ -14176,7 +14337,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>418</v>
       </c>
@@ -14187,7 +14348,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>420</v>
       </c>
@@ -14198,7 +14359,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>422</v>
       </c>
@@ -14209,7 +14370,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>424</v>
       </c>
@@ -14220,7 +14381,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>426</v>
       </c>
@@ -14231,7 +14392,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>428</v>
       </c>
@@ -14242,7 +14403,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>430</v>
       </c>
@@ -14253,7 +14414,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>432</v>
       </c>
@@ -14267,7 +14428,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>434</v>
       </c>
@@ -14278,7 +14439,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>436</v>
       </c>
@@ -14289,7 +14450,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>438</v>
       </c>
@@ -14300,7 +14461,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>440</v>
       </c>
@@ -14311,7 +14472,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>442</v>
       </c>
@@ -14322,7 +14483,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>444</v>
       </c>
@@ -14333,7 +14494,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>446</v>
       </c>
@@ -14344,7 +14505,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>448</v>
       </c>
@@ -14355,7 +14516,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>453</v>
       </c>
@@ -14366,7 +14527,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>521</v>
       </c>
@@ -14377,7 +14538,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>456</v>
       </c>
@@ -14388,7 +14549,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>458</v>
       </c>
@@ -14399,7 +14560,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>460</v>
       </c>
@@ -14410,7 +14571,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>462</v>
       </c>
@@ -14421,7 +14582,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>463</v>
       </c>
@@ -14432,7 +14593,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>465</v>
       </c>
@@ -14443,7 +14604,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>466</v>
       </c>
@@ -14454,7 +14615,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>469</v>
       </c>
@@ -14465,7 +14626,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>471</v>
       </c>
@@ -14476,7 +14637,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>473</v>
       </c>
@@ -14487,7 +14648,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>495</v>
       </c>
@@ -14498,7 +14659,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>476</v>
       </c>
@@ -14509,7 +14670,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>493</v>
       </c>
@@ -14520,7 +14681,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>479</v>
       </c>
@@ -14531,7 +14692,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>481</v>
       </c>
@@ -14542,7 +14703,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>483</v>
       </c>
@@ -14553,7 +14714,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>485</v>
       </c>
@@ -14564,7 +14725,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>487</v>
       </c>
@@ -14575,7 +14736,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>488</v>
       </c>
@@ -14586,7 +14747,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>490</v>
       </c>
@@ -14597,7 +14758,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="12"/>
@@ -14605,7 +14766,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
         <v>529</v>
       </c>
@@ -14616,7 +14777,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
         <v>531</v>
       </c>
@@ -14627,7 +14788,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
         <v>534</v>
       </c>
@@ -14638,7 +14799,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>533</v>
       </c>
@@ -14649,7 +14810,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
         <v>537</v>
       </c>
@@ -14660,7 +14821,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
         <v>539</v>
       </c>
@@ -14671,7 +14832,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>541</v>
       </c>
@@ -14682,7 +14843,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
         <v>627</v>
       </c>
@@ -14693,7 +14854,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
         <v>544</v>
       </c>
@@ -14704,7 +14865,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>629</v>
       </c>
@@ -14715,7 +14876,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
         <v>547</v>
       </c>
@@ -14726,7 +14887,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
         <v>549</v>
       </c>
@@ -14737,7 +14898,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
         <v>551</v>
       </c>
@@ -14748,7 +14909,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>553</v>
       </c>
@@ -14759,7 +14920,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
         <v>555</v>
       </c>
@@ -14770,7 +14931,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>557</v>
       </c>
@@ -14781,7 +14942,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
         <v>558</v>
       </c>
@@ -14792,7 +14953,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>561</v>
       </c>
@@ -14803,7 +14964,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
         <v>562</v>
       </c>
@@ -14814,7 +14975,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
         <v>564</v>
       </c>
@@ -14825,7 +14986,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
         <v>565</v>
       </c>
@@ -14836,7 +14997,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>568</v>
       </c>
@@ -14847,7 +15008,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
         <v>569</v>
       </c>
@@ -14858,7 +15019,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
         <v>727</v>
       </c>
@@ -14869,7 +15030,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
         <v>571</v>
       </c>
@@ -14880,7 +15041,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
         <v>729</v>
       </c>
@@ -14891,7 +15052,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>573</v>
       </c>
@@ -14902,7 +15063,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
         <v>576</v>
       </c>
@@ -14913,7 +15074,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
         <v>578</v>
       </c>
@@ -14924,7 +15085,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>579</v>
       </c>
@@ -14935,7 +15096,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>582</v>
       </c>
@@ -14946,7 +15107,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
         <v>584</v>
       </c>
@@ -14957,7 +15118,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
         <v>586</v>
       </c>
@@ -14968,7 +15129,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
         <v>588</v>
       </c>
@@ -14979,7 +15140,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
         <v>705</v>
       </c>
@@ -14990,7 +15151,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
         <v>707</v>
       </c>
@@ -15001,7 +15162,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="15" t="s">
         <v>592</v>
       </c>
@@ -15012,7 +15173,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="15" t="s">
         <v>594</v>
       </c>
@@ -15023,7 +15184,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
         <v>708</v>
       </c>
@@ -15034,7 +15195,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>709</v>
       </c>
@@ -15045,7 +15206,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
         <v>598</v>
       </c>
@@ -15056,7 +15217,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="15" t="s">
         <v>600</v>
       </c>
@@ -15067,7 +15228,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="15" t="s">
         <v>602</v>
       </c>
@@ -15078,7 +15239,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
         <v>604</v>
       </c>
@@ -15089,7 +15250,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="15" t="s">
         <v>606</v>
       </c>
@@ -15100,7 +15261,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="15" t="s">
         <v>608</v>
       </c>
@@ -15111,7 +15272,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
         <v>610</v>
       </c>
@@ -15122,7 +15283,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="15" t="s">
         <v>612</v>
       </c>
@@ -15133,7 +15294,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
         <v>614</v>
       </c>
@@ -15144,7 +15305,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>616</v>
       </c>
@@ -15155,7 +15316,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="15" t="s">
         <v>618</v>
       </c>
@@ -15166,7 +15327,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
         <v>620</v>
       </c>
@@ -15177,7 +15338,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
         <v>622</v>
       </c>
@@ -15188,7 +15349,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>624</v>
       </c>
@@ -15199,7 +15360,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="15" t="s">
         <v>630</v>
       </c>
@@ -15210,7 +15371,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="15" t="s">
         <v>632</v>
       </c>
@@ -15221,7 +15382,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
         <v>634</v>
       </c>
@@ -15232,7 +15393,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="15" t="s">
         <v>636</v>
       </c>
@@ -15243,7 +15404,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="15" t="s">
         <v>638</v>
       </c>
@@ -15254,7 +15415,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="15" t="s">
         <v>641</v>
       </c>
@@ -15265,7 +15426,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
         <v>642</v>
       </c>
@@ -15276,7 +15437,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
         <v>644</v>
       </c>
@@ -15287,7 +15448,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="15" t="s">
         <v>710</v>
       </c>
@@ -15298,7 +15459,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="15" t="s">
         <v>647</v>
       </c>
@@ -15309,7 +15470,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
         <v>649</v>
       </c>
@@ -15320,7 +15481,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="15" t="s">
         <v>651</v>
       </c>
@@ -15331,7 +15492,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="15" t="s">
         <v>653</v>
       </c>
@@ -15342,7 +15503,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="15" t="s">
         <v>655</v>
       </c>
@@ -15353,7 +15514,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
         <v>657</v>
       </c>
@@ -15364,7 +15525,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="15" t="s">
         <v>658</v>
       </c>
@@ -15375,7 +15536,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="15" t="s">
         <v>660</v>
       </c>
@@ -15386,7 +15547,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="15" t="s">
         <v>662</v>
       </c>
@@ -15397,7 +15558,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="s">
         <v>664</v>
       </c>
@@ -15408,7 +15569,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="15" t="s">
         <v>666</v>
       </c>
@@ -15419,7 +15580,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="15" t="s">
         <v>715</v>
       </c>
@@ -15430,7 +15591,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="15" t="s">
         <v>716</v>
       </c>
@@ -15441,7 +15602,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
         <v>717</v>
       </c>
@@ -15452,7 +15613,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
         <v>668</v>
       </c>
@@ -15463,7 +15624,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="15" t="s">
         <v>670</v>
       </c>
@@ -15474,7 +15635,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="15" t="s">
         <v>672</v>
       </c>
@@ -15485,7 +15646,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="s">
         <v>674</v>
       </c>
@@ -15496,7 +15657,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="15" t="s">
         <v>676</v>
       </c>
@@ -15507,7 +15668,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="15" t="s">
         <v>678</v>
       </c>
@@ -15518,7 +15679,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="15" t="s">
         <v>720</v>
       </c>
@@ -15529,7 +15690,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="s">
         <v>680</v>
       </c>
@@ -15540,7 +15701,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="15" t="s">
         <v>681</v>
       </c>
@@ -15551,7 +15712,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="15" t="s">
         <v>682</v>
       </c>
@@ -15562,7 +15723,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
         <v>684</v>
       </c>
@@ -15573,7 +15734,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="s">
         <v>687</v>
       </c>
@@ -15584,7 +15745,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
         <v>688</v>
       </c>
@@ -15595,7 +15756,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="13" t="s">
         <v>689</v>
       </c>
@@ -15606,7 +15767,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="15" t="s">
         <v>691</v>
       </c>
@@ -15617,7 +15778,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="15" t="s">
         <v>693</v>
       </c>
@@ -15628,7 +15789,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="13" t="s">
         <v>695</v>
       </c>
@@ -15639,7 +15800,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="13" t="s">
         <v>697</v>
       </c>
@@ -15650,7 +15811,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="15" t="s">
         <v>699</v>
       </c>
@@ -15661,7 +15822,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="15" t="s">
         <v>701</v>
       </c>
@@ -15672,7 +15833,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="13" t="s">
         <v>703</v>
       </c>
@@ -15683,13 +15844,13 @@
         <v>703</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="24"/>
       <c r="B190" s="24"/>
       <c r="C190" s="12"/>
       <c r="D190" s="12"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="13" t="s">
         <v>757</v>
       </c>
@@ -15697,7 +15858,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="13" t="s">
         <v>759</v>
       </c>
@@ -15705,7 +15866,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="15" t="s">
         <v>761</v>
       </c>
@@ -15713,7 +15874,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="s">
         <v>763</v>
       </c>
@@ -15721,7 +15882,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="s">
         <v>765</v>
       </c>
@@ -15729,7 +15890,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="15" t="s">
         <v>767</v>
       </c>
@@ -15737,7 +15898,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="13" t="s">
         <v>770</v>
       </c>
@@ -15745,7 +15906,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="13" t="s">
         <v>773</v>
       </c>
@@ -15753,7 +15914,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="15" t="s">
         <v>774</v>
       </c>
@@ -15761,7 +15922,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="s">
         <v>775</v>
       </c>
@@ -15769,7 +15930,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="13" t="s">
         <v>777</v>
       </c>
@@ -15777,7 +15938,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="13" t="s">
         <v>779</v>
       </c>
@@ -15785,7 +15946,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="13" t="s">
         <v>781</v>
       </c>
@@ -15793,7 +15954,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="15" t="s">
         <v>783</v>
       </c>
@@ -15801,7 +15962,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="13" t="s">
         <v>785</v>
       </c>
@@ -15809,7 +15970,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="13" t="s">
         <v>787</v>
       </c>
@@ -15817,7 +15978,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="13" t="s">
         <v>789</v>
       </c>
@@ -15825,7 +15986,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="13" t="s">
         <v>791</v>
       </c>
@@ -15833,7 +15994,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="15" t="s">
         <v>793</v>
       </c>
@@ -15841,7 +16002,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="13" t="s">
         <v>795</v>
       </c>
@@ -15849,7 +16010,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="13" t="s">
         <v>798</v>
       </c>
@@ -15857,7 +16018,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="13" t="s">
         <v>799</v>
       </c>
@@ -15865,7 +16026,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="13" t="s">
         <v>801</v>
       </c>
@@ -15873,7 +16034,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="15" t="s">
         <v>803</v>
       </c>
@@ -15881,7 +16042,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="13" t="s">
         <v>805</v>
       </c>
@@ -15889,7 +16050,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="15" t="s">
         <v>807</v>
       </c>
@@ -15897,7 +16058,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="13" t="s">
         <v>809</v>
       </c>
@@ -15905,7 +16066,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="s">
         <v>811</v>
       </c>
@@ -15913,7 +16074,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="13" t="s">
         <v>813</v>
       </c>
@@ -15921,7 +16082,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="15" t="s">
         <v>815</v>
       </c>
@@ -15929,7 +16090,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="13" t="s">
         <v>817</v>
       </c>
@@ -15937,7 +16098,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="13" t="s">
         <v>819</v>
       </c>
@@ -15945,7 +16106,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="13" t="s">
         <v>821</v>
       </c>
@@ -15953,7 +16114,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="13" t="s">
         <v>823</v>
       </c>
@@ -15961,7 +16122,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="13" t="s">
         <v>825</v>
       </c>
@@ -15969,7 +16130,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="15" t="s">
         <v>827</v>
       </c>
@@ -15977,7 +16138,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="13" t="s">
         <v>829</v>
       </c>
@@ -15985,7 +16146,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="13" t="s">
         <v>830</v>
       </c>
@@ -15993,7 +16154,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="13" t="s">
         <v>831</v>
       </c>
@@ -16001,7 +16162,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="15" t="s">
         <v>834</v>
       </c>
@@ -16009,7 +16170,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="13" t="s">
         <v>836</v>
       </c>
@@ -16017,7 +16178,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="13" t="s">
         <v>838</v>
       </c>
@@ -16025,7 +16186,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="13" t="s">
         <v>840</v>
       </c>
@@ -16033,7 +16194,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="15" t="s">
         <v>842</v>
       </c>
@@ -16041,7 +16202,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="13" t="s">
         <v>844</v>
       </c>
@@ -16049,7 +16210,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="13" t="s">
         <v>847</v>
       </c>
@@ -16057,7 +16218,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="13" t="s">
         <v>848</v>
       </c>
@@ -16065,7 +16226,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="15" t="s">
         <v>850</v>
       </c>
@@ -16073,7 +16234,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="15" t="s">
         <v>852</v>
       </c>
@@ -16081,7 +16242,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="13" t="s">
         <v>854</v>
       </c>
@@ -16089,7 +16250,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="13" t="s">
         <v>856</v>
       </c>
@@ -16097,7 +16258,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="13" t="s">
         <v>858</v>
       </c>
@@ -16105,7 +16266,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="13" t="s">
         <v>860</v>
       </c>
@@ -16113,7 +16274,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="15" t="s">
         <v>862</v>
       </c>
@@ -16121,7 +16282,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="15" t="s">
         <v>864</v>
       </c>
@@ -16129,7 +16290,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="13" t="s">
         <v>866</v>
       </c>
@@ -16137,7 +16298,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="13" t="s">
         <v>868</v>
       </c>
@@ -16145,7 +16306,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="13" t="s">
         <v>870</v>
       </c>
@@ -16153,7 +16314,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="15" t="s">
         <v>872</v>
       </c>
@@ -16161,7 +16322,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="13" t="s">
         <v>874</v>
       </c>
@@ -16169,7 +16330,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="15" t="s">
         <v>876</v>
       </c>
@@ -16177,7 +16338,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="13" t="s">
         <v>879</v>
       </c>
@@ -16185,7 +16346,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="15" t="s">
         <v>878</v>
       </c>
@@ -16193,7 +16354,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="13" t="s">
         <v>882</v>
       </c>
@@ -16201,7 +16362,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="13" t="s">
         <v>883</v>
       </c>
@@ -16209,7 +16370,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="13" t="s">
         <v>884</v>
       </c>
@@ -16217,7 +16378,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="13" t="s">
         <v>885</v>
       </c>
@@ -16225,7 +16386,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="13" t="s">
         <v>886</v>
       </c>
@@ -16233,7 +16394,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="13" t="s">
         <v>887</v>
       </c>
@@ -16241,7 +16402,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="15" t="s">
         <v>888</v>
       </c>
@@ -16249,7 +16410,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="13" t="s">
         <v>896</v>
       </c>
@@ -16257,7 +16418,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="13" t="s">
         <v>897</v>
       </c>
@@ -16265,7 +16426,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="13" t="s">
         <v>898</v>
       </c>
@@ -16273,7 +16434,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="15" t="s">
         <v>899</v>
       </c>
@@ -16281,7 +16442,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="15" t="s">
         <v>903</v>
       </c>
@@ -16289,7 +16450,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="13" t="s">
         <v>909</v>
       </c>
@@ -16297,7 +16458,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="13" t="s">
         <v>910</v>
       </c>
@@ -16305,7 +16466,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="13" t="s">
         <v>905</v>
       </c>
@@ -16313,7 +16474,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="13" t="s">
         <v>907</v>
       </c>
@@ -16321,7 +16482,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="15" t="s">
         <v>913</v>
       </c>
@@ -16329,7 +16490,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="13" t="s">
         <v>915</v>
       </c>
@@ -16337,7 +16498,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="13" t="s">
         <v>917</v>
       </c>
@@ -16345,7 +16506,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="13" t="s">
         <v>919</v>
       </c>
@@ -16353,7 +16514,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="15" t="s">
         <v>920</v>
       </c>
@@ -16361,7 +16522,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="13" t="s">
         <v>923</v>
       </c>
@@ -16369,7 +16530,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="13" t="s">
         <v>925</v>
       </c>
@@ -16377,7 +16538,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="13" t="s">
         <v>927</v>
       </c>
@@ -16385,7 +16546,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="15" t="s">
         <v>928</v>
       </c>
@@ -16393,7 +16554,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="13" t="s">
         <v>930</v>
       </c>
@@ -16401,7 +16562,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="13" t="s">
         <v>932</v>
       </c>
@@ -16409,7 +16570,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="13" t="s">
         <v>934</v>
       </c>
@@ -16417,7 +16578,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="13" t="s">
         <v>936</v>
       </c>
@@ -16425,7 +16586,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="13" t="s">
         <v>938</v>
       </c>
@@ -16433,7 +16594,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="15" t="s">
         <v>940</v>
       </c>
@@ -16441,7 +16602,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="15" t="s">
         <v>942</v>
       </c>
@@ -16449,7 +16610,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="13" t="s">
         <v>945</v>
       </c>
@@ -16457,7 +16618,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="13" t="s">
         <v>946</v>
       </c>
@@ -16465,7 +16626,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="13" t="s">
         <v>948</v>
       </c>
@@ -16473,7 +16634,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="13" t="s">
         <v>950</v>
       </c>
@@ -16481,7 +16642,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="15" t="s">
         <v>952</v>
       </c>
@@ -16489,7 +16650,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="13" t="s">
         <v>954</v>
       </c>
@@ -16497,7 +16658,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="13" t="s">
         <v>956</v>
       </c>
@@ -16505,7 +16666,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="15" t="s">
         <v>957</v>
       </c>
@@ -16513,7 +16674,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="15" t="s">
         <v>959</v>
       </c>
@@ -16521,7 +16682,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="13" t="s">
         <v>961</v>
       </c>
@@ -16529,7 +16690,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="13" t="s">
         <v>963</v>
       </c>
@@ -16537,7 +16698,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="13" t="s">
         <v>965</v>
       </c>
@@ -16545,7 +16706,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="13" t="s">
         <v>966</v>
       </c>
@@ -16553,7 +16714,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="13" t="s">
         <v>967</v>
       </c>
@@ -16561,7 +16722,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="13" t="s">
         <v>927</v>
       </c>
@@ -16569,7 +16730,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" s="15" t="s">
         <v>968</v>
       </c>
@@ -16577,7 +16738,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="13" t="s">
         <v>973</v>
       </c>
@@ -16585,7 +16746,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="13" t="s">
         <v>975</v>
       </c>
@@ -16593,7 +16754,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="15" t="s">
         <v>977</v>
       </c>
@@ -16601,189 +16762,563 @@
         <v>978</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="13"/>
       <c r="B305" s="13"/>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="13"/>
       <c r="B306" s="13"/>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="13"/>
       <c r="B307" s="13"/>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="13"/>
       <c r="B308" s="13"/>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="13"/>
       <c r="B309" s="13"/>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="13"/>
       <c r="B310" s="13"/>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="13"/>
       <c r="B311" s="13"/>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="13"/>
       <c r="B312" s="13"/>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="13"/>
       <c r="B313" s="13"/>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="13"/>
       <c r="B314" s="13"/>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="13"/>
       <c r="B315" s="13"/>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="13"/>
       <c r="B316" s="13"/>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="13"/>
       <c r="B317" s="13"/>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="13"/>
       <c r="B318" s="13"/>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="13"/>
       <c r="B319" s="13"/>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="13"/>
       <c r="B320" s="13"/>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="13"/>
       <c r="B321" s="13"/>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="13"/>
       <c r="B322" s="13"/>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="13"/>
       <c r="B323" s="13"/>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="13"/>
       <c r="B324" s="13"/>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="13"/>
       <c r="B325" s="13"/>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="13"/>
       <c r="B326" s="13"/>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="13"/>
       <c r="B327" s="13"/>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="13"/>
       <c r="B328" s="13"/>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="13"/>
       <c r="B329" s="13"/>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="13"/>
       <c r="B330" s="13"/>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="13"/>
       <c r="B331" s="13"/>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="13"/>
       <c r="B332" s="13"/>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="13"/>
       <c r="B333" s="13"/>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="13"/>
       <c r="B334" s="13"/>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="13"/>
       <c r="B335" s="13"/>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="13"/>
       <c r="B336" s="13"/>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="13"/>
       <c r="B337" s="13"/>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="13"/>
       <c r="B338" s="13"/>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="13"/>
       <c r="B339" s="13"/>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="13"/>
       <c r="B340" s="13"/>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="13"/>
       <c r="B341" s="13"/>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="13"/>
       <c r="B342" s="13"/>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="13"/>
       <c r="B343" s="13"/>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="13"/>
       <c r="B344" s="13"/>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="13"/>
       <c r="B345" s="13"/>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="13"/>
       <c r="B346" s="13"/>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="13"/>
       <c r="B347" s="13"/>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="13"/>
       <c r="B348" s="13"/>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="13"/>
       <c r="B349" s="13"/>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="13"/>
       <c r="B350" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408249BA-B587-4090-9C66-27B099C0148E}">
+  <dimension ref="A1:C50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.140625" customWidth="1"/>
+    <col min="2" max="2" width="62.5703125" customWidth="1"/>
+    <col min="3" max="3" width="58.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>979</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="C1" s="25"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>981</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>982</v>
+      </c>
+      <c r="C2" s="25"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>983</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>984</v>
+      </c>
+      <c r="C3" s="25"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>986</v>
+      </c>
+      <c r="C4" s="25"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>987</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>988</v>
+      </c>
+      <c r="C5" s="25"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>989</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>990</v>
+      </c>
+      <c r="C6" s="25"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>991</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>992</v>
+      </c>
+      <c r="C7" s="25"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>993</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>994</v>
+      </c>
+      <c r="C8" s="25"/>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="C9" s="25"/>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>998</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>997</v>
+      </c>
+      <c r="C10" s="25"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>999</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="25"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C12" s="25"/>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C13" s="25"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C14" s="25"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C15" s="25"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C16" s="25"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C17" s="25"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C18" s="25"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C19" s="25"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C20" s="25"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C21" s="25"/>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C22" s="25"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C23" s="25"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C24" s="25"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C25" s="25"/>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C26" s="25"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="25"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="25"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="25"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="25"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="25"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="25"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="25"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="25"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="25"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="25"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="25"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="25"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="25"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="25"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="25"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="25"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="25"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="25"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="25"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="25"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="25"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="25"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="25"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/english.xlsx
+++ b/english.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\popoves\Desktop\experience\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DC8081-B8A1-4C87-833C-D1B5BFF093AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77A4024-6787-4FB1-8359-4803BAE6D664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="words" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="1059">
   <si>
     <t>word</t>
   </si>
@@ -2565,12 +2565,6 @@
     <t>why don’t you stay out</t>
   </si>
   <si>
-    <t>почему бы тебе не оставаться подольше</t>
-  </si>
-  <si>
-    <t>почему бы тебе не оставаться</t>
-  </si>
-  <si>
     <t>why don’t you stay out longer</t>
   </si>
   <si>
@@ -2580,9 +2574,6 @@
     <t>и ловить больше рыбы</t>
   </si>
   <si>
-    <t>why don’t you stays out longer and catch more fish</t>
-  </si>
-  <si>
     <t>почему бы тебе не оставаться подольше и ловить больше рыбы</t>
   </si>
   <si>
@@ -2790,15 +2781,6 @@
     <t>asked the fisherman very politely</t>
   </si>
   <si>
-    <t>what for - asked the fisherman very politely</t>
-  </si>
-  <si>
-    <t>спросил рыбае очень вежливо</t>
-  </si>
-  <si>
-    <t>зачем - спросил рыбак очень вежливо</t>
-  </si>
-  <si>
     <t>with a bigger boat</t>
   </si>
   <si>
@@ -2907,12 +2889,6 @@
     <t>звучит здорово - сказал рыбак</t>
   </si>
   <si>
-    <t>and what then</t>
-  </si>
-  <si>
-    <t>и что потом</t>
-  </si>
-  <si>
     <t>then</t>
   </si>
   <si>
@@ -2952,9 +2928,6 @@
     <t>the fisherman smiled and said</t>
   </si>
   <si>
-    <t>рыбал улыбнулся и сказал</t>
-  </si>
-  <si>
     <t>is not that what I am doing right now</t>
   </si>
   <si>
@@ -3121,6 +3094,117 @@
   </si>
   <si>
     <t>если django установлен, вы увидите версию вашей установки</t>
+  </si>
+  <si>
+    <t>the routine of local fisherman</t>
+  </si>
+  <si>
+    <t>he could not help but notice the rountine of local fisherman</t>
+  </si>
+  <si>
+    <t>an ameriacan businessman</t>
+  </si>
+  <si>
+    <t>an ameriacan businessman was on vacation in Mexico</t>
+  </si>
+  <si>
+    <t>he would fish a couple hours</t>
+  </si>
+  <si>
+    <t>he would fish a couple hours and then return home with some fish</t>
+  </si>
+  <si>
+    <t>also he would give some fish to his neighbour</t>
+  </si>
+  <si>
+    <t>the businessman noticed that in the afternoon fisherman didn’t work</t>
+  </si>
+  <si>
+    <t>and enjoyed the company of his friends and neibours</t>
+  </si>
+  <si>
+    <t>instead, he spent time with his family, played the guitar, and enjoyed the company of his friends and neighbours</t>
+  </si>
+  <si>
+    <t>the businessman approached to fisherman</t>
+  </si>
+  <si>
+    <t>one day, the businessman approached to fisherman and said</t>
+  </si>
+  <si>
+    <t>I notcied</t>
+  </si>
+  <si>
+    <t>why don’t you stay out longer and catch more fish?</t>
+  </si>
+  <si>
+    <t>why don’t you stays out longer and catch more fish?</t>
+  </si>
+  <si>
+    <t>why don’t you stay out longer?</t>
+  </si>
+  <si>
+    <t>why don’t you stay out?</t>
+  </si>
+  <si>
+    <t>почему бы тебе не оставаться?</t>
+  </si>
+  <si>
+    <t>почему бы тебе не оставаться подольше?</t>
+  </si>
+  <si>
+    <t>I catch enough to support my family and little more to share with friends</t>
+  </si>
+  <si>
+    <t>I had great success building many businnes back home</t>
+  </si>
+  <si>
+    <t>first, you have to spend more time fishing, so you can catch more fish, started businessman</t>
+  </si>
+  <si>
+    <t>ok, that would be easy to do</t>
+  </si>
+  <si>
+    <t>you can then to sell extra fish and buy a bigger boat - continued businessman</t>
+  </si>
+  <si>
+    <t>спросил рыбак очень вежливо</t>
+  </si>
+  <si>
+    <t>what for? asked the fisherman very politely</t>
+  </si>
+  <si>
+    <t>зачем? спросил рыбак очень вежливо</t>
+  </si>
+  <si>
+    <t>with a bigger boat, you will catch even more fish</t>
+  </si>
+  <si>
+    <t>soon you will be able another boat, hire people, and build a big business</t>
+  </si>
+  <si>
+    <t>the business was very excided</t>
+  </si>
+  <si>
+    <t>ones your business is big anough, you can sell it and make a lot of money</t>
+  </si>
+  <si>
+    <t>and what then?</t>
+  </si>
+  <si>
+    <t>и что потом?</t>
+  </si>
+  <si>
+    <t>said budinessman</t>
+  </si>
+  <si>
+    <t>then, you can retire, send time with your family, play the guitar and enjoy life with your friends - said businessman</t>
+  </si>
+  <si>
+    <t>рыбак улыбнулся и сказал</t>
+  </si>
+  <si>
+    <t>the fisherman smiled and said - is not that what I am doing right now</t>
   </si>
 </sst>
 </file>
@@ -3280,7 +3364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3340,6 +3424,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13789,8 +13886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D350"/>
   <sheetViews>
-    <sheetView topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="B297" sqref="B297"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C311" sqref="C311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15857,6 +15954,9 @@
       <c r="B191" s="13" t="s">
         <v>758</v>
       </c>
+      <c r="C191" s="30" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="13" t="s">
@@ -15865,1086 +15965,1471 @@
       <c r="B192" s="13" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C192" s="31" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="15" t="s">
         <v>761</v>
       </c>
       <c r="B193" s="15" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C193" s="22" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="s">
         <v>763</v>
       </c>
       <c r="B194" s="13" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C194" s="30" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="s">
         <v>765</v>
       </c>
       <c r="B195" s="13" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C195" s="31" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="15" t="s">
         <v>767</v>
       </c>
       <c r="B196" s="15" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C196" s="22" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="13" t="s">
         <v>770</v>
       </c>
       <c r="B197" s="13" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C197" s="30" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="13" t="s">
         <v>773</v>
       </c>
       <c r="B198" s="13" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C198" s="31" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="15" t="s">
         <v>774</v>
       </c>
       <c r="B199" s="15" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C199" s="22" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="s">
         <v>775</v>
       </c>
       <c r="B200" s="13" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C200" s="30" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="13" t="s">
         <v>777</v>
       </c>
       <c r="B201" s="13" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C201" s="31" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="13" t="s">
         <v>779</v>
       </c>
       <c r="B202" s="13" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C202" s="31" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="13" t="s">
         <v>781</v>
       </c>
       <c r="B203" s="13" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C203" s="31" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="15" t="s">
         <v>783</v>
       </c>
       <c r="B204" s="15" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C204" s="22" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="13" t="s">
         <v>785</v>
       </c>
       <c r="B205" s="13" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C205" s="30" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="13" t="s">
         <v>787</v>
       </c>
       <c r="B206" s="13" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C206" s="31" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="13" t="s">
         <v>789</v>
       </c>
       <c r="B207" s="13" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C207" s="31" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="13" t="s">
         <v>791</v>
       </c>
       <c r="B208" s="13" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C208" s="31" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="15" t="s">
         <v>793</v>
       </c>
       <c r="B209" s="15" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C209" s="22" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="13" t="s">
         <v>795</v>
       </c>
       <c r="B210" s="13" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C210" s="30" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="13" t="s">
         <v>798</v>
       </c>
       <c r="B211" s="13" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C211" s="31" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="13" t="s">
         <v>799</v>
       </c>
       <c r="B212" s="13" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C212" s="31" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="13" t="s">
         <v>801</v>
       </c>
       <c r="B213" s="13" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C213" s="31" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="15" t="s">
         <v>803</v>
       </c>
       <c r="B214" s="15" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C214" s="22" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="13" t="s">
         <v>805</v>
       </c>
       <c r="B215" s="13" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C215" s="30" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="15" t="s">
         <v>807</v>
       </c>
       <c r="B216" s="15" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C216" s="22" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="13" t="s">
         <v>809</v>
       </c>
       <c r="B217" s="13" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C217" s="30" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="s">
         <v>811</v>
       </c>
       <c r="B218" s="13" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C218" s="31" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="13" t="s">
         <v>813</v>
       </c>
       <c r="B219" s="13" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C219" s="31" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="15" t="s">
         <v>815</v>
       </c>
       <c r="B220" s="15" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C220" s="22" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="13" t="s">
         <v>817</v>
       </c>
       <c r="B221" s="13" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C221" s="30" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="13" t="s">
         <v>819</v>
       </c>
       <c r="B222" s="13" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C222" s="31" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="13" t="s">
         <v>821</v>
       </c>
       <c r="B223" s="13" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C223" s="31" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="13" t="s">
         <v>823</v>
       </c>
       <c r="B224" s="13" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C224" s="31" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="13" t="s">
         <v>825</v>
       </c>
       <c r="B225" s="13" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C225" s="31" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="15" t="s">
         <v>827</v>
       </c>
       <c r="B226" s="15" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C226" s="22" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="13" t="s">
         <v>829</v>
       </c>
       <c r="B227" s="13" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C227" s="27" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="13" t="s">
         <v>830</v>
       </c>
       <c r="B228" s="13" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C228" s="28" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="13" t="s">
         <v>831</v>
       </c>
       <c r="B229" s="13" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C229" s="28" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="15" t="s">
         <v>834</v>
       </c>
       <c r="B230" s="15" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C230" s="29" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="13" t="s">
         <v>836</v>
       </c>
       <c r="B231" s="13" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C231" s="30" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="13" t="s">
         <v>838</v>
       </c>
       <c r="B232" s="13" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C232" s="31" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="13" t="s">
         <v>840</v>
       </c>
       <c r="B233" s="13" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C233" s="31" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="15" t="s">
         <v>842</v>
       </c>
       <c r="B234" s="15" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C234" s="22" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="13" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B235" s="13" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C235" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="B235" s="13" t="s">
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="13" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B236" s="13" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C236" s="31" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="13" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="13" t="s">
+      <c r="B237" s="13" t="s">
         <v>847</v>
       </c>
-      <c r="B236" s="13" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="13" t="s">
+      <c r="C237" s="31" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="15" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B238" s="15" t="s">
         <v>848</v>
       </c>
-      <c r="B237" s="13" t="s">
+      <c r="C238" s="22" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="15" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="15" t="s">
+      <c r="B239" s="15" t="s">
         <v>850</v>
       </c>
-      <c r="B238" s="15" t="s">
+      <c r="C239" s="32" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="13" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="15" t="s">
+      <c r="B240" s="13" t="s">
         <v>852</v>
       </c>
-      <c r="B239" s="15" t="s">
+      <c r="C240" s="30" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="13" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="13" t="s">
+      <c r="B241" s="13" t="s">
         <v>854</v>
       </c>
-      <c r="B240" s="13" t="s">
+      <c r="C241" s="31" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="13" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="13" t="s">
+      <c r="B242" s="13" t="s">
         <v>856</v>
       </c>
-      <c r="B241" s="13" t="s">
+      <c r="C242" s="31" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="13" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="13" t="s">
+      <c r="B243" s="13" t="s">
         <v>858</v>
       </c>
-      <c r="B242" s="13" t="s">
+      <c r="C243" s="31" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A244" s="15" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="13" t="s">
+      <c r="B244" s="15" t="s">
         <v>860</v>
       </c>
-      <c r="B243" s="13" t="s">
+      <c r="C244" s="22" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="15" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A244" s="15" t="s">
+      <c r="B245" s="15" t="s">
         <v>862</v>
       </c>
-      <c r="B244" s="15" t="s">
+      <c r="C245" s="10" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="13" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="15" t="s">
+      <c r="B246" s="13" t="s">
         <v>864</v>
       </c>
-      <c r="B245" s="15" t="s">
+      <c r="C246" s="30" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="13" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="13" t="s">
+      <c r="B247" s="13" t="s">
         <v>866</v>
       </c>
-      <c r="B246" s="13" t="s">
+      <c r="C247" s="31" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="13" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="13" t="s">
+      <c r="B248" s="13" t="s">
         <v>868</v>
       </c>
-      <c r="B247" s="13" t="s">
+      <c r="C248" s="31" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A249" s="15" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="13" t="s">
+      <c r="B249" s="15" t="s">
         <v>870</v>
       </c>
-      <c r="B248" s="13" t="s">
+      <c r="C249" s="22" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="13" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A249" s="15" t="s">
+      <c r="B250" s="13" t="s">
         <v>872</v>
       </c>
-      <c r="B249" s="15" t="s">
+      <c r="C250" s="27" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="15" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="13" t="s">
+      <c r="B251" s="15" t="s">
         <v>874</v>
       </c>
-      <c r="B250" s="13" t="s">
+      <c r="C251" s="29" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="13" t="s">
+        <v>876</v>
+      </c>
+      <c r="B252" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="C252" s="27" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="15" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="15" t="s">
-        <v>876</v>
-      </c>
-      <c r="B251" s="15" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="13" t="s">
+      <c r="B253" s="15" t="s">
+        <v>878</v>
+      </c>
+      <c r="C253" s="29" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="13" t="s">
         <v>879</v>
       </c>
-      <c r="B252" s="13" t="s">
+      <c r="B254" s="13" t="s">
+        <v>886</v>
+      </c>
+      <c r="C254" s="30" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="13" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="15" t="s">
-        <v>878</v>
-      </c>
-      <c r="B253" s="15" t="s">
+      <c r="B255" s="13" t="s">
+        <v>887</v>
+      </c>
+      <c r="C255" s="31" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="13" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="13" t="s">
+      <c r="B256" s="13" t="s">
+        <v>888</v>
+      </c>
+      <c r="C256" s="31" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="13" t="s">
         <v>882</v>
       </c>
-      <c r="B254" s="13" t="s">
+      <c r="B257" s="13" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="13" t="s">
+      <c r="C257" s="31" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="13" t="s">
         <v>883</v>
       </c>
-      <c r="B255" s="13" t="s">
+      <c r="B258" s="13" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="13" t="s">
+      <c r="C258" s="31" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="13" t="s">
         <v>884</v>
       </c>
-      <c r="B256" s="13" t="s">
+      <c r="B259" s="13" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="13" t="s">
+      <c r="C259" s="31" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A260" s="15" t="s">
         <v>885</v>
       </c>
-      <c r="B257" s="13" t="s">
+      <c r="B260" s="15" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="13" t="s">
-        <v>886</v>
-      </c>
-      <c r="B258" s="13" t="s">
+      <c r="C260" s="22" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="13" t="s">
         <v>893</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="13" t="s">
-        <v>887</v>
-      </c>
-      <c r="B259" s="13" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A260" s="15" t="s">
-        <v>888</v>
-      </c>
-      <c r="B260" s="15" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="13" t="s">
-        <v>896</v>
       </c>
       <c r="B261" s="13" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C261" s="27" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="13" t="s">
+        <v>894</v>
+      </c>
+      <c r="B262" s="13" t="s">
         <v>897</v>
       </c>
-      <c r="B262" s="13" t="s">
+      <c r="C262" s="28" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="13" t="s">
+        <v>895</v>
+      </c>
+      <c r="B263" s="13" t="s">
+        <v>898</v>
+      </c>
+      <c r="C263" s="28" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="15" t="s">
+        <v>896</v>
+      </c>
+      <c r="B264" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="C264" s="29" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="15" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="13" t="s">
+      <c r="B265" s="15" t="s">
+        <v>901</v>
+      </c>
+      <c r="C265" s="10" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="13" t="s">
+        <v>906</v>
+      </c>
+      <c r="B266" s="13" t="s">
+        <v>908</v>
+      </c>
+      <c r="C266" s="30" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="13" t="s">
+        <v>907</v>
+      </c>
+      <c r="B267" s="13" t="s">
+        <v>909</v>
+      </c>
+      <c r="C267" s="31" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="13" t="s">
+        <v>902</v>
+      </c>
+      <c r="B268" s="13" t="s">
+        <v>903</v>
+      </c>
+      <c r="C268" s="31" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="13" t="s">
+        <v>904</v>
+      </c>
+      <c r="B269" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="C269" s="31" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A270" s="15" t="s">
+        <v>910</v>
+      </c>
+      <c r="B270" s="15" t="s">
+        <v>911</v>
+      </c>
+      <c r="C270" s="22" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="13" t="s">
+        <v>912</v>
+      </c>
+      <c r="B271" s="13" t="s">
+        <v>913</v>
+      </c>
+      <c r="C271" s="27" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="13" t="s">
+        <v>914</v>
+      </c>
+      <c r="B272" s="13" t="s">
+        <v>915</v>
+      </c>
+      <c r="C272" s="28" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="13" t="s">
+        <v>916</v>
+      </c>
+      <c r="B273" s="13" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C273" s="28" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="15" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B274" s="15" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C274" s="29" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="13" t="s">
+        <v>917</v>
+      </c>
+      <c r="B275" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="C275" s="30" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="B276" s="13" t="s">
+        <v>920</v>
+      </c>
+      <c r="C276" s="31" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="13" t="s">
+        <v>921</v>
+      </c>
+      <c r="B277" s="13" t="s">
+        <v>868</v>
+      </c>
+      <c r="C277" s="31" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A278" s="15" t="s">
+        <v>922</v>
+      </c>
+      <c r="B278" s="15" t="s">
+        <v>923</v>
+      </c>
+      <c r="C278" s="22" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="13" t="s">
+        <v>924</v>
+      </c>
+      <c r="B279" s="13" t="s">
+        <v>925</v>
+      </c>
+      <c r="C279" s="30" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="13" t="s">
+        <v>926</v>
+      </c>
+      <c r="B280" s="13" t="s">
+        <v>927</v>
+      </c>
+      <c r="C280" s="31" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="13" t="s">
+        <v>928</v>
+      </c>
+      <c r="B281" s="13" t="s">
+        <v>929</v>
+      </c>
+      <c r="C281" s="31" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="13" t="s">
+        <v>930</v>
+      </c>
+      <c r="B282" s="13" t="s">
+        <v>931</v>
+      </c>
+      <c r="C282" s="31" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="13" t="s">
+        <v>932</v>
+      </c>
+      <c r="B283" s="13" t="s">
+        <v>933</v>
+      </c>
+      <c r="C283" s="31" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A284" s="15" t="s">
+        <v>934</v>
+      </c>
+      <c r="B284" s="15" t="s">
+        <v>935</v>
+      </c>
+      <c r="C284" s="22" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="15" t="s">
+        <v>936</v>
+      </c>
+      <c r="B285" s="15" t="s">
+        <v>937</v>
+      </c>
+      <c r="C285" s="10" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="13" t="s">
+        <v>939</v>
+      </c>
+      <c r="B286" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="C286" s="30" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="13" t="s">
+        <v>940</v>
+      </c>
+      <c r="B287" s="13" t="s">
+        <v>941</v>
+      </c>
+      <c r="C287" s="31" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="13" t="s">
+        <v>942</v>
+      </c>
+      <c r="B288" s="13" t="s">
+        <v>943</v>
+      </c>
+      <c r="C288" s="31" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="13" t="s">
+        <v>944</v>
+      </c>
+      <c r="B289" s="13" t="s">
+        <v>945</v>
+      </c>
+      <c r="C289" s="31" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A290" s="15" t="s">
+        <v>946</v>
+      </c>
+      <c r="B290" s="15" t="s">
+        <v>947</v>
+      </c>
+      <c r="C290" s="22" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="13" t="s">
+        <v>948</v>
+      </c>
+      <c r="B291" s="13" t="s">
+        <v>949</v>
+      </c>
+      <c r="C291" s="27" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="13" t="s">
+        <v>950</v>
+      </c>
+      <c r="B292" s="13" t="s">
         <v>898</v>
       </c>
-      <c r="B263" s="13" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="15" t="s">
-        <v>899</v>
-      </c>
-      <c r="B264" s="15" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="15" t="s">
-        <v>903</v>
-      </c>
-      <c r="B265" s="15" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="13" t="s">
-        <v>909</v>
-      </c>
-      <c r="B266" s="13" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="13" t="s">
-        <v>910</v>
-      </c>
-      <c r="B267" s="13" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="13" t="s">
-        <v>905</v>
-      </c>
-      <c r="B268" s="13" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="13" t="s">
-        <v>907</v>
-      </c>
-      <c r="B269" s="13" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A270" s="15" t="s">
-        <v>913</v>
-      </c>
-      <c r="B270" s="15" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="13" t="s">
-        <v>915</v>
-      </c>
-      <c r="B271" s="13" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="13" t="s">
-        <v>917</v>
-      </c>
-      <c r="B272" s="13" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="13" t="s">
-        <v>919</v>
-      </c>
-      <c r="B273" s="13" t="s">
+      <c r="C292" s="28" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="15" t="s">
+        <v>951</v>
+      </c>
+      <c r="B293" s="15" t="s">
+        <v>952</v>
+      </c>
+      <c r="C293" s="29" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B294" s="15" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C294" s="10" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="13" t="s">
+        <v>953</v>
+      </c>
+      <c r="B295" s="13" t="s">
+        <v>954</v>
+      </c>
+      <c r="C295" s="30" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="13" t="s">
+        <v>955</v>
+      </c>
+      <c r="B296" s="13" t="s">
+        <v>956</v>
+      </c>
+      <c r="C296" s="31" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="13" t="s">
+        <v>957</v>
+      </c>
+      <c r="B297" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="C297" s="31" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="13" t="s">
+        <v>958</v>
+      </c>
+      <c r="B298" s="13" t="s">
+        <v>962</v>
+      </c>
+      <c r="C298" s="31" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="13" t="s">
+        <v>959</v>
+      </c>
+      <c r="B299" s="13" t="s">
+        <v>963</v>
+      </c>
+      <c r="C299" s="31" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="13" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="15" t="s">
-        <v>920</v>
-      </c>
-      <c r="B274" s="15" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="13" t="s">
-        <v>923</v>
-      </c>
-      <c r="B275" s="13" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="13" t="s">
-        <v>925</v>
-      </c>
-      <c r="B276" s="13" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="13" t="s">
-        <v>927</v>
-      </c>
-      <c r="B277" s="13" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A278" s="15" t="s">
-        <v>928</v>
-      </c>
-      <c r="B278" s="15" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="13" t="s">
-        <v>930</v>
-      </c>
-      <c r="B279" s="13" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="13" t="s">
-        <v>932</v>
-      </c>
-      <c r="B280" s="13" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="13" t="s">
-        <v>934</v>
-      </c>
-      <c r="B281" s="13" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="13" t="s">
-        <v>936</v>
-      </c>
-      <c r="B282" s="13" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="13" t="s">
-        <v>938</v>
-      </c>
-      <c r="B283" s="13" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A284" s="15" t="s">
-        <v>940</v>
-      </c>
-      <c r="B284" s="15" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="15" t="s">
-        <v>942</v>
-      </c>
-      <c r="B285" s="15" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="13" t="s">
-        <v>945</v>
-      </c>
-      <c r="B286" s="13" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="13" t="s">
-        <v>946</v>
-      </c>
-      <c r="B287" s="13" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="13" t="s">
-        <v>948</v>
-      </c>
-      <c r="B288" s="13" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="13" t="s">
-        <v>950</v>
-      </c>
-      <c r="B289" s="13" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A290" s="15" t="s">
-        <v>952</v>
-      </c>
-      <c r="B290" s="15" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="13" t="s">
-        <v>954</v>
-      </c>
-      <c r="B291" s="13" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="13" t="s">
-        <v>956</v>
-      </c>
-      <c r="B292" s="13" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="15" t="s">
-        <v>957</v>
-      </c>
-      <c r="B293" s="15" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="15" t="s">
-        <v>959</v>
-      </c>
-      <c r="B294" s="15" t="s">
+      <c r="B300" s="13" t="s">
+        <v>868</v>
+      </c>
+      <c r="C300" s="31" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A301" s="15" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="13" t="s">
-        <v>961</v>
-      </c>
-      <c r="B295" s="13" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="13" t="s">
-        <v>963</v>
-      </c>
-      <c r="B296" s="13" t="s">
+      <c r="B301" s="15" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="13" t="s">
+      <c r="C301" s="22" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="13" t="s">
         <v>965</v>
       </c>
-      <c r="B297" s="13" t="s">
+      <c r="B302" s="13" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C302" s="30" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="13" t="s">
+        <v>966</v>
+      </c>
+      <c r="B303" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="C303" s="31" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A304" s="15" t="s">
+        <v>968</v>
+      </c>
+      <c r="B304" s="15" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="13" t="s">
-        <v>966</v>
-      </c>
-      <c r="B298" s="13" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="13" t="s">
-        <v>967</v>
-      </c>
-      <c r="B299" s="13" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="13" t="s">
-        <v>927</v>
-      </c>
-      <c r="B300" s="13" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A301" s="15" t="s">
-        <v>968</v>
-      </c>
-      <c r="B301" s="15" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="13" t="s">
-        <v>973</v>
-      </c>
-      <c r="B302" s="13" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="13" t="s">
-        <v>975</v>
-      </c>
-      <c r="B303" s="13" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A304" s="15" t="s">
-        <v>977</v>
-      </c>
-      <c r="B304" s="15" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C304" s="22" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="13"/>
       <c r="B305" s="13"/>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C305" s="26"/>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="13"/>
       <c r="B306" s="13"/>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C306" s="26"/>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="13"/>
       <c r="B307" s="13"/>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C307" s="26"/>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="13"/>
       <c r="B308" s="13"/>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C308" s="26"/>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="13"/>
       <c r="B309" s="13"/>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C309" s="26"/>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="13"/>
       <c r="B310" s="13"/>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C310" s="26"/>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="13"/>
       <c r="B311" s="13"/>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C311" s="26"/>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="13"/>
       <c r="B312" s="13"/>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C312" s="26"/>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="13"/>
       <c r="B313" s="13"/>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C313" s="26"/>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="13"/>
       <c r="B314" s="13"/>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C314" s="26"/>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="13"/>
       <c r="B315" s="13"/>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C315" s="26"/>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="13"/>
       <c r="B316" s="13"/>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C316" s="26"/>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="13"/>
       <c r="B317" s="13"/>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C317" s="26"/>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="13"/>
       <c r="B318" s="13"/>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C318" s="26"/>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="13"/>
       <c r="B319" s="13"/>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C319" s="26"/>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="13"/>
       <c r="B320" s="13"/>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C320" s="26"/>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="13"/>
       <c r="B321" s="13"/>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C321" s="26"/>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="13"/>
       <c r="B322" s="13"/>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C322" s="26"/>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="13"/>
       <c r="B323" s="13"/>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C323" s="26"/>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="13"/>
       <c r="B324" s="13"/>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C324" s="26"/>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="13"/>
       <c r="B325" s="13"/>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C325" s="26"/>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="13"/>
       <c r="B326" s="13"/>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C326" s="26"/>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="13"/>
       <c r="B327" s="13"/>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C327" s="26"/>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="13"/>
       <c r="B328" s="13"/>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C328" s="26"/>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="13"/>
       <c r="B329" s="13"/>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C329" s="26"/>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="13"/>
       <c r="B330" s="13"/>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C330" s="26"/>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="13"/>
       <c r="B331" s="13"/>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C331" s="26"/>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="13"/>
       <c r="B332" s="13"/>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C332" s="26"/>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="13"/>
       <c r="B333" s="13"/>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C333" s="26"/>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="13"/>
       <c r="B334" s="13"/>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C334" s="26"/>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="13"/>
       <c r="B335" s="13"/>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C335" s="26"/>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="13"/>
       <c r="B336" s="13"/>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C336" s="26"/>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="13"/>
       <c r="B337" s="13"/>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C337" s="26"/>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="13"/>
       <c r="B338" s="13"/>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C338" s="26"/>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="13"/>
       <c r="B339" s="13"/>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C339" s="26"/>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="13"/>
       <c r="B340" s="13"/>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C340" s="26"/>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="13"/>
       <c r="B341" s="13"/>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C341" s="26"/>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="13"/>
       <c r="B342" s="13"/>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C342" s="26"/>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="13"/>
       <c r="B343" s="13"/>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C343" s="26"/>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="13"/>
       <c r="B344" s="13"/>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C344" s="26"/>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="13"/>
       <c r="B345" s="13"/>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C345" s="26"/>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="13"/>
       <c r="B346" s="13"/>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C346" s="26"/>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="13"/>
       <c r="B347" s="13"/>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C347" s="26"/>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="13"/>
       <c r="B348" s="13"/>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C348" s="26"/>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="13"/>
       <c r="B349" s="13"/>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C349" s="26"/>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="13"/>
       <c r="B350" s="13"/>
+      <c r="C350" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16955,7 +17440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408249BA-B587-4090-9C66-27B099C0148E}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -16968,235 +17453,235 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="C3" s="25"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="C4" s="25"/>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="C7" s="25"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="C10" s="25"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="C11" s="25"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="C12" s="25"/>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="C13" s="25"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="C14" s="25"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="C15" s="25"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="C18" s="25"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="C19" s="25"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="C20" s="25"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="C21" s="25"/>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="C22" s="25"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="C23" s="25"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="C24" s="25"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
       <c r="C25" s="25"/>
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="C26" s="25"/>
     </row>

--- a/english.xlsx
+++ b/english.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\popoves\Desktop\experience\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77A4024-6787-4FB1-8359-4803BAE6D664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EB2D30-79A9-473D-9B81-C70030E7DAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="words" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="1074">
   <si>
     <t>word</t>
   </si>
@@ -2955,9 +2955,6 @@
     <t>we will walk you through</t>
   </si>
   <si>
-    <t>мы проведем вас через</t>
-  </si>
-  <si>
     <t>the creation of basic poll application</t>
   </si>
   <si>
@@ -2967,15 +2964,6 @@
     <t>throughtout this tutorial, we will walk you through the creation of basic poll application</t>
   </si>
   <si>
-    <t>на протяжении всего этого руководства, мы проведем вас через срздание базового опросного приложения</t>
-  </si>
-  <si>
-    <t>it will consist if two parts</t>
-  </si>
-  <si>
-    <t>оно состоит из двух частей</t>
-  </si>
-  <si>
     <t>a public site</t>
   </si>
   <si>
@@ -3021,15 +3009,9 @@
     <t>we will assume</t>
   </si>
   <si>
-    <t>мы предполагаем</t>
-  </si>
-  <si>
     <t>we will assume you have django</t>
   </si>
   <si>
-    <t>мы предполагаем, что у вас есть django</t>
-  </si>
-  <si>
     <t>you have django installed already</t>
   </si>
   <si>
@@ -3096,48 +3078,15 @@
     <t>если django установлен, вы увидите версию вашей установки</t>
   </si>
   <si>
-    <t>the routine of local fisherman</t>
-  </si>
-  <si>
-    <t>he could not help but notice the rountine of local fisherman</t>
-  </si>
-  <si>
-    <t>an ameriacan businessman</t>
-  </si>
-  <si>
-    <t>an ameriacan businessman was on vacation in Mexico</t>
-  </si>
-  <si>
-    <t>he would fish a couple hours</t>
-  </si>
-  <si>
-    <t>he would fish a couple hours and then return home with some fish</t>
-  </si>
-  <si>
-    <t>also he would give some fish to his neighbour</t>
-  </si>
-  <si>
-    <t>the businessman noticed that in the afternoon fisherman didn’t work</t>
-  </si>
-  <si>
     <t>and enjoyed the company of his friends and neibours</t>
   </si>
   <si>
-    <t>instead, he spent time with his family, played the guitar, and enjoyed the company of his friends and neighbours</t>
-  </si>
-  <si>
     <t>the businessman approached to fisherman</t>
   </si>
   <si>
-    <t>one day, the businessman approached to fisherman and said</t>
-  </si>
-  <si>
     <t>I notcied</t>
   </si>
   <si>
-    <t>why don’t you stay out longer and catch more fish?</t>
-  </si>
-  <si>
     <t>why don’t you stays out longer and catch more fish?</t>
   </si>
   <si>
@@ -3153,33 +3102,12 @@
     <t>почему бы тебе не оставаться подольше?</t>
   </si>
   <si>
-    <t>I catch enough to support my family and little more to share with friends</t>
-  </si>
-  <si>
-    <t>I had great success building many businnes back home</t>
-  </si>
-  <si>
-    <t>first, you have to spend more time fishing, so you can catch more fish, started businessman</t>
-  </si>
-  <si>
-    <t>ok, that would be easy to do</t>
-  </si>
-  <si>
-    <t>you can then to sell extra fish and buy a bigger boat - continued businessman</t>
-  </si>
-  <si>
     <t>спросил рыбак очень вежливо</t>
   </si>
   <si>
     <t>what for? asked the fisherman very politely</t>
   </si>
   <si>
-    <t>зачем? спросил рыбак очень вежливо</t>
-  </si>
-  <si>
-    <t>with a bigger boat, you will catch even more fish</t>
-  </si>
-  <si>
     <t>soon you will be able another boat, hire people, and build a big business</t>
   </si>
   <si>
@@ -3205,6 +3133,123 @@
   </si>
   <si>
     <t>the fisherman smiled and said - is not that what I am doing right now</t>
+  </si>
+  <si>
+    <t>an american businessman</t>
+  </si>
+  <si>
+    <t>an american businessman was on vacation in Mexico</t>
+  </si>
+  <si>
+    <t>he was on beach</t>
+  </si>
+  <si>
+    <t>every day he was on beach</t>
+  </si>
+  <si>
+    <t>he could not hepl but notice</t>
+  </si>
+  <si>
+    <t>the rountine of a local fisherman</t>
+  </si>
+  <si>
+    <t>every moning</t>
+  </si>
+  <si>
+    <t>he would fish for couple of hours</t>
+  </si>
+  <si>
+    <t>instead, he spent time with his family, played the guitar and enjoyed company of his friends and neighbours</t>
+  </si>
+  <si>
+    <t>first, you have to spend more time fishing, so you can catch more fish - started businessman</t>
+  </si>
+  <si>
+    <t>для чего? спросил рыбак очень вежливо</t>
+  </si>
+  <si>
+    <t>what for? Asked the fisherman very politely</t>
+  </si>
+  <si>
+    <t>ok, that would easy to do - said fisherman</t>
+  </si>
+  <si>
+    <t>then you can sell the extra fish and buy a bigger boat - continued businessman</t>
+  </si>
+  <si>
+    <t>he would fishing for a couple of hours and then return home with some fish</t>
+  </si>
+  <si>
+    <t>also he would give some fish his neighbours</t>
+  </si>
+  <si>
+    <t>why don’t you stay out longer and to catch more fish</t>
+  </si>
+  <si>
+    <t>I catch enough to support my family, and little more to share with my friends</t>
+  </si>
+  <si>
+    <t>the businessman shook his had</t>
+  </si>
+  <si>
+    <t>I can teach you how become rich</t>
+  </si>
+  <si>
+    <t>let's learn by examle</t>
+  </si>
+  <si>
+    <t>throughout this tutorial</t>
+  </si>
+  <si>
+    <t>we will you walk through</t>
+  </si>
+  <si>
+    <t>creation of basic poll application</t>
+  </si>
+  <si>
+    <t>throughout this tutorial, we will walk you through creation of basic poll application</t>
+  </si>
+  <si>
+    <t>оно будет состоять из двух частей</t>
+  </si>
+  <si>
+    <t>it will consist of two parts</t>
+  </si>
+  <si>
+    <t>it will cosist of two parts</t>
+  </si>
+  <si>
+    <t>an admin site</t>
+  </si>
+  <si>
+    <t>that lets you add, change and delete polls</t>
+  </si>
+  <si>
+    <t>мы будем предполагать</t>
+  </si>
+  <si>
+    <t>мы будем вести вас через</t>
+  </si>
+  <si>
+    <t>на протяжении всего этого руководства, мы будем вести вас через создание базового опросного приложения</t>
+  </si>
+  <si>
+    <t>мы будем предполагать, что у вас есть django</t>
+  </si>
+  <si>
+    <t>we will assume that you have Django installed already</t>
+  </si>
+  <si>
+    <t>we will assume that you have Django</t>
+  </si>
+  <si>
+    <t>you have Django installed already</t>
+  </si>
+  <si>
+    <t>you can tell djang is installed</t>
+  </si>
+  <si>
+    <t>if dajngo is installed</t>
   </si>
 </sst>
 </file>
@@ -3287,7 +3332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3360,11 +3405,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3437,6 +3513,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13886,8 +13971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C311" sqref="C311"/>
+    <sheetView topLeftCell="A286" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C252" sqref="C252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15955,7 +16040,7 @@
         <v>758</v>
       </c>
       <c r="C191" s="30" t="s">
-        <v>1024</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -15977,7 +16062,7 @@
         <v>762</v>
       </c>
       <c r="C193" s="22" t="s">
-        <v>1025</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -15999,7 +16084,7 @@
         <v>766</v>
       </c>
       <c r="C195" s="31" t="s">
-        <v>765</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -16010,7 +16095,7 @@
         <v>768</v>
       </c>
       <c r="C196" s="22" t="s">
-        <v>767</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -16021,7 +16106,7 @@
         <v>769</v>
       </c>
       <c r="C197" s="30" t="s">
-        <v>770</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -16032,7 +16117,7 @@
         <v>771</v>
       </c>
       <c r="C198" s="31" t="s">
-        <v>1022</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -16043,7 +16128,7 @@
         <v>772</v>
       </c>
       <c r="C199" s="22" t="s">
-        <v>1023</v>
+        <v>774</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -16054,7 +16139,7 @@
         <v>776</v>
       </c>
       <c r="C200" s="30" t="s">
-        <v>775</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -16120,7 +16205,7 @@
         <v>788</v>
       </c>
       <c r="C206" s="31" t="s">
-        <v>1026</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -16153,7 +16238,7 @@
         <v>794</v>
       </c>
       <c r="C209" s="22" t="s">
-        <v>1027</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -16230,7 +16315,7 @@
         <v>808</v>
       </c>
       <c r="C216" s="22" t="s">
-        <v>1028</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -16274,7 +16359,7 @@
         <v>816</v>
       </c>
       <c r="C220" s="22" t="s">
-        <v>1029</v>
+        <v>815</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -16329,7 +16414,7 @@
         <v>826</v>
       </c>
       <c r="C225" s="31" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -16340,7 +16425,7 @@
         <v>828</v>
       </c>
       <c r="C226" s="22" t="s">
-        <v>1031</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -16362,7 +16447,7 @@
         <v>832</v>
       </c>
       <c r="C228" s="28" t="s">
-        <v>1032</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -16384,7 +16469,7 @@
         <v>835</v>
       </c>
       <c r="C230" s="29" t="s">
-        <v>1033</v>
+        <v>834</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -16406,7 +16491,7 @@
         <v>839</v>
       </c>
       <c r="C232" s="31" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -16433,10 +16518,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="13" t="s">
-        <v>1038</v>
+        <v>1021</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>1039</v>
+        <v>1022</v>
       </c>
       <c r="C235" s="30" t="s">
         <v>844</v>
@@ -16444,10 +16529,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="13" t="s">
-        <v>1037</v>
+        <v>1020</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>1040</v>
+        <v>1023</v>
       </c>
       <c r="C236" s="31" t="s">
         <v>845</v>
@@ -16466,13 +16551,13 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="15" t="s">
-        <v>1036</v>
+        <v>1019</v>
       </c>
       <c r="B238" s="15" t="s">
         <v>848</v>
       </c>
       <c r="C238" s="22" t="s">
-        <v>1035</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -16538,7 +16623,7 @@
         <v>860</v>
       </c>
       <c r="C244" s="22" t="s">
-        <v>1041</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -16549,7 +16634,7 @@
         <v>862</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>861</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -16593,7 +16678,7 @@
         <v>870</v>
       </c>
       <c r="C249" s="22" t="s">
-        <v>1042</v>
+        <v>869</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -16615,7 +16700,7 @@
         <v>874</v>
       </c>
       <c r="C251" s="29" t="s">
-        <v>873</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -16714,7 +16799,7 @@
         <v>892</v>
       </c>
       <c r="C260" s="22" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -16758,7 +16843,7 @@
         <v>899</v>
       </c>
       <c r="C264" s="29" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -16824,7 +16909,7 @@
         <v>911</v>
       </c>
       <c r="C270" s="22" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -16854,7 +16939,7 @@
         <v>916</v>
       </c>
       <c r="B273" s="13" t="s">
-        <v>1046</v>
+        <v>1024</v>
       </c>
       <c r="C273" s="28" t="s">
         <v>916</v>
@@ -16862,13 +16947,13 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="15" t="s">
-        <v>1047</v>
+        <v>1025</v>
       </c>
       <c r="B274" s="15" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="C274" s="29" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -16912,7 +16997,7 @@
         <v>923</v>
       </c>
       <c r="C278" s="22" t="s">
-        <v>1049</v>
+        <v>922</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -16978,7 +17063,7 @@
         <v>935</v>
       </c>
       <c r="C284" s="22" t="s">
-        <v>1050</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -16989,7 +17074,7 @@
         <v>937</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>1051</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -17044,7 +17129,7 @@
         <v>947</v>
       </c>
       <c r="C290" s="22" t="s">
-        <v>1052</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -17082,13 +17167,13 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="15" t="s">
-        <v>1053</v>
+        <v>1029</v>
       </c>
       <c r="B294" s="15" t="s">
-        <v>1054</v>
+        <v>1030</v>
       </c>
       <c r="C294" s="10" t="s">
-        <v>1053</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -17154,7 +17239,7 @@
         <v>868</v>
       </c>
       <c r="C300" s="31" t="s">
-        <v>1055</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -17165,7 +17250,7 @@
         <v>964</v>
       </c>
       <c r="C301" s="22" t="s">
-        <v>1056</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -17173,7 +17258,7 @@
         <v>965</v>
       </c>
       <c r="B302" s="13" t="s">
-        <v>1057</v>
+        <v>1033</v>
       </c>
       <c r="C302" s="30" t="s">
         <v>965</v>
@@ -17198,7 +17283,7 @@
         <v>969</v>
       </c>
       <c r="C304" s="22" t="s">
-        <v>1058</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -17440,8 +17525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408249BA-B587-4090-9C66-27B099C0148E}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17458,7 +17543,9 @@
       <c r="B1" s="15" t="s">
         <v>971</v>
       </c>
-      <c r="C1" s="25"/>
+      <c r="C1" s="32" t="s">
+        <v>1055</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -17467,223 +17554,273 @@
       <c r="B2" s="13" t="s">
         <v>973</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="30" t="s">
+        <v>1056</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>974</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>975</v>
-      </c>
-      <c r="C3" s="25"/>
+        <v>1066</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>1057</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
+        <v>975</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>976</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>977</v>
-      </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="31" t="s">
+        <v>1058</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>979</v>
-      </c>
-      <c r="C5" s="25"/>
+        <v>1067</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>1059</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>980</v>
+        <v>1061</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>981</v>
-      </c>
-      <c r="C6" s="25"/>
+        <v>1060</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>1062</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>983</v>
-      </c>
-      <c r="C7" s="25"/>
+        <v>979</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>978</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>985</v>
-      </c>
-      <c r="C8" s="25"/>
+        <v>981</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>980</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>987</v>
-      </c>
-      <c r="C9" s="25"/>
+        <v>983</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>982</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>988</v>
-      </c>
-      <c r="C10" s="25"/>
+        <v>984</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>985</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>991</v>
-      </c>
-      <c r="C11" s="25"/>
+        <v>987</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>1063</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>993</v>
-      </c>
-      <c r="C12" s="25"/>
+        <v>989</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>1064</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>995</v>
-      </c>
-      <c r="C13" s="25"/>
+        <v>991</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>990</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>997</v>
-      </c>
-      <c r="C14" s="25"/>
+        <v>1065</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>992</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>999</v>
-      </c>
-      <c r="C15" s="25"/>
+        <v>1068</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>1070</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C16" s="25"/>
+        <v>995</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>1071</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C17" s="25"/>
+        <v>997</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>1069</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C18" s="25"/>
+        <v>999</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>998</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C19" s="25"/>
+        <v>1001</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>1072</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C20" s="25"/>
+        <v>1003</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>1002</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C21" s="25"/>
+        <v>1005</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>1004</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C22" s="25"/>
+        <v>1007</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>1006</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C23" s="25"/>
+        <v>1008</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C24" s="25"/>
+        <v>1011</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C25" s="25"/>
+        <v>1013</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>1012</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C26" s="25"/>
+        <v>1015</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>1014</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>

--- a/english.xlsx
+++ b/english.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\popoves\Desktop\experience\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DDD8F8-B6C9-41A2-B070-A500B2A55FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855D4AE6-55DA-4296-9947-307CB5A4B403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="1054">
   <si>
     <t>word</t>
   </si>
@@ -2806,9 +2806,6 @@
     <t>да, просто пройдите прямо по этому коридору и поверните на лево</t>
   </si>
   <si>
-    <t>you'll see sings</t>
-  </si>
-  <si>
     <t>вы увидите указатели</t>
   </si>
   <si>
@@ -2869,12 +2866,6 @@
     <t>hello ma'am</t>
   </si>
   <si>
-    <t>of course, may I see your passport please?</t>
-  </si>
-  <si>
-    <t>alright, your bag will be transferred automatically in Amsterdam</t>
-  </si>
-  <si>
     <t>where security is?</t>
   </si>
   <si>
@@ -2926,42 +2917,12 @@
     <t>ваша сумка будет</t>
   </si>
   <si>
-    <t>hi, i need to check in for my flight to new york</t>
-  </si>
-  <si>
-    <t>thank you, are you checking in any luggage today?</t>
-  </si>
-  <si>
     <t>great, could you please place it on the scale?</t>
   </si>
   <si>
     <t>sure, here you go</t>
   </si>
   <si>
-    <t>your bags is within weight limit</t>
-  </si>
-  <si>
-    <t>thank you, your bag is withing weight limit</t>
-  </si>
-  <si>
-    <t>your bag will be trasferred automatically in Amsterdam</t>
-  </si>
-  <si>
-    <t>that is not problem</t>
-  </si>
-  <si>
-    <t>or any special reuests for your flight?</t>
-  </si>
-  <si>
-    <t>do you have any items that need to declare or any special requests for your flight?</t>
-  </si>
-  <si>
-    <t>yes, just head straight down this hall and turn left</t>
-  </si>
-  <si>
-    <t>you'll see sings for the security checkpoint</t>
-  </si>
-  <si>
     <t>do you have any items that need to be declaerd?</t>
   </si>
   <si>
@@ -2971,16 +2932,298 @@
     <t>thanks a lot for you help</t>
   </si>
   <si>
-    <t>thaks a lot for your help</t>
-  </si>
-  <si>
     <t>have a safe trip</t>
   </si>
   <si>
-    <t>счастливого пути</t>
-  </si>
-  <si>
     <t>repeat</t>
+  </si>
+  <si>
+    <t>hi, I need to check in for my flight to new york</t>
+  </si>
+  <si>
+    <t>of course, may I see your passport?</t>
+  </si>
+  <si>
+    <t>thank you, are you check in any luggage today?</t>
+  </si>
+  <si>
+    <t>thank you, your bag is within weight limit</t>
+  </si>
+  <si>
+    <t>alright, your bag will be transferred automatically in Amstedam</t>
+  </si>
+  <si>
+    <t>that is not a problem</t>
+  </si>
+  <si>
+    <t>do you have any items that need to be declared, or any special requests for you flight?</t>
+  </si>
+  <si>
+    <t>okey, here are you boarding passes</t>
+  </si>
+  <si>
+    <t>just head straight down the hall</t>
+  </si>
+  <si>
+    <t>yes, just head straight down the hall and turn left</t>
+  </si>
+  <si>
+    <t>you'll see signs</t>
+  </si>
+  <si>
+    <t>you'll see signs for the security checkpoint</t>
+  </si>
+  <si>
+    <t>thanks a lot for your help</t>
+  </si>
+  <si>
+    <t>безопастного пути</t>
+  </si>
+  <si>
+    <t>weekends with my grandkids</t>
+  </si>
+  <si>
+    <t>выходные с моими внуками</t>
+  </si>
+  <si>
+    <t>my name is Rick</t>
+  </si>
+  <si>
+    <t>меня зовут Рик</t>
+  </si>
+  <si>
+    <t>I live with my wife, Susan</t>
+  </si>
+  <si>
+    <t>я живу со своей женой, Сюзан</t>
+  </si>
+  <si>
+    <t>we live in a small house</t>
+  </si>
+  <si>
+    <t>but we have a big garden</t>
+  </si>
+  <si>
+    <t>we live in a small house, but we have a big garden</t>
+  </si>
+  <si>
+    <t>мы живем в маленьком доме</t>
+  </si>
+  <si>
+    <t>но у нас есть большой сад</t>
+  </si>
+  <si>
+    <t>мы живем в маленьком доме, но у нас есть большой сад</t>
+  </si>
+  <si>
+    <t>we are both retired</t>
+  </si>
+  <si>
+    <t>so we have a lot of free time</t>
+  </si>
+  <si>
+    <t>we are both retired so we have a lot of free time</t>
+  </si>
+  <si>
+    <t>мы оба на пенсии</t>
+  </si>
+  <si>
+    <t>поэтому у нас много свободного времени</t>
+  </si>
+  <si>
+    <t>мы оба на пенсии, поэтому у нас много свободного времени</t>
+  </si>
+  <si>
+    <t>we love spending time in out garden</t>
+  </si>
+  <si>
+    <t>мы любим проводить время в нашем саду</t>
+  </si>
+  <si>
+    <t>my wife takes care of the flowers</t>
+  </si>
+  <si>
+    <t>моя жена ухаживает за растениями</t>
+  </si>
+  <si>
+    <t>I take care of the fruits and vegetables</t>
+  </si>
+  <si>
+    <t>я забочусь о фруктах и овощях</t>
+  </si>
+  <si>
+    <t>our grandchildren, Mia and Jake</t>
+  </si>
+  <si>
+    <t>come to visit us every weekend</t>
+  </si>
+  <si>
+    <t>our grandchildren, Mia and Jake, come to visit us every weekend</t>
+  </si>
+  <si>
+    <t>наши внуки, Мия и Джейк</t>
+  </si>
+  <si>
+    <t>приезжают к нам каждые выходные</t>
+  </si>
+  <si>
+    <t>наши внуки, Мия и Джейк, приезжают к нам каждые выходные</t>
+  </si>
+  <si>
+    <t>we are always so happy to see them</t>
+  </si>
+  <si>
+    <t>мы всегда так рады их видеть</t>
+  </si>
+  <si>
+    <t>they love to spend time in the garden</t>
+  </si>
+  <si>
+    <t>они любят проводить время в саду</t>
+  </si>
+  <si>
+    <t>they love to see the plants grow every week</t>
+  </si>
+  <si>
+    <t>им нравиться наблюдать за тем, как растения растут каждые выходные</t>
+  </si>
+  <si>
+    <t>I teach them how to plant and grow vegetables</t>
+  </si>
+  <si>
+    <t>я учу их, как сажать и выращивать овощи</t>
+  </si>
+  <si>
+    <t>they water the plants and pick raspberries and tomatoes</t>
+  </si>
+  <si>
+    <t>они поливают растения и собирают малину и помидоры</t>
+  </si>
+  <si>
+    <t>they taste so good</t>
+  </si>
+  <si>
+    <t>они такие вкусные</t>
+  </si>
+  <si>
+    <t>in the evenings after dinner</t>
+  </si>
+  <si>
+    <t>we sit in the living room and talk</t>
+  </si>
+  <si>
+    <t>in the evening after dinner, we sit in living room and talk</t>
+  </si>
+  <si>
+    <t>по вечерам после ужина</t>
+  </si>
+  <si>
+    <t>мы сидим в гостинной и разговариваем</t>
+  </si>
+  <si>
+    <t>по вечерам после ужина мы сидим в гостинной и разговариваем</t>
+  </si>
+  <si>
+    <t>Mia and Jake ask me about my life</t>
+  </si>
+  <si>
+    <t>Миа и Джейк спрашивают меня о моей жизни</t>
+  </si>
+  <si>
+    <t>I talk about when I was their age</t>
+  </si>
+  <si>
+    <t>я рассказываю о том, когда я был в их возрасте</t>
+  </si>
+  <si>
+    <t>I tell them how I got into trouble</t>
+  </si>
+  <si>
+    <t>я рассказываю им, как я попадал в неприятности</t>
+  </si>
+  <si>
+    <t>Mia and Jake listen and laugh</t>
+  </si>
+  <si>
+    <t>Мия и Джейк слушают и смеются</t>
+  </si>
+  <si>
+    <t>Susan bakes cookies for dessert</t>
+  </si>
+  <si>
+    <t>Сюзан печет печенье на десерт</t>
+  </si>
+  <si>
+    <t>Mia and Jake eat the cookies with milk</t>
+  </si>
+  <si>
+    <t>Мия и Джейк едят печенье с молоком</t>
+  </si>
+  <si>
+    <t>they love grandma's baking</t>
+  </si>
+  <si>
+    <t>we are a little sad</t>
+  </si>
+  <si>
+    <t>нам немного грустно</t>
+  </si>
+  <si>
+    <t>они любят бабушкину выпечку</t>
+  </si>
+  <si>
+    <t>when it is time for the kids to go home</t>
+  </si>
+  <si>
+    <t>когда детям пора идти домой</t>
+  </si>
+  <si>
+    <t>we are a little sad, when it is time for the kids to go home</t>
+  </si>
+  <si>
+    <t>нам немного грустно, когда детям пора идти домой</t>
+  </si>
+  <si>
+    <t>Mia and Jake are sad too</t>
+  </si>
+  <si>
+    <t>Мия и Джейк тоже грустят</t>
+  </si>
+  <si>
+    <t>but weare happy to know</t>
+  </si>
+  <si>
+    <t>но вы рады знать</t>
+  </si>
+  <si>
+    <t>they will come again next week</t>
+  </si>
+  <si>
+    <t>они придут снова на следующей неделе</t>
+  </si>
+  <si>
+    <t>but we are happy to know they will come again next week</t>
+  </si>
+  <si>
+    <t>но мы рады знать, что они придут снова на следующей неделе</t>
+  </si>
+  <si>
+    <t>we always look forward</t>
+  </si>
+  <si>
+    <t>to their next visit</t>
+  </si>
+  <si>
+    <t>we always look forward to their next visit</t>
+  </si>
+  <si>
+    <t>мы всегда с нетерпением ждем</t>
+  </si>
+  <si>
+    <t>их следующего визита</t>
+  </si>
+  <si>
+    <t>мы всегда с нетерпением ждем их следующего визита</t>
   </si>
 </sst>
 </file>
@@ -13713,10 +13956,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D267"/>
+  <dimension ref="A1:D368"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B299" sqref="B299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13737,7 +13980,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>972</v>
+        <v>957</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -16103,7 +16346,7 @@
         <v>900</v>
       </c>
       <c r="C217" s="29" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -16125,7 +16368,7 @@
         <v>866</v>
       </c>
       <c r="C219" s="29" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -16136,7 +16379,7 @@
         <v>867</v>
       </c>
       <c r="C220" s="29" t="s">
-        <v>935</v>
+        <v>959</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -16158,7 +16401,7 @@
         <v>902</v>
       </c>
       <c r="C222" s="29" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -16180,7 +16423,7 @@
         <v>875</v>
       </c>
       <c r="C224" s="29" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -16191,7 +16434,7 @@
         <v>877</v>
       </c>
       <c r="C225" s="29" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -16207,24 +16450,24 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C227" s="29" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C228" s="29" t="s">
-        <v>958</v>
+        <v>943</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -16235,40 +16478,40 @@
         <v>879</v>
       </c>
       <c r="C229" s="29" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B230" s="10" t="s">
         <v>249</v>
       </c>
       <c r="C230" s="29" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="10" t="s">
+        <v>947</v>
+      </c>
+      <c r="B231" s="10" t="s">
         <v>950</v>
       </c>
-      <c r="B231" s="10" t="s">
-        <v>953</v>
-      </c>
       <c r="C231" s="29" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="10" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C232" s="29" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -16279,7 +16522,7 @@
         <v>903</v>
       </c>
       <c r="C233" s="29" t="s">
-        <v>936</v>
+        <v>962</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -16312,18 +16555,18 @@
         <v>886</v>
       </c>
       <c r="C236" s="29" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
-        <v>966</v>
+        <v>953</v>
       </c>
       <c r="B237" s="10" t="s">
         <v>890</v>
       </c>
       <c r="C237" s="27" t="s">
-        <v>967</v>
+        <v>954</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -16334,7 +16577,7 @@
         <v>889</v>
       </c>
       <c r="C238" s="28" t="s">
-        <v>962</v>
+        <v>888</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -16345,7 +16588,7 @@
         <v>891</v>
       </c>
       <c r="C239" s="19" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -16367,7 +16610,7 @@
         <v>895</v>
       </c>
       <c r="C241" s="29" t="s">
-        <v>894</v>
+        <v>965</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -16375,7 +16618,7 @@
         <v>896</v>
       </c>
       <c r="B242" s="12" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C242" s="29" t="s">
         <v>896</v>
@@ -16394,24 +16637,24 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C244" s="27" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
+        <v>934</v>
+      </c>
+      <c r="B245" s="14" t="s">
         <v>937</v>
       </c>
-      <c r="B245" s="14" t="s">
-        <v>940</v>
-      </c>
       <c r="C245" s="28" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -16444,7 +16687,7 @@
         <v>909</v>
       </c>
       <c r="C248" s="25" t="s">
-        <v>908</v>
+        <v>966</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -16466,129 +16709,799 @@
         <v>913</v>
       </c>
       <c r="C250" s="26" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
+        <v>968</v>
+      </c>
+      <c r="B251" s="10" t="s">
         <v>914</v>
       </c>
-      <c r="B251" s="10" t="s">
-        <v>915</v>
-      </c>
       <c r="C251" s="24" t="s">
-        <v>914</v>
+        <v>968</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
+        <v>938</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>939</v>
+      </c>
+      <c r="C252" s="25" t="s">
         <v>941</v>
-      </c>
-      <c r="B252" s="10" t="s">
-        <v>942</v>
-      </c>
-      <c r="C252" s="25" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="12" t="s">
+        <v>915</v>
+      </c>
+      <c r="B253" s="12" t="s">
         <v>916</v>
       </c>
-      <c r="B253" s="12" t="s">
-        <v>917</v>
-      </c>
       <c r="C253" s="26" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="12" t="s">
-        <v>968</v>
+        <v>955</v>
       </c>
       <c r="B254" s="12" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="12" t="s">
+        <v>918</v>
+      </c>
+      <c r="B255" s="12" t="s">
         <v>919</v>
       </c>
-      <c r="B255" s="12" t="s">
-        <v>920</v>
-      </c>
       <c r="C255" s="8" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="12" t="s">
-        <v>970</v>
+        <v>956</v>
       </c>
       <c r="B256" s="12" t="s">
         <v>971</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="10"/>
-      <c r="B257" s="10"/>
-      <c r="C257" s="23"/>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="10"/>
-      <c r="B258" s="10"/>
+        <v>956</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="21"/>
+      <c r="B257" s="21"/>
+      <c r="C257" s="9"/>
+      <c r="D257" s="9"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="10" t="s">
+        <v>972</v>
+      </c>
+      <c r="B258" s="10" t="s">
+        <v>973</v>
+      </c>
       <c r="C258" s="23"/>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="10"/>
-      <c r="B259" s="10"/>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="10" t="s">
+        <v>974</v>
+      </c>
+      <c r="B259" s="10" t="s">
+        <v>975</v>
+      </c>
       <c r="C259" s="23"/>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="10"/>
-      <c r="B260" s="10"/>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="10" t="s">
+        <v>976</v>
+      </c>
+      <c r="B260" s="10" t="s">
+        <v>977</v>
+      </c>
       <c r="C260" s="23"/>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="10"/>
-      <c r="B261" s="10"/>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="12" t="s">
+        <v>978</v>
+      </c>
+      <c r="B261" s="12" t="s">
+        <v>981</v>
+      </c>
       <c r="C261" s="23"/>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="10"/>
-      <c r="B262" s="10"/>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="12" t="s">
+        <v>979</v>
+      </c>
+      <c r="B262" s="12" t="s">
+        <v>982</v>
+      </c>
       <c r="C262" s="23"/>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="10"/>
-      <c r="B263" s="10"/>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="10" t="s">
+        <v>980</v>
+      </c>
+      <c r="B263" s="10" t="s">
+        <v>983</v>
+      </c>
       <c r="C263" s="23"/>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="10"/>
-      <c r="B264" s="10"/>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="12" t="s">
+        <v>984</v>
+      </c>
+      <c r="B264" s="12" t="s">
+        <v>987</v>
+      </c>
       <c r="C264" s="23"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="10"/>
-      <c r="B265" s="10"/>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="12" t="s">
+        <v>985</v>
+      </c>
+      <c r="B265" s="12" t="s">
+        <v>988</v>
+      </c>
       <c r="C265" s="23"/>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="10"/>
-      <c r="B266" s="10"/>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="10" t="s">
+        <v>986</v>
+      </c>
+      <c r="B266" s="10" t="s">
+        <v>989</v>
+      </c>
       <c r="C266" s="23"/>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="10"/>
-      <c r="B267" s="10"/>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="10" t="s">
+        <v>990</v>
+      </c>
+      <c r="B267" s="10" t="s">
+        <v>991</v>
+      </c>
       <c r="C267" s="23"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="10" t="s">
+        <v>992</v>
+      </c>
+      <c r="B268" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="C268" s="23"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="10" t="s">
+        <v>994</v>
+      </c>
+      <c r="B269" s="10" t="s">
+        <v>995</v>
+      </c>
+      <c r="C269" s="23"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="12" t="s">
+        <v>996</v>
+      </c>
+      <c r="B270" s="12" t="s">
+        <v>999</v>
+      </c>
+      <c r="C270" s="23"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="12" t="s">
+        <v>997</v>
+      </c>
+      <c r="B271" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C271" s="23"/>
+    </row>
+    <row r="272" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A272" s="10" t="s">
+        <v>998</v>
+      </c>
+      <c r="B272" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C272" s="23"/>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="10" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B273" s="10" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C273" s="23"/>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="10" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B274" s="10" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C274" s="23"/>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B275" s="10" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C275" s="23"/>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="10" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B276" s="10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C276" s="23"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="10" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B277" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C277" s="23"/>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="10" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B278" s="10" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C278" s="23"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="12" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B279" s="12" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C279" s="23"/>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="12" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B280" s="12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C280" s="23"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="10" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B281" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C281" s="23"/>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B282" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C282" s="23"/>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B283" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C283" s="23"/>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B284" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C284" s="23"/>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="10" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B285" s="10" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C285" s="23"/>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="10" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B286" s="10" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C286" s="23"/>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B287" s="10" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C287" s="23"/>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B288" s="10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C288" s="23"/>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="12" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B289" s="12" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C289" s="23"/>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="12" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B290" s="12" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C290" s="23"/>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="10" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B291" s="10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C291" s="23"/>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B292" s="10" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C292" s="23"/>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="12" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B293" s="12" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C293" s="23"/>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="12" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B294" s="12" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C294" s="23"/>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B295" s="10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C295" s="23"/>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="10" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B296" s="10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C296" s="23"/>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B297" s="10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C297" s="23"/>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="10" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B298" s="10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C298" s="23"/>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="10"/>
+      <c r="B299" s="10"/>
+      <c r="C299" s="23"/>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="10"/>
+      <c r="B300" s="10"/>
+      <c r="C300" s="23"/>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="10"/>
+      <c r="B301" s="10"/>
+      <c r="C301" s="23"/>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="10"/>
+      <c r="B302" s="10"/>
+      <c r="C302" s="23"/>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="10"/>
+      <c r="B303" s="10"/>
+      <c r="C303" s="23"/>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="10"/>
+      <c r="B304" s="10"/>
+      <c r="C304" s="23"/>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="10"/>
+      <c r="B305" s="10"/>
+      <c r="C305" s="23"/>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="10"/>
+      <c r="B306" s="10"/>
+      <c r="C306" s="23"/>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="10"/>
+      <c r="B307" s="10"/>
+      <c r="C307" s="23"/>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="10"/>
+      <c r="B308" s="10"/>
+      <c r="C308" s="23"/>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="10"/>
+      <c r="B309" s="10"/>
+      <c r="C309" s="23"/>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="10"/>
+      <c r="B310" s="10"/>
+      <c r="C310" s="23"/>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="10"/>
+      <c r="B311" s="10"/>
+      <c r="C311" s="23"/>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="10"/>
+      <c r="B312" s="10"/>
+      <c r="C312" s="23"/>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="10"/>
+      <c r="B313" s="10"/>
+      <c r="C313" s="23"/>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="10"/>
+      <c r="B314" s="10"/>
+      <c r="C314" s="23"/>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="10"/>
+      <c r="B315" s="10"/>
+      <c r="C315" s="23"/>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="10"/>
+      <c r="B316" s="10"/>
+      <c r="C316" s="23"/>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="10"/>
+      <c r="B317" s="10"/>
+      <c r="C317" s="23"/>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="10"/>
+      <c r="B318" s="10"/>
+      <c r="C318" s="23"/>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="10"/>
+      <c r="B319" s="10"/>
+      <c r="C319" s="23"/>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="10"/>
+      <c r="B320" s="10"/>
+      <c r="C320" s="23"/>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="10"/>
+      <c r="B321" s="10"/>
+      <c r="C321" s="23"/>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="10"/>
+      <c r="B322" s="10"/>
+      <c r="C322" s="23"/>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="10"/>
+      <c r="B323" s="10"/>
+      <c r="C323" s="23"/>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="10"/>
+      <c r="B324" s="10"/>
+      <c r="C324" s="23"/>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="10"/>
+      <c r="B325" s="10"/>
+      <c r="C325" s="23"/>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="10"/>
+      <c r="B326" s="10"/>
+      <c r="C326" s="23"/>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="10"/>
+      <c r="B327" s="10"/>
+      <c r="C327" s="23"/>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="10"/>
+      <c r="B328" s="10"/>
+      <c r="C328" s="23"/>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="10"/>
+      <c r="B329" s="10"/>
+      <c r="C329" s="23"/>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="10"/>
+      <c r="B330" s="10"/>
+      <c r="C330" s="23"/>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="10"/>
+      <c r="B331" s="10"/>
+      <c r="C331" s="23"/>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="10"/>
+      <c r="B332" s="10"/>
+      <c r="C332" s="23"/>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="10"/>
+      <c r="B333" s="10"/>
+      <c r="C333" s="23"/>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="10"/>
+      <c r="B334" s="10"/>
+      <c r="C334" s="23"/>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="10"/>
+      <c r="B335" s="10"/>
+      <c r="C335" s="23"/>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="10"/>
+      <c r="B336" s="10"/>
+      <c r="C336" s="23"/>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="10"/>
+      <c r="B337" s="10"/>
+      <c r="C337" s="23"/>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="10"/>
+      <c r="B338" s="10"/>
+      <c r="C338" s="23"/>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="10"/>
+      <c r="B339" s="10"/>
+      <c r="C339" s="23"/>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="10"/>
+      <c r="B340" s="10"/>
+      <c r="C340" s="23"/>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="10"/>
+      <c r="B341" s="10"/>
+      <c r="C341" s="23"/>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="10"/>
+      <c r="B342" s="10"/>
+      <c r="C342" s="23"/>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="10"/>
+      <c r="B343" s="10"/>
+      <c r="C343" s="23"/>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="10"/>
+      <c r="B344" s="10"/>
+      <c r="C344" s="23"/>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="10"/>
+      <c r="B345" s="10"/>
+      <c r="C345" s="23"/>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="10"/>
+      <c r="B346" s="10"/>
+      <c r="C346" s="23"/>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="10"/>
+      <c r="B347" s="10"/>
+      <c r="C347" s="23"/>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="10"/>
+      <c r="B348" s="10"/>
+      <c r="C348" s="23"/>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="10"/>
+      <c r="B349" s="10"/>
+      <c r="C349" s="23"/>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="10"/>
+      <c r="B350" s="10"/>
+      <c r="C350" s="23"/>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="10"/>
+      <c r="B351" s="10"/>
+      <c r="C351" s="23"/>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="10"/>
+      <c r="B352" s="10"/>
+      <c r="C352" s="23"/>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="10"/>
+      <c r="B353" s="10"/>
+      <c r="C353" s="23"/>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="10"/>
+      <c r="B354" s="10"/>
+      <c r="C354" s="23"/>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="10"/>
+      <c r="B355" s="10"/>
+      <c r="C355" s="23"/>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="10"/>
+      <c r="B356" s="10"/>
+      <c r="C356" s="23"/>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="10"/>
+      <c r="B357" s="10"/>
+      <c r="C357" s="23"/>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="10"/>
+      <c r="B358" s="10"/>
+      <c r="C358" s="23"/>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="10"/>
+      <c r="B359" s="10"/>
+      <c r="C359" s="23"/>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="10"/>
+      <c r="B360" s="10"/>
+      <c r="C360" s="23"/>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="10"/>
+      <c r="B361" s="10"/>
+      <c r="C361" s="23"/>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="10"/>
+      <c r="B362" s="10"/>
+      <c r="C362" s="23"/>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="10"/>
+      <c r="B363" s="10"/>
+      <c r="C363" s="23"/>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="10"/>
+      <c r="B364" s="10"/>
+      <c r="C364" s="23"/>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="10"/>
+      <c r="B365" s="10"/>
+      <c r="C365" s="23"/>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="10"/>
+      <c r="B366" s="10"/>
+      <c r="C366" s="23"/>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="10"/>
+      <c r="B367" s="10"/>
+      <c r="C367" s="23"/>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="10"/>
+      <c r="B368" s="10"/>
+      <c r="C368" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16899,55 +17812,55 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
+        <v>920</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>921</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>922</v>
       </c>
       <c r="C27" s="22"/>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
+        <v>922</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>923</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>924</v>
       </c>
       <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
+        <v>924</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>925</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>926</v>
       </c>
       <c r="C29" s="22"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
+        <v>926</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>927</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>928</v>
       </c>
       <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
+        <v>928</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>929</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>930</v>
       </c>
       <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
+        <v>930</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>931</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>932</v>
       </c>
       <c r="C32" s="22"/>
     </row>
@@ -16984,7 +17897,7 @@
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C39" s="22"/>
     </row>

--- a/english.xlsx
+++ b/english.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\popoves\Desktop\experience\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855D4AE6-55DA-4296-9947-307CB5A4B403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1D9D9A-943F-4CD2-92FC-1734F87C9C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="1054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="1067">
   <si>
     <t>word</t>
   </si>
@@ -3043,9 +3043,6 @@
     <t>my wife takes care of the flowers</t>
   </si>
   <si>
-    <t>моя жена ухаживает за растениями</t>
-  </si>
-  <si>
     <t>I take care of the fruits and vegetables</t>
   </si>
   <si>
@@ -3224,6 +3221,48 @@
   </si>
   <si>
     <t>мы всегда с нетерпением ждем их следующего визита</t>
+  </si>
+  <si>
+    <t>I live with my wife Susan</t>
+  </si>
+  <si>
+    <t>we live in small house</t>
+  </si>
+  <si>
+    <t>we live in small house, but we have a big garden</t>
+  </si>
+  <si>
+    <t>we are both retired sowe have a lot of free time</t>
+  </si>
+  <si>
+    <t>we love spending time in our garden</t>
+  </si>
+  <si>
+    <t>моя жена ухаживает за цветами</t>
+  </si>
+  <si>
+    <t>my wife take care of the flowers</t>
+  </si>
+  <si>
+    <t>I take care of fruits and vegetables</t>
+  </si>
+  <si>
+    <t>I teach them how plant and grow vegetables</t>
+  </si>
+  <si>
+    <t>in the evening after dinner</t>
+  </si>
+  <si>
+    <t>we are little sad</t>
+  </si>
+  <si>
+    <t>we are little sad, when it is time for the kids to go home</t>
+  </si>
+  <si>
+    <t>but we are happy to know</t>
+  </si>
+  <si>
+    <t>we always look forvard</t>
   </si>
 </sst>
 </file>
@@ -13958,8 +13997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B299" sqref="B299"/>
+    <sheetView tabSelected="1" topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C299" sqref="C299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16791,7 +16830,9 @@
       <c r="B258" s="10" t="s">
         <v>973</v>
       </c>
-      <c r="C258" s="23"/>
+      <c r="C258" s="8" t="s">
+        <v>972</v>
+      </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
@@ -16800,7 +16841,9 @@
       <c r="B259" s="10" t="s">
         <v>975</v>
       </c>
-      <c r="C259" s="23"/>
+      <c r="C259" s="8" t="s">
+        <v>974</v>
+      </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
@@ -16809,7 +16852,9 @@
       <c r="B260" s="10" t="s">
         <v>977</v>
       </c>
-      <c r="C260" s="23"/>
+      <c r="C260" s="8" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="12" t="s">
@@ -16818,7 +16863,9 @@
       <c r="B261" s="12" t="s">
         <v>981</v>
       </c>
-      <c r="C261" s="23"/>
+      <c r="C261" s="24" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="12" t="s">
@@ -16827,7 +16874,9 @@
       <c r="B262" s="12" t="s">
         <v>982</v>
       </c>
-      <c r="C262" s="23"/>
+      <c r="C262" s="25" t="s">
+        <v>979</v>
+      </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
@@ -16836,7 +16885,9 @@
       <c r="B263" s="10" t="s">
         <v>983</v>
       </c>
-      <c r="C263" s="23"/>
+      <c r="C263" s="26" t="s">
+        <v>1055</v>
+      </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="12" t="s">
@@ -16845,7 +16896,9 @@
       <c r="B264" s="12" t="s">
         <v>987</v>
       </c>
-      <c r="C264" s="23"/>
+      <c r="C264" s="24" t="s">
+        <v>984</v>
+      </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="12" t="s">
@@ -16854,7 +16907,9 @@
       <c r="B265" s="12" t="s">
         <v>988</v>
       </c>
-      <c r="C265" s="23"/>
+      <c r="C265" s="25" t="s">
+        <v>985</v>
+      </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
@@ -16863,7 +16918,9 @@
       <c r="B266" s="10" t="s">
         <v>989</v>
       </c>
-      <c r="C266" s="23"/>
+      <c r="C266" s="26" t="s">
+        <v>1056</v>
+      </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
@@ -16872,286 +16929,350 @@
       <c r="B267" s="10" t="s">
         <v>991</v>
       </c>
-      <c r="C267" s="23"/>
+      <c r="C267" s="8" t="s">
+        <v>1057</v>
+      </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
         <v>992</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>993</v>
-      </c>
-      <c r="C268" s="23"/>
+        <v>1058</v>
+      </c>
+      <c r="C268" s="8" t="s">
+        <v>1059</v>
+      </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="B269" s="10" t="s">
         <v>994</v>
       </c>
-      <c r="B269" s="10" t="s">
-        <v>995</v>
-      </c>
-      <c r="C269" s="23"/>
+      <c r="C269" s="8" t="s">
+        <v>1060</v>
+      </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="12" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>999</v>
-      </c>
-      <c r="C270" s="23"/>
+        <v>998</v>
+      </c>
+      <c r="C270" s="24" t="s">
+        <v>995</v>
+      </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="12" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B271" s="12" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C271" s="23"/>
+        <v>999</v>
+      </c>
+      <c r="C271" s="25" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="272" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C272" s="23"/>
+        <v>1000</v>
+      </c>
+      <c r="C272" s="19" t="s">
+        <v>997</v>
+      </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B273" s="10" t="s">
         <v>1002</v>
       </c>
-      <c r="B273" s="10" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C273" s="23"/>
+      <c r="C273" s="8" t="s">
+        <v>1001</v>
+      </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B274" s="10" t="s">
         <v>1004</v>
       </c>
-      <c r="B274" s="10" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C274" s="23"/>
+      <c r="C274" s="8" t="s">
+        <v>1003</v>
+      </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B275" s="10" t="s">
         <v>1006</v>
       </c>
-      <c r="B275" s="10" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C275" s="23"/>
+      <c r="C275" s="8" t="s">
+        <v>1005</v>
+      </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B276" s="10" t="s">
         <v>1008</v>
       </c>
-      <c r="B276" s="10" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C276" s="23"/>
+      <c r="C276" s="8" t="s">
+        <v>1061</v>
+      </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B277" s="10" t="s">
         <v>1010</v>
       </c>
-      <c r="B277" s="10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C277" s="23"/>
+      <c r="C277" s="8" t="s">
+        <v>1009</v>
+      </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B278" s="10" t="s">
         <v>1012</v>
       </c>
-      <c r="B278" s="10" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C278" s="23"/>
+      <c r="C278" s="8" t="s">
+        <v>1011</v>
+      </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="12" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B279" s="12" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C279" s="23"/>
+        <v>1016</v>
+      </c>
+      <c r="C279" s="24" t="s">
+        <v>1062</v>
+      </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="12" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B280" s="12" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C280" s="23"/>
+        <v>1017</v>
+      </c>
+      <c r="C280" s="25" t="s">
+        <v>1014</v>
+      </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C281" s="23"/>
+        <v>1018</v>
+      </c>
+      <c r="C281" s="26" t="s">
+        <v>1015</v>
+      </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B282" s="10" t="s">
         <v>1020</v>
       </c>
-      <c r="B282" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C282" s="23"/>
+      <c r="C282" s="8" t="s">
+        <v>1019</v>
+      </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B283" s="10" t="s">
         <v>1022</v>
       </c>
-      <c r="B283" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C283" s="23"/>
+      <c r="C283" s="8" t="s">
+        <v>1021</v>
+      </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B284" s="10" t="s">
         <v>1024</v>
       </c>
-      <c r="B284" s="10" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C284" s="23"/>
+      <c r="C284" s="8" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B285" s="10" t="s">
         <v>1026</v>
       </c>
-      <c r="B285" s="10" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C285" s="23"/>
+      <c r="C285" s="8" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B286" s="10" t="s">
         <v>1028</v>
       </c>
-      <c r="B286" s="10" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C286" s="23"/>
+      <c r="C286" s="8" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B287" s="10" t="s">
         <v>1030</v>
       </c>
-      <c r="B287" s="10" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C287" s="23"/>
+      <c r="C287" s="8" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C288" s="23"/>
+        <v>1034</v>
+      </c>
+      <c r="C288" s="8" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="12" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B289" s="12" t="s">
         <v>1033</v>
       </c>
-      <c r="B289" s="12" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C289" s="23"/>
+      <c r="C289" s="24" t="s">
+        <v>1063</v>
+      </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="12" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B290" s="12" t="s">
         <v>1036</v>
       </c>
-      <c r="B290" s="12" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C290" s="23"/>
+      <c r="C290" s="25" t="s">
+        <v>1035</v>
+      </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B291" s="10" t="s">
         <v>1038</v>
       </c>
-      <c r="B291" s="10" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C291" s="23"/>
+      <c r="C291" s="26" t="s">
+        <v>1064</v>
+      </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B292" s="10" t="s">
         <v>1040</v>
       </c>
-      <c r="B292" s="10" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C292" s="23"/>
+      <c r="C292" s="8" t="s">
+        <v>1039</v>
+      </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="12" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B293" s="12" t="s">
         <v>1042</v>
       </c>
-      <c r="B293" s="12" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C293" s="23"/>
+      <c r="C293" s="24" t="s">
+        <v>1065</v>
+      </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="12" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B294" s="12" t="s">
         <v>1044</v>
       </c>
-      <c r="B294" s="12" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C294" s="23"/>
+      <c r="C294" s="25" t="s">
+        <v>1043</v>
+      </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B295" s="10" t="s">
         <v>1046</v>
       </c>
-      <c r="B295" s="10" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C295" s="23"/>
+      <c r="C295" s="26" t="s">
+        <v>1045</v>
+      </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B296" s="10" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C296" s="23"/>
+        <v>1050</v>
+      </c>
+      <c r="C296" s="8" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C297" s="23"/>
+        <v>1051</v>
+      </c>
+      <c r="C297" s="8" t="s">
+        <v>1048</v>
+      </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C298" s="23"/>
+        <v>1052</v>
+      </c>
+      <c r="C298" s="8" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="10"/>

--- a/english.xlsx
+++ b/english.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\popoves\Desktop\experience\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\espopov\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1D9D9A-943F-4CD2-92FC-1734F87C9C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CAE01B-432D-4EE2-9AEC-ADE53D4F5308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="words" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,19 @@
     <sheet name="histories" sheetId="2" r:id="rId3"/>
     <sheet name="technical documentation" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -62,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="1102">
   <si>
     <t>word</t>
   </si>
@@ -3229,24 +3238,12 @@
     <t>we live in small house</t>
   </si>
   <si>
-    <t>we live in small house, but we have a big garden</t>
-  </si>
-  <si>
-    <t>we are both retired sowe have a lot of free time</t>
-  </si>
-  <si>
     <t>we love spending time in our garden</t>
   </si>
   <si>
     <t>моя жена ухаживает за цветами</t>
   </si>
   <si>
-    <t>my wife take care of the flowers</t>
-  </si>
-  <si>
-    <t>I take care of fruits and vegetables</t>
-  </si>
-  <si>
     <t>I teach them how plant and grow vegetables</t>
   </si>
   <si>
@@ -3256,13 +3253,130 @@
     <t>we are little sad</t>
   </si>
   <si>
-    <t>we are little sad, when it is time for the kids to go home</t>
-  </si>
-  <si>
     <t>but we are happy to know</t>
   </si>
   <si>
     <t>we always look forvard</t>
+  </si>
+  <si>
+    <t>Django</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>although it borrows ideas from existing languages</t>
+  </si>
+  <si>
+    <t>хотя он заимствует идеи из существующих языков</t>
+  </si>
+  <si>
+    <t>it has unusual properties</t>
+  </si>
+  <si>
+    <t>он имеет необычные свойства</t>
+  </si>
+  <si>
+    <t>that make effective Go programs</t>
+  </si>
+  <si>
+    <t>которые делают эффективные программы Go</t>
+  </si>
+  <si>
+    <t>different in character from programs written in its relatives</t>
+  </si>
+  <si>
+    <t>отличными по своему характеру от программ, написанных на его аналогах</t>
+  </si>
+  <si>
+    <t>it has unusual properties that make effective Go programs different in character from programs written in its relatives</t>
+  </si>
+  <si>
+    <t>он имеет необычные свойства, которые делают эффективные программы на Go отличными по своему характеру  от программ, написанных на его аналогах</t>
+  </si>
+  <si>
+    <t>a straightforward translation</t>
+  </si>
+  <si>
+    <t>простой перевод</t>
+  </si>
+  <si>
+    <t>of a C++ or Java program into Go</t>
+  </si>
+  <si>
+    <t>С++ или Java программы в Go</t>
+  </si>
+  <si>
+    <t>is unlikely to produce</t>
+  </si>
+  <si>
+    <t>наврядли  приведет к</t>
+  </si>
+  <si>
+    <t>a satisfactory result</t>
+  </si>
+  <si>
+    <t>удовлетворительному результату</t>
+  </si>
+  <si>
+    <t>a straightforward translation of a C++ or Java program into Go is unlikely to produce a satisfactory result</t>
+  </si>
+  <si>
+    <t>простой перевод C++ или Java программы в Go наврятли приведет к удовлетворительному результату</t>
+  </si>
+  <si>
+    <t>it's also impotant to know</t>
+  </si>
+  <si>
+    <t>the established conventions</t>
+  </si>
+  <si>
+    <t>общепринятые правила</t>
+  </si>
+  <si>
+    <t>так же важно знать</t>
+  </si>
+  <si>
+    <t>for programmin in Go</t>
+  </si>
+  <si>
+    <t>для программирования на Go</t>
+  </si>
+  <si>
+    <t>it's also important to know the esteblished conventions for programming in Go</t>
+  </si>
+  <si>
+    <t>так же важно знать общепринятые правила программирования на Go</t>
+  </si>
+  <si>
+    <t>weekeds with my grandkids</t>
+  </si>
+  <si>
+    <t>we are both retired, so we have a lot of free time</t>
+  </si>
+  <si>
+    <t>our grandchildren, Mia and Jake, come to visit us every weekeds</t>
+  </si>
+  <si>
+    <t>they love to spend time in our garden</t>
+  </si>
+  <si>
+    <t>they water plants and pick raspberries and tomatoes</t>
+  </si>
+  <si>
+    <t>in the evenings after dinner, we sit in living room and talk</t>
+  </si>
+  <si>
+    <t>I talk them about when I was their age</t>
+  </si>
+  <si>
+    <t>Mia and Jake eat cookies with milk</t>
+  </si>
+  <si>
+    <t>they love grandma's backing</t>
+  </si>
+  <si>
+    <t>we are a little sad when it is time for the kids to go home</t>
   </si>
 </sst>
 </file>
@@ -3466,7 +3580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3548,6 +3662,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3869,18 +3995,18 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3903,7 +4029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3926,7 +4052,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -3949,7 +4075,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3974,7 +4100,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -3999,7 +4125,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>99</v>
       </c>
@@ -4022,7 +4148,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>101</v>
       </c>
@@ -4045,7 +4171,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>103</v>
       </c>
@@ -4068,7 +4194,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>105</v>
       </c>
@@ -4091,7 +4217,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>107</v>
       </c>
@@ -4114,7 +4240,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>109</v>
       </c>
@@ -4137,7 +4263,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>111</v>
       </c>
@@ -4160,7 +4286,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>112</v>
       </c>
@@ -4183,7 +4309,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>114</v>
       </c>
@@ -4208,7 +4334,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>116</v>
       </c>
@@ -4231,7 +4357,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>118</v>
       </c>
@@ -4254,7 +4380,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>120</v>
       </c>
@@ -4277,7 +4403,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>122</v>
       </c>
@@ -4300,7 +4426,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>124</v>
       </c>
@@ -4323,7 +4449,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>126</v>
       </c>
@@ -4346,7 +4472,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>203</v>
       </c>
@@ -4367,7 +4493,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>205</v>
       </c>
@@ -4386,7 +4512,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>207</v>
       </c>
@@ -4405,7 +4531,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>209</v>
       </c>
@@ -4424,7 +4550,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>211</v>
       </c>
@@ -4443,7 +4569,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>213</v>
       </c>
@@ -4462,7 +4588,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>215</v>
       </c>
@@ -4481,7 +4607,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>217</v>
       </c>
@@ -4500,7 +4626,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>219</v>
       </c>
@@ -4519,7 +4645,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>221</v>
       </c>
@@ -4538,7 +4664,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>223</v>
       </c>
@@ -4557,7 +4683,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>224</v>
       </c>
@@ -4576,7 +4702,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>226</v>
       </c>
@@ -4595,7 +4721,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>228</v>
       </c>
@@ -4614,7 +4740,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>230</v>
       </c>
@@ -4633,7 +4759,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>232</v>
       </c>
@@ -4654,7 +4780,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>235</v>
       </c>
@@ -4673,7 +4799,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>237</v>
       </c>
@@ -4694,7 +4820,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>240</v>
       </c>
@@ -4713,7 +4839,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>242</v>
       </c>
@@ -4732,7 +4858,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>244</v>
       </c>
@@ -4751,7 +4877,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>246</v>
       </c>
@@ -4770,7 +4896,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
@@ -4785,7 +4911,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
@@ -4800,7 +4926,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
@@ -4815,7 +4941,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
@@ -4830,7 +4956,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
@@ -4845,7 +4971,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
@@ -4860,7 +4986,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
@@ -4875,7 +5001,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
@@ -4890,7 +5016,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
@@ -4905,7 +5031,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
@@ -4920,7 +5046,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
@@ -4935,7 +5061,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
@@ -4950,7 +5076,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
@@ -4965,7 +5091,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
@@ -4980,7 +5106,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
@@ -4995,7 +5121,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
@@ -5010,7 +5136,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
@@ -5025,7 +5151,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="5"/>
@@ -5040,7 +5166,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="5"/>
@@ -5055,7 +5181,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="5"/>
@@ -5070,7 +5196,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="5"/>
@@ -5085,7 +5211,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="5"/>
@@ -5100,7 +5226,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="5"/>
@@ -5115,7 +5241,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="5"/>
@@ -5130,7 +5256,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="5"/>
@@ -5145,7 +5271,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="5"/>
@@ -5160,7 +5286,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="5"/>
@@ -5175,7 +5301,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="5"/>
@@ -5190,7 +5316,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="5"/>
@@ -5205,7 +5331,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="5"/>
@@ -5220,7 +5346,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="5"/>
@@ -5235,7 +5361,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="5"/>
@@ -5250,7 +5376,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="5"/>
@@ -5265,7 +5391,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="5"/>
@@ -5280,7 +5406,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="5"/>
@@ -5295,7 +5421,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="5"/>
@@ -5310,7 +5436,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="5"/>
@@ -5325,7 +5451,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="5"/>
@@ -5340,7 +5466,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="5"/>
@@ -5355,7 +5481,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="5"/>
@@ -5370,7 +5496,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="5"/>
@@ -5385,7 +5511,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="5"/>
@@ -5400,7 +5526,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="5"/>
@@ -5415,7 +5541,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="5"/>
@@ -5430,7 +5556,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="5"/>
@@ -5445,7 +5571,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="5"/>
@@ -5460,7 +5586,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="5"/>
@@ -5475,7 +5601,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="5"/>
@@ -5490,7 +5616,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="5"/>
@@ -5505,7 +5631,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="5"/>
@@ -5520,7 +5646,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="5"/>
@@ -5535,7 +5661,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="5"/>
@@ -5550,7 +5676,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="5"/>
@@ -5565,7 +5691,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="5"/>
@@ -5580,7 +5706,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="5"/>
@@ -5595,7 +5721,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="5"/>
@@ -5610,7 +5736,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="5"/>
@@ -5625,7 +5751,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="5"/>
@@ -5640,7 +5766,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="5"/>
@@ -5655,7 +5781,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="5"/>
@@ -5670,7 +5796,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="5"/>
@@ -5685,7 +5811,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="5"/>
@@ -5700,7 +5826,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="5"/>
@@ -5715,7 +5841,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="5"/>
@@ -5730,7 +5856,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="5"/>
@@ -5745,7 +5871,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="5"/>
@@ -5760,7 +5886,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="5"/>
@@ -5775,7 +5901,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="5"/>
@@ -5790,7 +5916,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="5"/>
@@ -5805,7 +5931,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="5"/>
@@ -5820,7 +5946,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="5"/>
@@ -5835,7 +5961,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="5"/>
@@ -5850,7 +5976,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="5"/>
@@ -5865,7 +5991,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="5"/>
@@ -5880,7 +6006,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="5"/>
@@ -5895,7 +6021,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="5"/>
@@ -5910,7 +6036,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="5"/>
@@ -5925,7 +6051,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="5"/>
@@ -5940,7 +6066,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="5"/>
@@ -5955,7 +6081,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="5"/>
@@ -5970,7 +6096,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="5"/>
@@ -5985,7 +6111,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="5"/>
@@ -6000,7 +6126,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="5"/>
@@ -6015,7 +6141,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="5"/>
@@ -6030,7 +6156,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="5"/>
@@ -6045,7 +6171,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="5"/>
@@ -6060,7 +6186,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="5"/>
@@ -6075,7 +6201,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="5"/>
@@ -6090,7 +6216,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="5"/>
@@ -6105,7 +6231,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="5"/>
@@ -6120,7 +6246,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="5"/>
@@ -6135,7 +6261,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="5"/>
@@ -6150,7 +6276,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="5"/>
@@ -6165,7 +6291,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="5"/>
@@ -6180,7 +6306,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="5"/>
@@ -6195,7 +6321,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="5"/>
@@ -6210,7 +6336,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="5"/>
@@ -6225,7 +6351,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="5"/>
@@ -6240,7 +6366,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="5"/>
@@ -6255,7 +6381,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="5"/>
@@ -6270,7 +6396,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="5"/>
@@ -6285,7 +6411,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="5"/>
@@ -6300,7 +6426,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="5"/>
@@ -6315,7 +6441,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="5"/>
@@ -6330,7 +6456,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="5"/>
@@ -6345,7 +6471,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="5"/>
@@ -6360,7 +6486,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="5"/>
@@ -6375,7 +6501,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="5"/>
@@ -6390,7 +6516,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="5"/>
@@ -6405,7 +6531,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="5"/>
@@ -6420,7 +6546,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="5"/>
@@ -6435,7 +6561,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="5"/>
@@ -6450,7 +6576,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="5"/>
@@ -6465,7 +6591,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="5"/>
@@ -6480,7 +6606,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="5"/>
@@ -6495,7 +6621,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="5"/>
@@ -6510,7 +6636,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="5"/>
@@ -6525,7 +6651,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="5"/>
@@ -6540,7 +6666,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="5"/>
@@ -6555,7 +6681,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="5"/>
@@ -6570,7 +6696,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="5"/>
@@ -6585,7 +6711,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="5"/>
@@ -6600,7 +6726,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="5"/>
@@ -6615,7 +6741,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="5"/>
@@ -6630,7 +6756,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="5"/>
@@ -6645,7 +6771,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="5"/>
@@ -6660,7 +6786,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="5"/>
@@ -6675,7 +6801,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="5"/>
@@ -6690,7 +6816,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="5"/>
@@ -6705,7 +6831,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="5"/>
@@ -6720,7 +6846,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="5"/>
@@ -6735,7 +6861,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="5"/>
@@ -6750,7 +6876,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="5"/>
@@ -6765,7 +6891,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="5"/>
@@ -6780,7 +6906,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="5"/>
@@ -6795,7 +6921,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="5"/>
@@ -6810,7 +6936,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="5"/>
@@ -6825,7 +6951,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="5"/>
@@ -6840,7 +6966,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="5"/>
@@ -6855,7 +6981,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="5"/>
@@ -6870,7 +6996,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="5"/>
@@ -6885,7 +7011,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="5"/>
@@ -6900,7 +7026,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="5"/>
@@ -6915,7 +7041,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="5"/>
@@ -6930,7 +7056,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="5"/>
@@ -6945,7 +7071,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="5"/>
@@ -6960,7 +7086,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="5"/>
@@ -6975,7 +7101,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="5"/>
@@ -6990,7 +7116,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="5"/>
@@ -7005,7 +7131,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="5"/>
@@ -7020,7 +7146,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="5"/>
@@ -7035,7 +7161,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="5"/>
@@ -7050,7 +7176,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="5"/>
@@ -7065,7 +7191,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="5"/>
@@ -7080,7 +7206,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="5"/>
@@ -7095,7 +7221,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="5"/>
@@ -7110,7 +7236,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="5"/>
@@ -7125,7 +7251,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="5"/>
@@ -7140,7 +7266,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="5"/>
@@ -7155,7 +7281,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="5"/>
@@ -7170,7 +7296,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="5"/>
@@ -7185,7 +7311,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="5"/>
@@ -7200,7 +7326,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="5"/>
@@ -7215,7 +7341,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="5"/>
@@ -7230,7 +7356,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="5"/>
@@ -7245,7 +7371,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="5"/>
@@ -7260,7 +7386,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="5"/>
@@ -7275,7 +7401,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="5"/>
@@ -7290,7 +7416,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="5"/>
@@ -7305,7 +7431,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="5"/>
@@ -7320,7 +7446,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="5"/>
@@ -7335,7 +7461,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="5"/>
@@ -7350,7 +7476,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="5"/>
@@ -7365,7 +7491,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="5"/>
@@ -7380,7 +7506,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="5"/>
@@ -7395,7 +7521,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="5"/>
@@ -7410,7 +7536,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="5"/>
@@ -7425,7 +7551,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="5"/>
@@ -7440,7 +7566,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="5"/>
@@ -7455,7 +7581,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="5"/>
@@ -7470,7 +7596,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="5"/>
@@ -7485,7 +7611,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="5"/>
@@ -7500,7 +7626,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="5"/>
@@ -7515,7 +7641,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="5"/>
@@ -7530,7 +7656,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="5"/>
@@ -7545,7 +7671,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="5"/>
@@ -7560,7 +7686,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="5"/>
@@ -7575,7 +7701,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="5"/>
@@ -7590,7 +7716,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="5"/>
@@ -7605,7 +7731,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="5"/>
@@ -7620,7 +7746,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="5"/>
@@ -7635,7 +7761,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="5"/>
@@ -7650,7 +7776,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="5"/>
@@ -7665,7 +7791,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="5"/>
@@ -7680,7 +7806,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="5"/>
@@ -7695,7 +7821,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="5"/>
@@ -7710,7 +7836,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="5"/>
@@ -7725,7 +7851,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="5"/>
@@ -7740,7 +7866,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="5"/>
@@ -7755,7 +7881,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="5"/>
@@ -7770,7 +7896,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="5"/>
@@ -7785,7 +7911,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="5"/>
@@ -7800,7 +7926,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="5"/>
@@ -7815,7 +7941,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="5"/>
@@ -7830,7 +7956,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="5"/>
@@ -7845,7 +7971,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="5"/>
@@ -7860,7 +7986,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="5"/>
@@ -7875,7 +8001,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="5"/>
@@ -7890,7 +8016,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="5"/>
@@ -7905,7 +8031,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="5"/>
@@ -7920,7 +8046,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="5"/>
@@ -7935,7 +8061,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="5"/>
@@ -7950,7 +8076,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="5"/>
@@ -7965,7 +8091,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="5"/>
@@ -7980,7 +8106,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="5"/>
@@ -7995,7 +8121,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="5"/>
@@ -8010,7 +8136,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="5"/>
@@ -8025,7 +8151,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="5"/>
@@ -8040,7 +8166,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="5"/>
@@ -8055,7 +8181,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="5"/>
@@ -8070,7 +8196,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="5"/>
@@ -8085,7 +8211,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="5"/>
@@ -8100,7 +8226,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="5"/>
@@ -8115,7 +8241,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="5"/>
@@ -8130,7 +8256,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="5"/>
@@ -8145,7 +8271,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="5"/>
@@ -8160,7 +8286,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="5"/>
@@ -8175,7 +8301,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="5"/>
@@ -8190,7 +8316,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="5"/>
@@ -8205,7 +8331,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="5"/>
@@ -8220,7 +8346,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="5"/>
@@ -8235,7 +8361,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="5"/>
@@ -8250,7 +8376,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="5"/>
@@ -8265,7 +8391,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="5"/>
@@ -8280,7 +8406,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="5"/>
@@ -8295,7 +8421,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="5"/>
@@ -8310,7 +8436,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="5"/>
@@ -8325,7 +8451,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="5"/>
@@ -8340,7 +8466,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="5"/>
@@ -8355,7 +8481,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="5"/>
@@ -8370,7 +8496,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="5"/>
@@ -8385,7 +8511,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="5"/>
@@ -8400,7 +8526,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="5"/>
@@ -8415,7 +8541,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="5"/>
@@ -8430,7 +8556,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="5"/>
@@ -8445,7 +8571,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="5"/>
@@ -8460,7 +8586,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="5"/>
@@ -8475,7 +8601,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="5"/>
@@ -8490,7 +8616,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="5"/>
@@ -8505,7 +8631,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="5"/>
@@ -8520,7 +8646,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="5"/>
@@ -8535,7 +8661,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="5"/>
@@ -8550,7 +8676,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="5"/>
@@ -8565,7 +8691,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="5"/>
@@ -8580,7 +8706,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="5"/>
@@ -8595,7 +8721,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="5"/>
@@ -8610,7 +8736,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="5"/>
@@ -8625,7 +8751,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="5"/>
@@ -8654,18 +8780,18 @@
       <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8688,7 +8814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -8711,7 +8837,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -8734,7 +8860,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -8757,7 +8883,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -8780,7 +8906,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -8803,7 +8929,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -8826,7 +8952,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -8849,7 +8975,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -8872,7 +8998,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -8895,7 +9021,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -8920,7 +9046,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -8943,7 +9069,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -8966,7 +9092,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -8989,7 +9115,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -9012,7 +9138,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -9035,7 +9161,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -9058,7 +9184,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -9081,7 +9207,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
@@ -9104,7 +9230,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -9127,7 +9253,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
@@ -9150,7 +9276,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -9173,7 +9299,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
@@ -9196,7 +9322,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
@@ -9219,7 +9345,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>62</v>
       </c>
@@ -9242,7 +9368,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>64</v>
       </c>
@@ -9265,7 +9391,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>66</v>
       </c>
@@ -9288,7 +9414,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>68</v>
       </c>
@@ -9311,7 +9437,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
@@ -9334,7 +9460,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>72</v>
       </c>
@@ -9357,7 +9483,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
@@ -9382,7 +9508,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>77</v>
       </c>
@@ -9407,7 +9533,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>79</v>
       </c>
@@ -9430,7 +9556,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>81</v>
       </c>
@@ -9453,7 +9579,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>83</v>
       </c>
@@ -9476,7 +9602,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>197</v>
       </c>
@@ -9499,7 +9625,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>85</v>
       </c>
@@ -9522,7 +9648,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>87</v>
       </c>
@@ -9547,7 +9673,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>90</v>
       </c>
@@ -9570,7 +9696,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>92</v>
       </c>
@@ -9593,7 +9719,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>94</v>
       </c>
@@ -9616,7 +9742,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>96</v>
       </c>
@@ -9641,7 +9767,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>128</v>
       </c>
@@ -9664,7 +9790,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>130</v>
       </c>
@@ -9687,7 +9813,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>133</v>
       </c>
@@ -9710,7 +9836,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>135</v>
       </c>
@@ -9733,7 +9859,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>137</v>
       </c>
@@ -9758,7 +9884,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>140</v>
       </c>
@@ -9781,7 +9907,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>142</v>
       </c>
@@ -9804,7 +9930,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>144</v>
       </c>
@@ -9827,7 +9953,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>200</v>
       </c>
@@ -9850,7 +9976,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>147</v>
       </c>
@@ -9873,7 +9999,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>149</v>
       </c>
@@ -9896,7 +10022,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>151</v>
       </c>
@@ -9919,7 +10045,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>153</v>
       </c>
@@ -9944,7 +10070,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>155</v>
       </c>
@@ -9967,7 +10093,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>157</v>
       </c>
@@ -9990,7 +10116,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>159</v>
       </c>
@@ -10013,7 +10139,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>161</v>
       </c>
@@ -10036,7 +10162,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>163</v>
       </c>
@@ -10059,7 +10185,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>165</v>
       </c>
@@ -10082,7 +10208,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>167</v>
       </c>
@@ -10105,7 +10231,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>169</v>
       </c>
@@ -10128,7 +10254,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>170</v>
       </c>
@@ -10151,7 +10277,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>172</v>
       </c>
@@ -10174,7 +10300,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>174</v>
       </c>
@@ -10197,7 +10323,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>176</v>
       </c>
@@ -10220,7 +10346,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>178</v>
       </c>
@@ -10243,7 +10369,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>180</v>
       </c>
@@ -10268,7 +10394,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>183</v>
       </c>
@@ -10291,7 +10417,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>186</v>
       </c>
@@ -10314,7 +10440,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>187</v>
       </c>
@@ -10337,7 +10463,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>189</v>
       </c>
@@ -10360,7 +10486,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>191</v>
       </c>
@@ -10383,7 +10509,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>193</v>
       </c>
@@ -10406,7 +10532,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>195</v>
       </c>
@@ -10429,7 +10555,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>248</v>
       </c>
@@ -10452,7 +10578,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>250</v>
       </c>
@@ -10475,7 +10601,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>252</v>
       </c>
@@ -10498,7 +10624,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>254</v>
       </c>
@@ -10521,7 +10647,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>256</v>
       </c>
@@ -10544,7 +10670,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>258</v>
       </c>
@@ -10567,7 +10693,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>260</v>
       </c>
@@ -10592,7 +10718,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>263</v>
       </c>
@@ -10617,7 +10743,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>266</v>
       </c>
@@ -10640,7 +10766,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>268</v>
       </c>
@@ -10663,7 +10789,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>270</v>
       </c>
@@ -10686,7 +10812,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>272</v>
       </c>
@@ -10709,7 +10835,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>274</v>
       </c>
@@ -10732,7 +10858,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>276</v>
       </c>
@@ -10757,7 +10883,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>279</v>
       </c>
@@ -10780,7 +10906,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>281</v>
       </c>
@@ -10803,7 +10929,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>283</v>
       </c>
@@ -10826,7 +10952,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>284</v>
       </c>
@@ -10849,7 +10975,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>286</v>
       </c>
@@ -10872,7 +10998,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>288</v>
       </c>
@@ -10895,7 +11021,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>291</v>
       </c>
@@ -10920,7 +11046,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>294</v>
       </c>
@@ -10943,7 +11069,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>296</v>
       </c>
@@ -10966,7 +11092,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>298</v>
       </c>
@@ -10989,7 +11115,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>299</v>
       </c>
@@ -11012,7 +11138,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>301</v>
       </c>
@@ -11035,7 +11161,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>303</v>
       </c>
@@ -11058,7 +11184,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>305</v>
       </c>
@@ -11081,7 +11207,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>307</v>
       </c>
@@ -11104,7 +11230,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>309</v>
       </c>
@@ -11130,7 +11256,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>311</v>
       </c>
@@ -11153,7 +11279,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="5"/>
@@ -11168,7 +11294,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="5"/>
@@ -11183,7 +11309,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="5"/>
@@ -11198,7 +11324,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="5"/>
@@ -11213,7 +11339,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="5"/>
@@ -11228,7 +11354,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="5"/>
@@ -11243,7 +11369,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="5"/>
@@ -11258,7 +11384,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="5"/>
@@ -11273,7 +11399,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="5"/>
@@ -11288,7 +11414,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="5"/>
@@ -11303,7 +11429,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="5"/>
@@ -11318,7 +11444,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="5"/>
@@ -11333,7 +11459,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="5"/>
@@ -11348,7 +11474,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="5"/>
@@ -11363,7 +11489,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="5"/>
@@ -11378,7 +11504,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="5"/>
@@ -11393,7 +11519,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="5"/>
@@ -11408,7 +11534,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="5"/>
@@ -11423,7 +11549,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="5"/>
@@ -11438,7 +11564,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="5"/>
@@ -11453,7 +11579,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="5"/>
@@ -11468,7 +11594,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="5"/>
@@ -11483,7 +11609,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="5"/>
@@ -11498,7 +11624,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="5"/>
@@ -11513,7 +11639,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="5"/>
@@ -11528,7 +11654,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="5"/>
@@ -11543,7 +11669,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="5"/>
@@ -11558,7 +11684,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="5"/>
@@ -11573,7 +11699,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="5"/>
@@ -11588,7 +11714,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="5"/>
@@ -11603,7 +11729,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="5"/>
@@ -11618,7 +11744,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="5"/>
@@ -11633,7 +11759,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="5"/>
@@ -11648,7 +11774,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="5"/>
@@ -11663,7 +11789,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="5"/>
@@ -11678,7 +11804,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="5"/>
@@ -11693,7 +11819,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="5"/>
@@ -11708,7 +11834,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="5"/>
@@ -11723,7 +11849,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="5"/>
@@ -11738,7 +11864,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="5"/>
@@ -11753,7 +11879,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="5"/>
@@ -11768,7 +11894,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="5"/>
@@ -11783,7 +11909,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="5"/>
@@ -11798,7 +11924,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="5"/>
@@ -11813,7 +11939,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="5"/>
@@ -11828,7 +11954,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="5"/>
@@ -11843,7 +11969,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="5"/>
@@ -11858,7 +11984,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="5"/>
@@ -11873,7 +11999,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="5"/>
@@ -11888,7 +12014,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="5"/>
@@ -11903,7 +12029,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="5"/>
@@ -11918,7 +12044,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="5"/>
@@ -11933,7 +12059,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="5"/>
@@ -11948,7 +12074,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="5"/>
@@ -11963,7 +12089,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="5"/>
@@ -11978,7 +12104,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="5"/>
@@ -11993,7 +12119,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="5"/>
@@ -12008,7 +12134,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="5"/>
@@ -12023,7 +12149,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="5"/>
@@ -12038,7 +12164,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="5"/>
@@ -12053,7 +12179,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="5"/>
@@ -12068,7 +12194,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="5"/>
@@ -12083,7 +12209,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="5"/>
@@ -12098,7 +12224,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="5"/>
@@ -12113,7 +12239,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="5"/>
@@ -12128,7 +12254,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="5"/>
@@ -12143,7 +12269,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="5"/>
@@ -12158,7 +12284,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="5"/>
@@ -12173,7 +12299,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="5"/>
@@ -12188,7 +12314,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="5"/>
@@ -12203,7 +12329,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="5"/>
@@ -12218,7 +12344,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="5"/>
@@ -12233,7 +12359,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="5"/>
@@ -12248,7 +12374,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="5"/>
@@ -12263,7 +12389,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="5"/>
@@ -12278,7 +12404,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="5"/>
@@ -12293,7 +12419,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="5"/>
@@ -12308,7 +12434,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="5"/>
@@ -12323,7 +12449,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="5"/>
@@ -12338,7 +12464,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="5"/>
@@ -12353,7 +12479,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="5"/>
@@ -12368,7 +12494,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="5"/>
@@ -12383,7 +12509,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="5"/>
@@ -12398,7 +12524,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="5"/>
@@ -12413,7 +12539,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="5"/>
@@ -12428,7 +12554,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="5"/>
@@ -12443,7 +12569,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="5"/>
@@ -12458,7 +12584,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="5"/>
@@ -12473,7 +12599,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="5"/>
@@ -12488,7 +12614,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="5"/>
@@ -12503,7 +12629,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="5"/>
@@ -12518,7 +12644,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="5"/>
@@ -12533,7 +12659,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="5"/>
@@ -12548,7 +12674,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="5"/>
@@ -12563,7 +12689,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="5"/>
@@ -12578,7 +12704,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="5"/>
@@ -12593,7 +12719,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="5"/>
@@ -12608,7 +12734,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="5"/>
@@ -12623,7 +12749,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="5"/>
@@ -12638,7 +12764,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="5"/>
@@ -12653,7 +12779,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="5"/>
@@ -12668,7 +12794,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="5"/>
@@ -12683,7 +12809,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="5"/>
@@ -12698,7 +12824,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="5"/>
@@ -12713,7 +12839,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="5"/>
@@ -12728,7 +12854,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="5"/>
@@ -12743,7 +12869,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="5"/>
@@ -12758,7 +12884,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="5"/>
@@ -12773,7 +12899,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="5"/>
@@ -12788,7 +12914,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="5"/>
@@ -12803,7 +12929,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="5"/>
@@ -12818,7 +12944,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="5"/>
@@ -12833,7 +12959,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="5"/>
@@ -12848,7 +12974,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="5"/>
@@ -12863,7 +12989,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="5"/>
@@ -12878,7 +13004,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="5"/>
@@ -12893,7 +13019,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="5"/>
@@ -12908,7 +13034,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="5"/>
@@ -12923,7 +13049,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="5"/>
@@ -12938,7 +13064,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="5"/>
@@ -12953,7 +13079,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="5"/>
@@ -12968,7 +13094,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="5"/>
@@ -12983,7 +13109,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="5"/>
@@ -12998,7 +13124,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="5"/>
@@ -13013,7 +13139,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="5"/>
@@ -13028,7 +13154,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="5"/>
@@ -13043,7 +13169,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="5"/>
@@ -13058,7 +13184,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="5"/>
@@ -13073,7 +13199,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="5"/>
@@ -13088,7 +13214,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="5"/>
@@ -13103,7 +13229,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="5"/>
@@ -13118,7 +13244,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="5"/>
@@ -13133,7 +13259,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="5"/>
@@ -13148,7 +13274,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="5"/>
@@ -13163,7 +13289,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="5"/>
@@ -13178,7 +13304,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="5"/>
@@ -13193,7 +13319,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="5"/>
@@ -13208,7 +13334,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="5"/>
@@ -13223,7 +13349,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="5"/>
@@ -13238,7 +13364,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="5"/>
@@ -13253,7 +13379,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="5"/>
@@ -13268,7 +13394,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="5"/>
@@ -13283,7 +13409,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="5"/>
@@ -13298,7 +13424,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="5"/>
@@ -13313,7 +13439,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="5"/>
@@ -13328,7 +13454,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="5"/>
@@ -13343,7 +13469,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="5"/>
@@ -13358,7 +13484,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="5"/>
@@ -13373,7 +13499,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="5"/>
@@ -13388,7 +13514,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="5"/>
@@ -13403,7 +13529,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="5"/>
@@ -13418,7 +13544,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="5"/>
@@ -13433,7 +13559,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="5"/>
@@ -13448,7 +13574,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="5"/>
@@ -13463,7 +13589,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="5"/>
@@ -13478,7 +13604,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="5"/>
@@ -13493,7 +13619,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="5"/>
@@ -13508,7 +13634,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="5"/>
@@ -13523,7 +13649,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="5"/>
@@ -13538,7 +13664,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="5"/>
@@ -13553,7 +13679,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="5"/>
@@ -13568,7 +13694,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="5"/>
@@ -13583,7 +13709,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="5"/>
@@ -13598,7 +13724,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="5"/>
@@ -13613,7 +13739,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="5"/>
@@ -13628,7 +13754,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="5"/>
@@ -13643,7 +13769,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="5"/>
@@ -13658,7 +13784,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="5"/>
@@ -13673,7 +13799,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="5"/>
@@ -13688,7 +13814,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="5"/>
@@ -13703,7 +13829,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="5"/>
@@ -13718,7 +13844,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="5"/>
@@ -13733,7 +13859,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="5"/>
@@ -13748,7 +13874,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="5"/>
@@ -13763,7 +13889,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="5"/>
@@ -13778,7 +13904,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="5"/>
@@ -13793,7 +13919,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="5"/>
@@ -13808,7 +13934,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="5"/>
@@ -13823,7 +13949,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="5"/>
@@ -13838,7 +13964,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="5"/>
@@ -13853,7 +13979,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="5"/>
@@ -13868,7 +13994,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="5"/>
@@ -13883,7 +14009,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="5"/>
@@ -13898,7 +14024,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="5"/>
@@ -13913,7 +14039,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="5"/>
@@ -13928,7 +14054,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="5"/>
@@ -13943,7 +14069,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="5"/>
@@ -13958,7 +14084,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="5"/>
@@ -13973,7 +14099,7 @@
         <v>true</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="5"/>
@@ -13998,20 +14124,20 @@
   <dimension ref="A1:D368"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C299" sqref="C299"/>
+      <selection activeCell="B289" sqref="B289"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.7109375" customWidth="1"/>
-    <col min="2" max="2" width="73.7109375" customWidth="1"/>
+    <col min="1" max="1" width="57.6640625" customWidth="1"/>
+    <col min="2" max="2" width="73.6640625" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
-    <col min="4" max="4" width="53.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="53.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -14022,7 +14148,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>315</v>
       </c>
@@ -14033,7 +14159,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>317</v>
       </c>
@@ -14044,7 +14170,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>320</v>
       </c>
@@ -14055,7 +14181,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>319</v>
       </c>
@@ -14066,7 +14192,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>323</v>
       </c>
@@ -14077,7 +14203,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>325</v>
       </c>
@@ -14088,7 +14214,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>327</v>
       </c>
@@ -14099,7 +14225,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>413</v>
       </c>
@@ -14110,7 +14236,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>330</v>
       </c>
@@ -14121,7 +14247,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>415</v>
       </c>
@@ -14132,7 +14258,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>333</v>
       </c>
@@ -14143,7 +14269,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>335</v>
       </c>
@@ -14154,7 +14280,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>337</v>
       </c>
@@ -14165,7 +14291,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>339</v>
       </c>
@@ -14176,7 +14302,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>341</v>
       </c>
@@ -14187,7 +14313,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>343</v>
       </c>
@@ -14198,7 +14324,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>344</v>
       </c>
@@ -14209,7 +14335,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>347</v>
       </c>
@@ -14220,7 +14346,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>348</v>
       </c>
@@ -14231,7 +14357,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>350</v>
       </c>
@@ -14242,7 +14368,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>351</v>
       </c>
@@ -14253,7 +14379,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>354</v>
       </c>
@@ -14264,7 +14390,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>355</v>
       </c>
@@ -14275,7 +14401,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>513</v>
       </c>
@@ -14286,7 +14412,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>357</v>
       </c>
@@ -14297,7 +14423,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>515</v>
       </c>
@@ -14308,7 +14434,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>359</v>
       </c>
@@ -14319,7 +14445,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>362</v>
       </c>
@@ -14330,7 +14456,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>364</v>
       </c>
@@ -14341,7 +14467,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>365</v>
       </c>
@@ -14352,7 +14478,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>368</v>
       </c>
@@ -14363,7 +14489,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>370</v>
       </c>
@@ -14374,7 +14500,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>372</v>
       </c>
@@ -14385,7 +14511,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>374</v>
       </c>
@@ -14396,7 +14522,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>491</v>
       </c>
@@ -14407,7 +14533,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>493</v>
       </c>
@@ -14418,7 +14544,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>378</v>
       </c>
@@ -14429,7 +14555,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>380</v>
       </c>
@@ -14440,7 +14566,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>494</v>
       </c>
@@ -14451,7 +14577,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>495</v>
       </c>
@@ -14462,7 +14588,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>384</v>
       </c>
@@ -14473,7 +14599,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>386</v>
       </c>
@@ -14484,7 +14610,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>388</v>
       </c>
@@ -14495,7 +14621,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>390</v>
       </c>
@@ -14506,7 +14632,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>392</v>
       </c>
@@ -14517,7 +14643,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>394</v>
       </c>
@@ -14528,7 +14654,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>396</v>
       </c>
@@ -14539,7 +14665,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>398</v>
       </c>
@@ -14550,7 +14676,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>400</v>
       </c>
@@ -14561,7 +14687,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>402</v>
       </c>
@@ -14572,7 +14698,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>404</v>
       </c>
@@ -14583,7 +14709,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>406</v>
       </c>
@@ -14594,7 +14720,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>408</v>
       </c>
@@ -14605,7 +14731,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>410</v>
       </c>
@@ -14616,7 +14742,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>416</v>
       </c>
@@ -14627,7 +14753,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>418</v>
       </c>
@@ -14638,7 +14764,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>420</v>
       </c>
@@ -14649,7 +14775,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>422</v>
       </c>
@@ -14660,7 +14786,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>424</v>
       </c>
@@ -14671,7 +14797,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>427</v>
       </c>
@@ -14682,7 +14808,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>428</v>
       </c>
@@ -14693,7 +14819,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>430</v>
       </c>
@@ -14704,7 +14830,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
         <v>496</v>
       </c>
@@ -14715,7 +14841,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
         <v>433</v>
       </c>
@@ -14726,7 +14852,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>435</v>
       </c>
@@ -14737,7 +14863,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="12" t="s">
         <v>437</v>
       </c>
@@ -14748,7 +14874,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
         <v>439</v>
       </c>
@@ -14759,7 +14885,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
         <v>441</v>
       </c>
@@ -14770,7 +14896,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>443</v>
       </c>
@@ -14781,7 +14907,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
         <v>444</v>
       </c>
@@ -14792,7 +14918,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
         <v>446</v>
       </c>
@@ -14803,7 +14929,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
         <v>448</v>
       </c>
@@ -14814,7 +14940,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>450</v>
       </c>
@@ -14825,7 +14951,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
         <v>452</v>
       </c>
@@ -14836,7 +14962,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
         <v>501</v>
       </c>
@@ -14847,7 +14973,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
         <v>502</v>
       </c>
@@ -14858,7 +14984,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="s">
         <v>503</v>
       </c>
@@ -14869,7 +14995,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>454</v>
       </c>
@@ -14880,7 +15006,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
         <v>456</v>
       </c>
@@ -14891,7 +15017,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
         <v>458</v>
       </c>
@@ -14902,7 +15028,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>460</v>
       </c>
@@ -14913,7 +15039,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
         <v>462</v>
       </c>
@@ -14924,7 +15050,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="12" t="s">
         <v>464</v>
       </c>
@@ -14935,7 +15061,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
         <v>506</v>
       </c>
@@ -14946,7 +15072,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>466</v>
       </c>
@@ -14957,7 +15083,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
         <v>467</v>
       </c>
@@ -14968,7 +15094,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="12" t="s">
         <v>468</v>
       </c>
@@ -14979,7 +15105,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>470</v>
       </c>
@@ -14990,7 +15116,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>473</v>
       </c>
@@ -15001,7 +15127,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>474</v>
       </c>
@@ -15012,7 +15138,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>475</v>
       </c>
@@ -15023,7 +15149,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="12" t="s">
         <v>477</v>
       </c>
@@ -15034,7 +15160,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="12" t="s">
         <v>479</v>
       </c>
@@ -15045,7 +15171,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>481</v>
       </c>
@@ -15056,7 +15182,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
         <v>483</v>
       </c>
@@ -15067,7 +15193,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="12" t="s">
         <v>485</v>
       </c>
@@ -15078,7 +15204,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="12" t="s">
         <v>487</v>
       </c>
@@ -15089,7 +15215,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>489</v>
       </c>
@@ -15100,13 +15226,13 @@
         <v>489</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="21"/>
       <c r="B100" s="21"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>543</v>
       </c>
@@ -15117,7 +15243,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>545</v>
       </c>
@@ -15128,7 +15254,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="12" t="s">
         <v>547</v>
       </c>
@@ -15139,7 +15265,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
         <v>549</v>
       </c>
@@ -15150,7 +15276,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>551</v>
       </c>
@@ -15161,7 +15287,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="12" t="s">
         <v>553</v>
       </c>
@@ -15172,7 +15298,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
         <v>556</v>
       </c>
@@ -15183,7 +15309,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>559</v>
       </c>
@@ -15194,7 +15320,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="12" t="s">
         <v>560</v>
       </c>
@@ -15205,7 +15331,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
         <v>561</v>
       </c>
@@ -15216,7 +15342,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
         <v>563</v>
       </c>
@@ -15227,7 +15353,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
         <v>565</v>
       </c>
@@ -15238,7 +15364,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
         <v>567</v>
       </c>
@@ -15249,7 +15375,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="12" t="s">
         <v>569</v>
       </c>
@@ -15260,7 +15386,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
         <v>571</v>
       </c>
@@ -15271,7 +15397,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
         <v>573</v>
       </c>
@@ -15282,7 +15408,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
         <v>575</v>
       </c>
@@ -15293,7 +15419,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
         <v>577</v>
       </c>
@@ -15304,7 +15430,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="12" t="s">
         <v>579</v>
       </c>
@@ -15315,7 +15441,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
         <v>581</v>
       </c>
@@ -15326,7 +15452,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="10" t="s">
         <v>584</v>
       </c>
@@ -15337,7 +15463,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
         <v>585</v>
       </c>
@@ -15348,7 +15474,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
         <v>587</v>
       </c>
@@ -15359,7 +15485,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="12" t="s">
         <v>589</v>
       </c>
@@ -15370,7 +15496,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="10" t="s">
         <v>591</v>
       </c>
@@ -15381,7 +15507,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="12" t="s">
         <v>593</v>
       </c>
@@ -15392,7 +15518,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
         <v>595</v>
       </c>
@@ -15403,7 +15529,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
         <v>597</v>
       </c>
@@ -15414,7 +15540,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
         <v>599</v>
       </c>
@@ -15425,7 +15551,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="12" t="s">
         <v>601</v>
       </c>
@@ -15436,7 +15562,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
         <v>603</v>
       </c>
@@ -15447,7 +15573,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
         <v>605</v>
       </c>
@@ -15458,7 +15584,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
         <v>607</v>
       </c>
@@ -15469,7 +15595,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="10" t="s">
         <v>609</v>
       </c>
@@ -15480,7 +15606,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
         <v>611</v>
       </c>
@@ -15491,7 +15617,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="12" t="s">
         <v>613</v>
       </c>
@@ -15502,7 +15628,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>615</v>
       </c>
@@ -15513,7 +15639,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
         <v>616</v>
       </c>
@@ -15524,7 +15650,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>617</v>
       </c>
@@ -15535,7 +15661,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="12" t="s">
         <v>620</v>
       </c>
@@ -15546,7 +15672,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>622</v>
       </c>
@@ -15557,7 +15683,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
         <v>624</v>
       </c>
@@ -15568,7 +15694,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="10" t="s">
         <v>626</v>
       </c>
@@ -15579,7 +15705,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="12" t="s">
         <v>628</v>
       </c>
@@ -15590,7 +15716,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="10" t="s">
         <v>807</v>
       </c>
@@ -15601,7 +15727,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
         <v>806</v>
       </c>
@@ -15612,7 +15738,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="10" t="s">
         <v>632</v>
       </c>
@@ -15623,7 +15749,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="12" t="s">
         <v>805</v>
       </c>
@@ -15634,7 +15760,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="12" t="s">
         <v>635</v>
       </c>
@@ -15645,7 +15771,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
         <v>637</v>
       </c>
@@ -15656,7 +15782,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
         <v>639</v>
       </c>
@@ -15667,7 +15793,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
         <v>641</v>
       </c>
@@ -15678,7 +15804,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="s">
         <v>643</v>
       </c>
@@ -15689,7 +15815,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="12" t="s">
         <v>645</v>
       </c>
@@ -15700,7 +15826,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="12" t="s">
         <v>647</v>
       </c>
@@ -15711,7 +15837,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
         <v>649</v>
       </c>
@@ -15722,7 +15848,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
         <v>651</v>
       </c>
@@ -15733,7 +15859,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
         <v>653</v>
       </c>
@@ -15744,7 +15870,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="12" t="s">
         <v>655</v>
       </c>
@@ -15755,7 +15881,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="10" t="s">
         <v>657</v>
       </c>
@@ -15766,7 +15892,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="12" t="s">
         <v>659</v>
       </c>
@@ -15777,7 +15903,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="10" t="s">
         <v>662</v>
       </c>
@@ -15788,7 +15914,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="12" t="s">
         <v>661</v>
       </c>
@@ -15799,7 +15925,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="10" t="s">
         <v>665</v>
       </c>
@@ -15810,7 +15936,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="10" t="s">
         <v>666</v>
       </c>
@@ -15821,7 +15947,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="10" t="s">
         <v>667</v>
       </c>
@@ -15832,7 +15958,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="s">
         <v>668</v>
       </c>
@@ -15843,7 +15969,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="10" t="s">
         <v>669</v>
       </c>
@@ -15854,7 +15980,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
         <v>670</v>
       </c>
@@ -15865,7 +15991,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="12" t="s">
         <v>671</v>
       </c>
@@ -15876,7 +16002,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="10" t="s">
         <v>679</v>
       </c>
@@ -15887,7 +16013,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="10" t="s">
         <v>680</v>
       </c>
@@ -15898,7 +16024,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
         <v>681</v>
       </c>
@@ -15909,7 +16035,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="12" t="s">
         <v>682</v>
       </c>
@@ -15920,7 +16046,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="12" t="s">
         <v>686</v>
       </c>
@@ -15931,7 +16057,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="10" t="s">
         <v>692</v>
       </c>
@@ -15942,7 +16068,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
         <v>693</v>
       </c>
@@ -15953,7 +16079,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="10" t="s">
         <v>688</v>
       </c>
@@ -15964,7 +16090,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="10" t="s">
         <v>690</v>
       </c>
@@ -15975,7 +16101,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="12" t="s">
         <v>696</v>
       </c>
@@ -15986,7 +16112,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="10" t="s">
         <v>698</v>
       </c>
@@ -15997,7 +16123,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="10" t="s">
         <v>700</v>
       </c>
@@ -16008,7 +16134,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="10" t="s">
         <v>702</v>
       </c>
@@ -16019,7 +16145,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="12" t="s">
         <v>811</v>
       </c>
@@ -16030,7 +16156,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="10" t="s">
         <v>703</v>
       </c>
@@ -16041,7 +16167,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="10" t="s">
         <v>705</v>
       </c>
@@ -16052,7 +16178,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="10" t="s">
         <v>707</v>
       </c>
@@ -16063,7 +16189,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="12" t="s">
         <v>708</v>
       </c>
@@ -16074,7 +16200,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="10" t="s">
         <v>710</v>
       </c>
@@ -16085,7 +16211,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="10" t="s">
         <v>712</v>
       </c>
@@ -16096,7 +16222,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
         <v>714</v>
       </c>
@@ -16107,7 +16233,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="10" t="s">
         <v>716</v>
       </c>
@@ -16118,7 +16244,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="10" t="s">
         <v>718</v>
       </c>
@@ -16129,7 +16255,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="12" t="s">
         <v>720</v>
       </c>
@@ -16140,7 +16266,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="12" t="s">
         <v>722</v>
       </c>
@@ -16151,7 +16277,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="10" t="s">
         <v>725</v>
       </c>
@@ -16162,7 +16288,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="10" t="s">
         <v>726</v>
       </c>
@@ -16173,7 +16299,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="10" t="s">
         <v>728</v>
       </c>
@@ -16184,7 +16310,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="10" t="s">
         <v>730</v>
       </c>
@@ -16195,7 +16321,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="12" t="s">
         <v>732</v>
       </c>
@@ -16206,7 +16332,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="10" t="s">
         <v>734</v>
       </c>
@@ -16217,7 +16343,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="10" t="s">
         <v>736</v>
       </c>
@@ -16228,7 +16354,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="12" t="s">
         <v>737</v>
       </c>
@@ -16239,7 +16365,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="12" t="s">
         <v>815</v>
       </c>
@@ -16250,7 +16376,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="10" t="s">
         <v>739</v>
       </c>
@@ -16261,7 +16387,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="10" t="s">
         <v>741</v>
       </c>
@@ -16272,7 +16398,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="10" t="s">
         <v>743</v>
       </c>
@@ -16283,7 +16409,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="10" t="s">
         <v>744</v>
       </c>
@@ -16294,7 +16420,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="10" t="s">
         <v>745</v>
       </c>
@@ -16305,7 +16431,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="10" t="s">
         <v>707</v>
       </c>
@@ -16316,7 +16442,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A211" s="12" t="s">
         <v>746</v>
       </c>
@@ -16327,7 +16453,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="10" t="s">
         <v>751</v>
       </c>
@@ -16338,7 +16464,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="10" t="s">
         <v>752</v>
       </c>
@@ -16349,7 +16475,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="12" t="s">
         <v>754</v>
       </c>
@@ -16360,13 +16486,13 @@
         <v>820</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="21"/>
       <c r="B215" s="21"/>
       <c r="C215" s="9"/>
       <c r="D215" s="9"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="12" t="s">
         <v>860</v>
       </c>
@@ -16377,7 +16503,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="12" t="s">
         <v>862</v>
       </c>
@@ -16388,7 +16514,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="12" t="s">
         <v>863</v>
       </c>
@@ -16399,7 +16525,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="12" t="s">
         <v>865</v>
       </c>
@@ -16410,7 +16536,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="12" t="s">
         <v>868</v>
       </c>
@@ -16421,7 +16547,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="12" t="s">
         <v>869</v>
       </c>
@@ -16432,7 +16558,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="12" t="s">
         <v>871</v>
       </c>
@@ -16443,7 +16569,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="12" t="s">
         <v>872</v>
       </c>
@@ -16454,7 +16580,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="12" t="s">
         <v>874</v>
       </c>
@@ -16465,7 +16591,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="12" t="s">
         <v>876</v>
       </c>
@@ -16476,7 +16602,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="10" t="s">
         <v>183</v>
       </c>
@@ -16487,7 +16613,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="10" t="s">
         <v>942</v>
       </c>
@@ -16498,7 +16624,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="10" t="s">
         <v>943</v>
       </c>
@@ -16509,7 +16635,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="12" t="s">
         <v>878</v>
       </c>
@@ -16520,7 +16646,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="10" t="s">
         <v>946</v>
       </c>
@@ -16531,7 +16657,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="10" t="s">
         <v>947</v>
       </c>
@@ -16542,7 +16668,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="10" t="s">
         <v>948</v>
       </c>
@@ -16553,7 +16679,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="12" t="s">
         <v>880</v>
       </c>
@@ -16564,7 +16690,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
         <v>881</v>
       </c>
@@ -16575,7 +16701,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="12" t="s">
         <v>883</v>
       </c>
@@ -16586,7 +16712,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="12" t="s">
         <v>885</v>
       </c>
@@ -16597,7 +16723,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="10" t="s">
         <v>953</v>
       </c>
@@ -16608,7 +16734,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="10" t="s">
         <v>888</v>
       </c>
@@ -16619,7 +16745,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="12" t="s">
         <v>887</v>
       </c>
@@ -16630,7 +16756,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="12" t="s">
         <v>892</v>
       </c>
@@ -16641,7 +16767,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="12" t="s">
         <v>894</v>
       </c>
@@ -16652,7 +16778,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="12" t="s">
         <v>896</v>
       </c>
@@ -16663,7 +16789,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="12" t="s">
         <v>897</v>
       </c>
@@ -16674,7 +16800,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="10" t="s">
         <v>935</v>
       </c>
@@ -16685,7 +16811,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="10" t="s">
         <v>934</v>
       </c>
@@ -16696,7 +16822,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="12" t="s">
         <v>905</v>
       </c>
@@ -16707,7 +16833,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="10" t="s">
         <v>906</v>
       </c>
@@ -16718,7 +16844,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="10" t="s">
         <v>908</v>
       </c>
@@ -16729,7 +16855,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="10" t="s">
         <v>910</v>
       </c>
@@ -16740,7 +16866,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="12" t="s">
         <v>912</v>
       </c>
@@ -16751,7 +16877,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="10" t="s">
         <v>968</v>
       </c>
@@ -16762,7 +16888,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="10" t="s">
         <v>938</v>
       </c>
@@ -16773,7 +16899,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="12" t="s">
         <v>915</v>
       </c>
@@ -16784,7 +16910,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="12" t="s">
         <v>955</v>
       </c>
@@ -16795,7 +16921,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="12" t="s">
         <v>918</v>
       </c>
@@ -16806,7 +16932,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="12" t="s">
         <v>956</v>
       </c>
@@ -16817,13 +16943,13 @@
         <v>956</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="21"/>
       <c r="B257" s="21"/>
       <c r="C257" s="9"/>
       <c r="D257" s="9"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="10" t="s">
         <v>972</v>
       </c>
@@ -16831,10 +16957,10 @@
         <v>973</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="10" t="s">
         <v>974</v>
       </c>
@@ -16845,7 +16971,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="10" t="s">
         <v>976</v>
       </c>
@@ -16856,7 +16982,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="12" t="s">
         <v>978</v>
       </c>
@@ -16867,7 +16993,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="12" t="s">
         <v>979</v>
       </c>
@@ -16878,7 +17004,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="10" t="s">
         <v>980</v>
       </c>
@@ -16886,10 +17012,10 @@
         <v>983</v>
       </c>
       <c r="C263" s="26" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="12" t="s">
         <v>984</v>
       </c>
@@ -16900,7 +17026,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="12" t="s">
         <v>985</v>
       </c>
@@ -16911,7 +17037,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="10" t="s">
         <v>986</v>
       </c>
@@ -16919,10 +17045,10 @@
         <v>989</v>
       </c>
       <c r="C266" s="26" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="10" t="s">
         <v>990</v>
       </c>
@@ -16930,21 +17056,21 @@
         <v>991</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="10" t="s">
         <v>992</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="10" t="s">
         <v>993</v>
       </c>
@@ -16952,10 +17078,10 @@
         <v>994</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="12" t="s">
         <v>995</v>
       </c>
@@ -16966,7 +17092,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="12" t="s">
         <v>996</v>
       </c>
@@ -16977,7 +17103,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="10" t="s">
         <v>997</v>
       </c>
@@ -16985,10 +17111,10 @@
         <v>1000</v>
       </c>
       <c r="C272" s="19" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="10" t="s">
         <v>1001</v>
       </c>
@@ -16999,7 +17125,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="10" t="s">
         <v>1003</v>
       </c>
@@ -17007,10 +17133,10 @@
         <v>1004</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="10" t="s">
         <v>1005</v>
       </c>
@@ -17021,7 +17147,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="10" t="s">
         <v>1007</v>
       </c>
@@ -17029,10 +17155,10 @@
         <v>1008</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="10" t="s">
         <v>1009</v>
       </c>
@@ -17040,10 +17166,10 @@
         <v>1010</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="10" t="s">
         <v>1011</v>
       </c>
@@ -17054,7 +17180,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="12" t="s">
         <v>1013</v>
       </c>
@@ -17062,10 +17188,10 @@
         <v>1016</v>
       </c>
       <c r="C279" s="24" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="12" t="s">
         <v>1014</v>
       </c>
@@ -17076,7 +17202,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="10" t="s">
         <v>1015</v>
       </c>
@@ -17084,10 +17210,10 @@
         <v>1018</v>
       </c>
       <c r="C281" s="26" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="10" t="s">
         <v>1019</v>
       </c>
@@ -17098,7 +17224,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="10" t="s">
         <v>1021</v>
       </c>
@@ -17106,10 +17232,10 @@
         <v>1022</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="10" t="s">
         <v>1023</v>
       </c>
@@ -17120,7 +17246,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="10" t="s">
         <v>1025</v>
       </c>
@@ -17131,7 +17257,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="10" t="s">
         <v>1027</v>
       </c>
@@ -17142,7 +17268,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="10" t="s">
         <v>1029</v>
       </c>
@@ -17150,10 +17276,10 @@
         <v>1030</v>
       </c>
       <c r="C287" s="8" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="10" t="s">
         <v>1031</v>
       </c>
@@ -17161,10 +17287,10 @@
         <v>1034</v>
       </c>
       <c r="C288" s="8" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="12" t="s">
         <v>1032</v>
       </c>
@@ -17172,10 +17298,10 @@
         <v>1033</v>
       </c>
       <c r="C289" s="24" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="12" t="s">
         <v>1035</v>
       </c>
@@ -17186,7 +17312,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="10" t="s">
         <v>1037</v>
       </c>
@@ -17194,10 +17320,10 @@
         <v>1038</v>
       </c>
       <c r="C291" s="26" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="10" t="s">
         <v>1039</v>
       </c>
@@ -17208,7 +17334,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="12" t="s">
         <v>1041</v>
       </c>
@@ -17216,10 +17342,10 @@
         <v>1042</v>
       </c>
       <c r="C293" s="24" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="12" t="s">
         <v>1043</v>
       </c>
@@ -17230,396 +17356,396 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="10" t="s">
         <v>1045</v>
       </c>
       <c r="B295" s="10" t="s">
         <v>1046</v>
       </c>
-      <c r="C295" s="26" t="s">
+      <c r="C295" s="34" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" s="10" t="s">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" s="12" t="s">
         <v>1047</v>
       </c>
-      <c r="B296" s="10" t="s">
+      <c r="B296" s="13" t="s">
         <v>1050</v>
       </c>
-      <c r="C296" s="8" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="10" t="s">
+      <c r="C296" s="24" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" s="12" t="s">
         <v>1048</v>
       </c>
-      <c r="B297" s="10" t="s">
+      <c r="B297" s="13" t="s">
         <v>1051</v>
       </c>
-      <c r="C297" s="8" t="s">
+      <c r="C297" s="25" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="10" t="s">
         <v>1049</v>
       </c>
-      <c r="B298" s="10" t="s">
+      <c r="B298" s="14" t="s">
         <v>1052</v>
       </c>
-      <c r="C298" s="8" t="s">
+      <c r="C298" s="26" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="10"/>
       <c r="B299" s="10"/>
       <c r="C299" s="23"/>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="10"/>
       <c r="B300" s="10"/>
       <c r="C300" s="23"/>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="10"/>
       <c r="B301" s="10"/>
       <c r="C301" s="23"/>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="10"/>
       <c r="B302" s="10"/>
       <c r="C302" s="23"/>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="10"/>
       <c r="B303" s="10"/>
       <c r="C303" s="23"/>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="10"/>
       <c r="B304" s="10"/>
       <c r="C304" s="23"/>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="10"/>
       <c r="B305" s="10"/>
       <c r="C305" s="23"/>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="10"/>
       <c r="B306" s="10"/>
       <c r="C306" s="23"/>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="10"/>
       <c r="B307" s="10"/>
       <c r="C307" s="23"/>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="10"/>
       <c r="B308" s="10"/>
       <c r="C308" s="23"/>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="10"/>
       <c r="B309" s="10"/>
       <c r="C309" s="23"/>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="10"/>
       <c r="B310" s="10"/>
       <c r="C310" s="23"/>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="10"/>
       <c r="B311" s="10"/>
       <c r="C311" s="23"/>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="10"/>
       <c r="B312" s="10"/>
       <c r="C312" s="23"/>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="10"/>
       <c r="B313" s="10"/>
       <c r="C313" s="23"/>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="10"/>
       <c r="B314" s="10"/>
       <c r="C314" s="23"/>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="10"/>
       <c r="B315" s="10"/>
       <c r="C315" s="23"/>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="10"/>
       <c r="B316" s="10"/>
       <c r="C316" s="23"/>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="10"/>
       <c r="B317" s="10"/>
       <c r="C317" s="23"/>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="10"/>
       <c r="B318" s="10"/>
       <c r="C318" s="23"/>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="10"/>
       <c r="B319" s="10"/>
       <c r="C319" s="23"/>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="10"/>
       <c r="B320" s="10"/>
       <c r="C320" s="23"/>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="10"/>
       <c r="B321" s="10"/>
       <c r="C321" s="23"/>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="10"/>
       <c r="B322" s="10"/>
       <c r="C322" s="23"/>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="10"/>
       <c r="B323" s="10"/>
       <c r="C323" s="23"/>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="10"/>
       <c r="B324" s="10"/>
       <c r="C324" s="23"/>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="10"/>
       <c r="B325" s="10"/>
       <c r="C325" s="23"/>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="10"/>
       <c r="B326" s="10"/>
       <c r="C326" s="23"/>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="10"/>
       <c r="B327" s="10"/>
       <c r="C327" s="23"/>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="10"/>
       <c r="B328" s="10"/>
       <c r="C328" s="23"/>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="10"/>
       <c r="B329" s="10"/>
       <c r="C329" s="23"/>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="10"/>
       <c r="B330" s="10"/>
       <c r="C330" s="23"/>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="10"/>
       <c r="B331" s="10"/>
       <c r="C331" s="23"/>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="10"/>
       <c r="B332" s="10"/>
       <c r="C332" s="23"/>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="10"/>
       <c r="B333" s="10"/>
       <c r="C333" s="23"/>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="10"/>
       <c r="B334" s="10"/>
       <c r="C334" s="23"/>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="10"/>
       <c r="B335" s="10"/>
       <c r="C335" s="23"/>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="10"/>
       <c r="B336" s="10"/>
       <c r="C336" s="23"/>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="10"/>
       <c r="B337" s="10"/>
       <c r="C337" s="23"/>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="10"/>
       <c r="B338" s="10"/>
       <c r="C338" s="23"/>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="10"/>
       <c r="B339" s="10"/>
       <c r="C339" s="23"/>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="10"/>
       <c r="B340" s="10"/>
       <c r="C340" s="23"/>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="10"/>
       <c r="B341" s="10"/>
       <c r="C341" s="23"/>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="10"/>
       <c r="B342" s="10"/>
       <c r="C342" s="23"/>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="10"/>
       <c r="B343" s="10"/>
       <c r="C343" s="23"/>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="10"/>
       <c r="B344" s="10"/>
       <c r="C344" s="23"/>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="10"/>
       <c r="B345" s="10"/>
       <c r="C345" s="23"/>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="10"/>
       <c r="B346" s="10"/>
       <c r="C346" s="23"/>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="10"/>
       <c r="B347" s="10"/>
       <c r="C347" s="23"/>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="10"/>
       <c r="B348" s="10"/>
       <c r="C348" s="23"/>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="10"/>
       <c r="B349" s="10"/>
       <c r="C349" s="23"/>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="10"/>
       <c r="B350" s="10"/>
       <c r="C350" s="23"/>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="10"/>
       <c r="B351" s="10"/>
       <c r="C351" s="23"/>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="10"/>
       <c r="B352" s="10"/>
       <c r="C352" s="23"/>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="10"/>
       <c r="B353" s="10"/>
       <c r="C353" s="23"/>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="10"/>
       <c r="B354" s="10"/>
       <c r="C354" s="23"/>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="10"/>
       <c r="B355" s="10"/>
       <c r="C355" s="23"/>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="10"/>
       <c r="B356" s="10"/>
       <c r="C356" s="23"/>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="10"/>
       <c r="B357" s="10"/>
       <c r="C357" s="23"/>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="10"/>
       <c r="B358" s="10"/>
       <c r="C358" s="23"/>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="10"/>
       <c r="B359" s="10"/>
       <c r="C359" s="23"/>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="10"/>
       <c r="B360" s="10"/>
       <c r="C360" s="23"/>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="10"/>
       <c r="B361" s="10"/>
       <c r="C361" s="23"/>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="10"/>
       <c r="B362" s="10"/>
       <c r="C362" s="23"/>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="10"/>
       <c r="B363" s="10"/>
       <c r="C363" s="23"/>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="10"/>
       <c r="B364" s="10"/>
       <c r="C364" s="23"/>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="10"/>
       <c r="B365" s="10"/>
       <c r="C365" s="23"/>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="10"/>
       <c r="B366" s="10"/>
       <c r="C366" s="23"/>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="10"/>
       <c r="B367" s="10"/>
       <c r="C367" s="23"/>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="10"/>
       <c r="B368" s="10"/>
       <c r="C368" s="23"/>
@@ -17632,452 +17758,683 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408249BA-B587-4090-9C66-27B099C0148E}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.140625" customWidth="1"/>
-    <col min="2" max="2" width="62.5703125" customWidth="1"/>
-    <col min="3" max="3" width="58.42578125" customWidth="1"/>
+    <col min="1" max="1" width="56.109375" customWidth="1"/>
+    <col min="2" max="2" width="62.5546875" customWidth="1"/>
+    <col min="3" max="3" width="58.44140625" customWidth="1"/>
+    <col min="5" max="5" width="46" customWidth="1"/>
+    <col min="6" max="6" width="54.6640625" customWidth="1"/>
+    <col min="7" max="7" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="E1" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>756</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B2" s="12" t="s">
         <v>757</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C2" s="29" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="E2" s="37" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>758</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B3" s="10" t="s">
         <v>759</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C3" s="27" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="E3" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>760</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B4" s="10" t="s">
         <v>852</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C4" s="28" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="E4" s="7" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>761</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B5" s="10" t="s">
         <v>762</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C5" s="28" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="E5" s="38" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>763</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B6" s="12" t="s">
         <v>853</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C6" s="19" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="E6" s="39" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>847</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B7" s="12" t="s">
         <v>846</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C7" s="29" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="E7" s="7" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B8" s="10" t="s">
         <v>765</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C8" s="27" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="E8" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>766</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B9" s="10" t="s">
         <v>767</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C9" s="28" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="E9" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>768</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>769</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C10" s="28" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="E10" s="7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>771</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B11" s="12" t="s">
         <v>770</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C11" s="19" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="E11" s="10" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>772</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B12" s="10" t="s">
         <v>773</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C12" s="27" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="E12" s="12" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>774</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B13" s="10" t="s">
         <v>775</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C13" s="28" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="E13" s="12" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>776</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B14" s="12" t="s">
         <v>777</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C14" s="19" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="E14" s="12" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>778</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B15" s="10" t="s">
         <v>851</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C15" s="30" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="E15" s="10" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>779</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B16" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C16" s="31" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>780</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B17" s="10" t="s">
         <v>781</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C17" s="31" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>782</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B18" s="12" t="s">
         <v>783</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C18" s="32" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>784</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B19" s="10" t="s">
         <v>785</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C19" s="30" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
         <v>786</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>787</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C20" s="31" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
         <v>788</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B21" s="10" t="s">
         <v>789</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C21" s="31" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
         <v>790</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B22" s="10" t="s">
         <v>791</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C22" s="31" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
         <v>792</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B23" s="12" t="s">
         <v>793</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C23" s="32" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B24" s="10" t="s">
         <v>794</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C24" s="30" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
         <v>796</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B25" s="10" t="s">
         <v>797</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C25" s="31" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
         <v>798</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B26" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C26" s="31" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
         <v>800</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B27" s="12" t="s">
         <v>801</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C27" s="32" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
         <v>920</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B28" s="12" t="s">
         <v>921</v>
       </c>
-      <c r="C27" s="22"/>
-    </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="C28" s="22"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
         <v>922</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B29" s="12" t="s">
         <v>923</v>
       </c>
-      <c r="C28" s="22"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="C29" s="22"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="23"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
         <v>924</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B30" s="10" t="s">
         <v>925</v>
       </c>
-      <c r="C29" s="22"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="C30" s="22"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="23"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
         <v>926</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B31" s="10" t="s">
         <v>927</v>
       </c>
-      <c r="C30" s="22"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="C31" s="22"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="23"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>928</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B32" s="10" t="s">
         <v>929</v>
       </c>
-      <c r="C31" s="22"/>
-    </row>
-    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="C32" s="22"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="23"/>
+    </row>
+    <row r="33" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
         <v>930</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B33" s="12" t="s">
         <v>931</v>
       </c>
-      <c r="C32" s="22"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
       <c r="C33" s="22"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="23"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="22"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="23"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="22"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="23"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="22"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="23"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="22"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="23"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="22"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="23"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="10"/>
+      <c r="C39" s="22"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="23"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10" t="s">
         <v>932</v>
       </c>
-      <c r="C39" s="22"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
       <c r="C40" s="22"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="23"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="22"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="23"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="22"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="23"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="22"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="23"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="22"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="23"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="22"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="23"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="22"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="23"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="22"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="23"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="22"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="23"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="22"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="23"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="22"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="23"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="22"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="23"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="23"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/english.xlsx
+++ b/english.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\espopov\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CAE01B-432D-4EE2-9AEC-ADE53D4F5308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF775F76-C1C7-4FA8-8AF5-03B34D6FD043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="dualingo" sheetId="3" r:id="rId2"/>
     <sheet name="histories" sheetId="2" r:id="rId3"/>
     <sheet name="technical documentation" sheetId="4" r:id="rId4"/>
+    <sheet name="BrickleBerry" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,12 +67,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="C272" authorId="0" shapeId="0" xr:uid="{35F1BA32-56A0-4179-BE2B-AFFD8186AD72}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Попов Егор Сергеевич:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="1102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="1250">
   <si>
     <t>word</t>
   </si>
@@ -1552,9 +1577,6 @@
     <t>мы рассматривали вариант полета на самолете, но лететь с тремя детьми очень дорого</t>
   </si>
   <si>
-    <t>it takes more time and it is more tiring, but we can to stop and visit places on the way</t>
-  </si>
-  <si>
     <t>our luggage</t>
   </si>
   <si>
@@ -1597,18 +1619,12 @@
     <t>У вас есть какие-нибудь планы на весенние каникулы?</t>
   </si>
   <si>
-    <t>Grand Canyon is one of the seven wonders of the world</t>
-  </si>
-  <si>
     <t>a great time</t>
   </si>
   <si>
     <t>it is very expensive</t>
   </si>
   <si>
-    <t>we considered flying, but it is very expensive to fly with three kids</t>
-  </si>
-  <si>
     <t>кроме того, когда мы доберемся до местоназначения</t>
   </si>
   <si>
@@ -1624,36 +1640,21 @@
     <t>we would have to rent a car</t>
   </si>
   <si>
-    <t>besides, when we get to our destination we would have to rent a car</t>
-  </si>
-  <si>
     <t>it is not very convinient</t>
   </si>
   <si>
-    <t>it is not very convinient and it is not cheap either</t>
-  </si>
-  <si>
-    <t>it takes more time and it is more tiring, but we can stop and to visit places on the way</t>
-  </si>
-  <si>
     <t>there is not breakfast provided</t>
   </si>
   <si>
     <t>we always plan on leaving early in the morning</t>
   </si>
   <si>
-    <t>we moved to the USA not that logn ago</t>
-  </si>
-  <si>
     <t>it is more tiirig</t>
   </si>
   <si>
     <t>we have a mini-van</t>
   </si>
   <si>
-    <t>we have a mini-van that has enough space for us and our luggage</t>
-  </si>
-  <si>
     <t>eating our is not very healthy and can be also very expensive</t>
   </si>
   <si>
@@ -2539,15 +2540,9 @@
     <t>an american businessman</t>
   </si>
   <si>
-    <t>an american businessman was on vacation in Mexico</t>
-  </si>
-  <si>
     <t>he was on beach</t>
   </si>
   <si>
-    <t>every day he was on beach</t>
-  </si>
-  <si>
     <t>he could not hepl but notice</t>
   </si>
   <si>
@@ -2578,9 +2573,6 @@
     <t>then you can sell the extra fish and buy a bigger boat - continued businessman</t>
   </si>
   <si>
-    <t>he would fishing for a couple of hours and then return home with some fish</t>
-  </si>
-  <si>
     <t>also he would give some fish his neighbours</t>
   </si>
   <si>
@@ -2776,18 +2768,9 @@
     <t>здравствуйте мэм</t>
   </si>
   <si>
-    <t>sure, here it is</t>
-  </si>
-  <si>
-    <t>спасибо. Вы сдаете багаж сегодня?</t>
-  </si>
-  <si>
     <t>хорошо, ваша сумка будет передана автоматически в Амстердаме</t>
   </si>
   <si>
-    <t>do you have any carry-on bags?</t>
-  </si>
-  <si>
     <t>can you tell me where security is?</t>
   </si>
   <si>
@@ -2809,9 +2792,6 @@
     <t>и поверните на лево</t>
   </si>
   <si>
-    <t>yes, just head straight down to hall and turn left</t>
-  </si>
-  <si>
     <t>да, просто пройдите прямо по этому коридору и поверните на лево</t>
   </si>
   <si>
@@ -2872,9 +2852,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>hello ma'am</t>
-  </si>
-  <si>
     <t>where security is?</t>
   </si>
   <si>
@@ -2926,12 +2903,6 @@
     <t>ваша сумка будет</t>
   </si>
   <si>
-    <t>great, could you please place it on the scale?</t>
-  </si>
-  <si>
-    <t>sure, here you go</t>
-  </si>
-  <si>
     <t>do you have any items that need to be declaerd?</t>
   </si>
   <si>
@@ -2947,45 +2918,12 @@
     <t>repeat</t>
   </si>
   <si>
-    <t>hi, I need to check in for my flight to new york</t>
-  </si>
-  <si>
-    <t>of course, may I see your passport?</t>
-  </si>
-  <si>
-    <t>thank you, are you check in any luggage today?</t>
-  </si>
-  <si>
-    <t>thank you, your bag is within weight limit</t>
-  </si>
-  <si>
-    <t>alright, your bag will be transferred automatically in Amstedam</t>
-  </si>
-  <si>
-    <t>that is not a problem</t>
-  </si>
-  <si>
-    <t>do you have any items that need to be declared, or any special requests for you flight?</t>
-  </si>
-  <si>
-    <t>okey, here are you boarding passes</t>
-  </si>
-  <si>
     <t>just head straight down the hall</t>
   </si>
   <si>
-    <t>yes, just head straight down the hall and turn left</t>
-  </si>
-  <si>
     <t>you'll see signs</t>
   </si>
   <si>
-    <t>you'll see signs for the security checkpoint</t>
-  </si>
-  <si>
-    <t>thanks a lot for your help</t>
-  </si>
-  <si>
     <t>безопастного пути</t>
   </si>
   <si>
@@ -3232,15 +3170,9 @@
     <t>мы всегда с нетерпением ждем их следующего визита</t>
   </si>
   <si>
-    <t>I live with my wife Susan</t>
-  </si>
-  <si>
     <t>we live in small house</t>
   </si>
   <si>
-    <t>we love spending time in our garden</t>
-  </si>
-  <si>
     <t>моя жена ухаживает за цветами</t>
   </si>
   <si>
@@ -3265,102 +3197,6 @@
     <t>go</t>
   </si>
   <si>
-    <t>although it borrows ideas from existing languages</t>
-  </si>
-  <si>
-    <t>хотя он заимствует идеи из существующих языков</t>
-  </si>
-  <si>
-    <t>it has unusual properties</t>
-  </si>
-  <si>
-    <t>он имеет необычные свойства</t>
-  </si>
-  <si>
-    <t>that make effective Go programs</t>
-  </si>
-  <si>
-    <t>которые делают эффективные программы Go</t>
-  </si>
-  <si>
-    <t>different in character from programs written in its relatives</t>
-  </si>
-  <si>
-    <t>отличными по своему характеру от программ, написанных на его аналогах</t>
-  </si>
-  <si>
-    <t>it has unusual properties that make effective Go programs different in character from programs written in its relatives</t>
-  </si>
-  <si>
-    <t>он имеет необычные свойства, которые делают эффективные программы на Go отличными по своему характеру  от программ, написанных на его аналогах</t>
-  </si>
-  <si>
-    <t>a straightforward translation</t>
-  </si>
-  <si>
-    <t>простой перевод</t>
-  </si>
-  <si>
-    <t>of a C++ or Java program into Go</t>
-  </si>
-  <si>
-    <t>С++ или Java программы в Go</t>
-  </si>
-  <si>
-    <t>is unlikely to produce</t>
-  </si>
-  <si>
-    <t>наврядли  приведет к</t>
-  </si>
-  <si>
-    <t>a satisfactory result</t>
-  </si>
-  <si>
-    <t>удовлетворительному результату</t>
-  </si>
-  <si>
-    <t>a straightforward translation of a C++ or Java program into Go is unlikely to produce a satisfactory result</t>
-  </si>
-  <si>
-    <t>простой перевод C++ или Java программы в Go наврятли приведет к удовлетворительному результату</t>
-  </si>
-  <si>
-    <t>it's also impotant to know</t>
-  </si>
-  <si>
-    <t>the established conventions</t>
-  </si>
-  <si>
-    <t>общепринятые правила</t>
-  </si>
-  <si>
-    <t>так же важно знать</t>
-  </si>
-  <si>
-    <t>for programmin in Go</t>
-  </si>
-  <si>
-    <t>для программирования на Go</t>
-  </si>
-  <si>
-    <t>it's also important to know the esteblished conventions for programming in Go</t>
-  </si>
-  <si>
-    <t>так же важно знать общепринятые правила программирования на Go</t>
-  </si>
-  <si>
-    <t>weekeds with my grandkids</t>
-  </si>
-  <si>
-    <t>we are both retired, so we have a lot of free time</t>
-  </si>
-  <si>
-    <t>our grandchildren, Mia and Jake, come to visit us every weekeds</t>
-  </si>
-  <si>
-    <t>they love to spend time in our garden</t>
-  </si>
-  <si>
     <t>they water plants and pick raspberries and tomatoes</t>
   </si>
   <si>
@@ -3377,6 +3213,639 @@
   </si>
   <si>
     <t>we are a little sad when it is time for the kids to go home</t>
+  </si>
+  <si>
+    <t>спасибо. Вы регестрируете какой-нибудь багаж сегодня?</t>
+  </si>
+  <si>
+    <t>thak you</t>
+  </si>
+  <si>
+    <t>that's not a problem.</t>
+  </si>
+  <si>
+    <t>yes, I have this backpack.</t>
+  </si>
+  <si>
+    <t>alright, your bag will be transferred automatically in Amsterdam.</t>
+  </si>
+  <si>
+    <t>do your have any carry-on bags?</t>
+  </si>
+  <si>
+    <t>do you have any items that need to declared, or special requests for your flight?</t>
+  </si>
+  <si>
+    <t>no, nothing special.</t>
+  </si>
+  <si>
+    <t>thank you very much.</t>
+  </si>
+  <si>
+    <t>yes, just head straight down this hall and turn left</t>
+  </si>
+  <si>
+    <t>yes, just head straight down this hall and turn left.</t>
+  </si>
+  <si>
+    <t>okey, here are your boading passess.</t>
+  </si>
+  <si>
+    <t>your flight to Amsterdam boarding at gate five.</t>
+  </si>
+  <si>
+    <t>you'll see sings for the security checkpoint.</t>
+  </si>
+  <si>
+    <t>thanks a lot for you help.</t>
+  </si>
+  <si>
+    <t>you are welcome.</t>
+  </si>
+  <si>
+    <t>have a safe trip.</t>
+  </si>
+  <si>
+    <t>when you work with your best friend it is not even like work</t>
+  </si>
+  <si>
+    <t>it takes more time and it is more tiring, but we can stop and visit places on the way</t>
+  </si>
+  <si>
+    <t>Of course. May I see your passport please?</t>
+  </si>
+  <si>
+    <t>Sure. Here it is.</t>
+  </si>
+  <si>
+    <t>Thank you. Are you checking in any luggage today?</t>
+  </si>
+  <si>
+    <t>Great. Could you please place it on the scale?</t>
+  </si>
+  <si>
+    <t>Sure. Here you go.</t>
+  </si>
+  <si>
+    <t>Weekends with my grandkids.</t>
+  </si>
+  <si>
+    <t>My name is Rick.</t>
+  </si>
+  <si>
+    <t>I live with my wife, Susan.</t>
+  </si>
+  <si>
+    <t>We love spending time in our garden.</t>
+  </si>
+  <si>
+    <t>I take care of the fruits and vegetables.</t>
+  </si>
+  <si>
+    <t>Our grandchildren, Mia and Jake, come to visit us every weekends.</t>
+  </si>
+  <si>
+    <t>We are always so happy to see them.</t>
+  </si>
+  <si>
+    <t>My wife takes care of the flowers.</t>
+  </si>
+  <si>
+    <t>he would bring fish home and give his wife to cook for lunch</t>
+  </si>
+  <si>
+    <t>Checking-in</t>
+  </si>
+  <si>
+    <t>Hello ma'am.</t>
+  </si>
+  <si>
+    <t>How can I help you today?</t>
+  </si>
+  <si>
+    <t>Hi! I need to check in for my flight to New York.</t>
+  </si>
+  <si>
+    <t>Yes, I have one suitcase.</t>
+  </si>
+  <si>
+    <t>Thank you. Your bag is within weight limit.</t>
+  </si>
+  <si>
+    <t>We live in small house, but we have a big garden.</t>
+  </si>
+  <si>
+    <t>We are both retired, so we have a lot of free time.</t>
+  </si>
+  <si>
+    <t>They love to spend time in the garden.</t>
+  </si>
+  <si>
+    <t>They love to see the plants grow every week.</t>
+  </si>
+  <si>
+    <t>We moved to the USA not that long ago</t>
+  </si>
+  <si>
+    <t>Spring break is a great time to go on vacation</t>
+  </si>
+  <si>
+    <t>We considered flying, but it is too expensive to fly with three kids</t>
+  </si>
+  <si>
+    <t>It is always particularly expensive to fly durring holidays and school breaks</t>
+  </si>
+  <si>
+    <t>Besides, when we get to our destination, we would have to rent a car</t>
+  </si>
+  <si>
+    <t>Driving is a much better option</t>
+  </si>
+  <si>
+    <t>It takes more time and it is more tiring, but we can stop and visit places on the way</t>
+  </si>
+  <si>
+    <t>We have a mini-ven, that has enough space for us and our luggage</t>
+  </si>
+  <si>
+    <t>We have to cook our own meals</t>
+  </si>
+  <si>
+    <t>There are many places we want to visit</t>
+  </si>
+  <si>
+    <t>Grand Canyon is one of the seven natural wonders of the world</t>
+  </si>
+  <si>
+    <t>That isn't convinient and it isn't cheap either</t>
+  </si>
+  <si>
+    <t>We booked a small house close to our destination</t>
+  </si>
+  <si>
+    <t>It is called "Bed and Breakfast", but there is no breakfast provided</t>
+  </si>
+  <si>
+    <t>An american businessman was on vacation in Mexico</t>
+  </si>
+  <si>
+    <t>Every day he was on the beach</t>
+  </si>
+  <si>
+    <t>He couldn't help, but notice the routine of a local fisherman</t>
+  </si>
+  <si>
+    <t>Meat Nicolai</t>
+  </si>
+  <si>
+    <t>Hi my name is Nicolai.</t>
+  </si>
+  <si>
+    <t>You can call me Nick.</t>
+  </si>
+  <si>
+    <t>I am Peter's father.</t>
+  </si>
+  <si>
+    <t>Привет, меня зовут Николай.</t>
+  </si>
+  <si>
+    <t>Вы можете звать меня Ник.</t>
+  </si>
+  <si>
+    <t>Я отец Петра.</t>
+  </si>
+  <si>
+    <t>I live in New York with my wife.</t>
+  </si>
+  <si>
+    <t>We live pretty close to Peter, just a couple of hours' drive.</t>
+  </si>
+  <si>
+    <t>Я живу в Нью-Йорке с своей женой.</t>
+  </si>
+  <si>
+    <t>we live pretty close to Peter</t>
+  </si>
+  <si>
+    <t>just a couple of hours's drive</t>
+  </si>
+  <si>
+    <t>мы живем довольно близко к Петру</t>
+  </si>
+  <si>
+    <t>всего в паре часов езды</t>
+  </si>
+  <si>
+    <t>Мы живет довольно близко к Петру, всего в паре часов езды.</t>
+  </si>
+  <si>
+    <t>he doesn't like big cities</t>
+  </si>
+  <si>
+    <t>so he lives in the suburbs</t>
+  </si>
+  <si>
+    <t>He doesn't like big cities, so he live in the suburbs.</t>
+  </si>
+  <si>
+    <t>он не любит большие города</t>
+  </si>
+  <si>
+    <t>поэтому он живет в пригороде</t>
+  </si>
+  <si>
+    <t>Он не любит большие города, поэтому он живет в пригороде.</t>
+  </si>
+  <si>
+    <t>I love big cities</t>
+  </si>
+  <si>
+    <t>especially New York</t>
+  </si>
+  <si>
+    <t>I love big cities, especially New York.</t>
+  </si>
+  <si>
+    <t>я люблю большие города</t>
+  </si>
+  <si>
+    <t>особенно Нью-Йорк</t>
+  </si>
+  <si>
+    <t>Я люблю большие города особенно Нью-Йорк.</t>
+  </si>
+  <si>
+    <t>There are so many things to do here.</t>
+  </si>
+  <si>
+    <t>There are theaters, museums, and fancy stores.</t>
+  </si>
+  <si>
+    <t>Здесь так много, чем можно заняться.</t>
+  </si>
+  <si>
+    <t>Здесь есть театры, музеи и модные магазины.</t>
+  </si>
+  <si>
+    <t>it is very busy</t>
+  </si>
+  <si>
+    <t>but I don't mind it</t>
+  </si>
+  <si>
+    <t>It is very busy, but I don't mind it.</t>
+  </si>
+  <si>
+    <t>он очень суетливый</t>
+  </si>
+  <si>
+    <t>но мне это не мешает</t>
+  </si>
+  <si>
+    <t>Он очень суетливый, но мне это не мешает.</t>
+  </si>
+  <si>
+    <t>we live in the very quiet neighbourhood</t>
+  </si>
+  <si>
+    <t>мы живем в очень тихом районе</t>
+  </si>
+  <si>
+    <t>away from all the noise</t>
+  </si>
+  <si>
+    <t>вдали от всего шума</t>
+  </si>
+  <si>
+    <t>We live in a very quiet neighbourhood, away from all the noise.</t>
+  </si>
+  <si>
+    <t>Мы живем в очень тихом районе, вдали от всего шума.</t>
+  </si>
+  <si>
+    <t>Where do you live?</t>
+  </si>
+  <si>
+    <t>What do you like about your city?</t>
+  </si>
+  <si>
+    <t>Let me know in the comments.</t>
+  </si>
+  <si>
+    <t>А где живете вы?</t>
+  </si>
+  <si>
+    <t>Что вам нравится в вашем городе?</t>
+  </si>
+  <si>
+    <t>Дайте мне знать в комментариях.</t>
+  </si>
+  <si>
+    <t>I used to work as a software engineer</t>
+  </si>
+  <si>
+    <t>раньше я работал инженером-программистом</t>
+  </si>
+  <si>
+    <t>just like my son</t>
+  </si>
+  <si>
+    <t>как и мой сын</t>
+  </si>
+  <si>
+    <t>I used to work as a software engeneer, just like my son.</t>
+  </si>
+  <si>
+    <t>Раньше я работал инженером программистом, как и мой сын.</t>
+  </si>
+  <si>
+    <t>I am retired now, so I have a lot of free time</t>
+  </si>
+  <si>
+    <t>Сейчас я на пенсии, поэтому  уменя много свободного времени.</t>
+  </si>
+  <si>
+    <t>But I try to keep myself busy.</t>
+  </si>
+  <si>
+    <t>Но я стараюсь занимать себя.</t>
+  </si>
+  <si>
+    <t>There is always something to do around the house.</t>
+  </si>
+  <si>
+    <t>Всегда есть чем заняться по дому.</t>
+  </si>
+  <si>
+    <t>i help my wife</t>
+  </si>
+  <si>
+    <t>with her little vegetable garden</t>
+  </si>
+  <si>
+    <t>I fix things.</t>
+  </si>
+  <si>
+    <t>Я чиню вещи.</t>
+  </si>
+  <si>
+    <t>я помогаю моей жене</t>
+  </si>
+  <si>
+    <t>с ее маленьким овощным садом</t>
+  </si>
+  <si>
+    <t>I help my wife with her little vegetable garden.</t>
+  </si>
+  <si>
+    <t>Я помогаю моей жене с ее маленьким овощным садом.</t>
+  </si>
+  <si>
+    <t>I like working with my hands</t>
+  </si>
+  <si>
+    <t>я люблю работать руками</t>
+  </si>
+  <si>
+    <t>and building things</t>
+  </si>
+  <si>
+    <t>и что-то строить</t>
+  </si>
+  <si>
+    <t>I like working with my hands and building things.</t>
+  </si>
+  <si>
+    <t>Я люблю работать руками и что-то строить.</t>
+  </si>
+  <si>
+    <t>I build simple furniture</t>
+  </si>
+  <si>
+    <t>like bookshelves and chairs</t>
+  </si>
+  <si>
+    <t>I build simple furniture like bookshelves and chairs.</t>
+  </si>
+  <si>
+    <t>я строю мебель</t>
+  </si>
+  <si>
+    <t>такую как книжные полки и стулья</t>
+  </si>
+  <si>
+    <t>Я строю мебель, такую как книжные полки и стулья.</t>
+  </si>
+  <si>
+    <t>Woodworking is a great hobby.</t>
+  </si>
+  <si>
+    <t>Деревообработка - отличное хобби.</t>
+  </si>
+  <si>
+    <t>Do you have any hobbies?</t>
+  </si>
+  <si>
+    <t>What is your faivorite things to do?</t>
+  </si>
+  <si>
+    <t>Есть ли у вас какие-нибудь хобби?</t>
+  </si>
+  <si>
+    <t>Чем вам больше всего нравится заниматься?</t>
+  </si>
+  <si>
+    <t>you can pause the video</t>
+  </si>
+  <si>
+    <t>and leave a comment</t>
+  </si>
+  <si>
+    <t>вы можете поставить видео на паузу</t>
+  </si>
+  <si>
+    <t>и оставить комментарий</t>
+  </si>
+  <si>
+    <t>You can pause the video and leave a comment.</t>
+  </si>
+  <si>
+    <t>Вы можете остановить видео и оставить комментарий.</t>
+  </si>
+  <si>
+    <t>actually, I have many hobbies</t>
+  </si>
+  <si>
+    <t>woodworking, music, languages and chess</t>
+  </si>
+  <si>
+    <t>Actually, I have many hobbies: woodworking, music, languages and chess.</t>
+  </si>
+  <si>
+    <t>на сомом деле у меня много хобби</t>
+  </si>
+  <si>
+    <t>деревообработка, музыка, языки и шахматы</t>
+  </si>
+  <si>
+    <t>На самом деле у меня много хобби: деревообработка, музыка, языки и шахматы.</t>
+  </si>
+  <si>
+    <t>I love playing guitar.</t>
+  </si>
+  <si>
+    <t>I have been plaing guitar since I was a teeanger.</t>
+  </si>
+  <si>
+    <t>Я люблю играть на гитаре.</t>
+  </si>
+  <si>
+    <t>Я играю на гитаре с подрасткового возраста.</t>
+  </si>
+  <si>
+    <t>I used to play guitar in my school band.</t>
+  </si>
+  <si>
+    <t>Раньше я играл на гитаре в своей школьной банде.</t>
+  </si>
+  <si>
+    <t>I also play piano</t>
+  </si>
+  <si>
+    <t>but I am not very good at it</t>
+  </si>
+  <si>
+    <t>я так же играю на пианино</t>
+  </si>
+  <si>
+    <t>но у меня это не очень хорошо получается</t>
+  </si>
+  <si>
+    <t>I also play piano, but I am not very good at it.</t>
+  </si>
+  <si>
+    <t>Я так же играю на пианино, но у меня это не очень хорошо получается.</t>
+  </si>
+  <si>
+    <t>My wife can play piano really well.</t>
+  </si>
+  <si>
+    <t>Моя жена умеет играть на пианино очень хорошо.</t>
+  </si>
+  <si>
+    <t>Do you play a musical instrument?</t>
+  </si>
+  <si>
+    <t>Вы играете на каком-нибудь музыкальном инструменте?</t>
+  </si>
+  <si>
+    <t>My other favorite hobby is learning languages.</t>
+  </si>
+  <si>
+    <t>Мое другое любимое хобби - изучение языков.</t>
+  </si>
+  <si>
+    <t>Currently, I am lerning Spanish.</t>
+  </si>
+  <si>
+    <t>В настоящее время, я изучаю испанский.</t>
+  </si>
+  <si>
+    <t>It is very difficult to learn a language at my age.</t>
+  </si>
+  <si>
+    <t>Очень трудно учить язык в моем возрасте.</t>
+  </si>
+  <si>
+    <t>I try to lesten simple stories</t>
+  </si>
+  <si>
+    <t>я стараюсь слушать простые истории</t>
+  </si>
+  <si>
+    <t>like this one every day</t>
+  </si>
+  <si>
+    <t>вроде этой каждый день</t>
+  </si>
+  <si>
+    <t>I try to listen simple stories like this one every day.</t>
+  </si>
+  <si>
+    <t>Я стараюсь слушать простые истории, вроде этой, каждый день.</t>
+  </si>
+  <si>
+    <t>It is a great way to learn.</t>
+  </si>
+  <si>
+    <t>Это отличный способ обучения.</t>
+  </si>
+  <si>
+    <t>I already understand simple conversations</t>
+  </si>
+  <si>
+    <t>я уже понимаю простые разговоры</t>
+  </si>
+  <si>
+    <t>and I can speak a little bit</t>
+  </si>
+  <si>
+    <t>и могу говорить немного</t>
+  </si>
+  <si>
+    <t>I already understand simple conversations and I can speak a little bit.</t>
+  </si>
+  <si>
+    <t>Я уже понимаю простые разговоры и могу говорить немного.</t>
+  </si>
+  <si>
+    <t>Are you lerning any other languages besides English?</t>
+  </si>
+  <si>
+    <t>Изучаете ли вы какие-нибдуь другие языки, кроме английского?</t>
+  </si>
+  <si>
+    <t>I also like going to the park to play chess.</t>
+  </si>
+  <si>
+    <t>Я так же люблю ходить в парк играть в шахматы.</t>
+  </si>
+  <si>
+    <t>I get to meet lots of different people.</t>
+  </si>
+  <si>
+    <t>Там я встречаю много разных людей.</t>
+  </si>
+  <si>
+    <t>I get to practice my English</t>
+  </si>
+  <si>
+    <t>and sometimes my Spanish</t>
+  </si>
+  <si>
+    <t>I get to practice my English and sometimes my Spanish.</t>
+  </si>
+  <si>
+    <t>я практикую свой английский</t>
+  </si>
+  <si>
+    <t>и иногда испанский</t>
+  </si>
+  <si>
+    <t>Я практикую свой английский и иногда испанский.</t>
+  </si>
+  <si>
+    <t>I have to go now.</t>
+  </si>
+  <si>
+    <t>Мне уже пора идти.</t>
+  </si>
+  <si>
+    <t>I will tell you more about my life in future lessons.</t>
+  </si>
+  <si>
+    <t>Я расскажу вам больше о своей жизни в будующих уроках.</t>
   </si>
 </sst>
 </file>
@@ -3422,7 +3891,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3468,6 +3937,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3580,7 +4055,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3664,16 +4139,20 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14121,10 +14600,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D368"/>
+  <dimension ref="A1:D500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B289" sqref="B289"/>
+    <sheetView tabSelected="1" topLeftCell="A289" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C366" sqref="C366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14145,7 +14624,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>957</v>
+        <v>939</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -14167,7 +14646,7 @@
         <v>318</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -14189,7 +14668,7 @@
         <v>322</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>319</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -14222,7 +14701,7 @@
         <v>328</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>523</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -14255,7 +14734,7 @@
         <v>332</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>415</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -14299,7 +14778,7 @@
         <v>340</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>508</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -14321,7 +14800,7 @@
         <v>345</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -14343,7 +14822,7 @@
         <v>492</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>511</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -14387,7 +14866,7 @@
         <v>361</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>354</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -14403,13 +14882,13 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -14425,13 +14904,13 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -14442,7 +14921,7 @@
         <v>360</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>517</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -14453,7 +14932,7 @@
         <v>363</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -14475,7 +14954,7 @@
         <v>366</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>519</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -14486,7 +14965,7 @@
         <v>369</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>368</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -14508,7 +14987,7 @@
         <v>373</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -14535,13 +15014,13 @@
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>493</v>
+        <v>1057</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>377</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>520</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -14552,7 +15031,7 @@
         <v>379</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -14568,24 +15047,24 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>382</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>383</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>526</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -14629,7 +15108,7 @@
         <v>391</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>390</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -14651,7 +15130,7 @@
         <v>395</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -14662,7 +15141,7 @@
         <v>397</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>396</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -14695,7 +15174,7 @@
         <v>403</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>402</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -14739,7 +15218,7 @@
         <v>411</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -14750,7 +15229,7 @@
         <v>417</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -14772,7 +15251,7 @@
         <v>421</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -14794,7 +15273,7 @@
         <v>425</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -14816,7 +15295,7 @@
         <v>429</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -14832,13 +15311,13 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>432</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -14849,7 +15328,7 @@
         <v>434</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -14893,7 +15372,7 @@
         <v>442</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -14901,10 +15380,10 @@
         <v>443</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -14937,7 +15416,7 @@
         <v>449</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -14948,7 +15427,7 @@
         <v>451</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -14964,35 +15443,35 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -15036,7 +15515,7 @@
         <v>461</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -15063,13 +15542,13 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B85" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="C85" s="18" t="s">
         <v>505</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -15077,7 +15556,7 @@
         <v>466</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>466</v>
@@ -15088,7 +15567,7 @@
         <v>467</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="C87" s="17" t="s">
         <v>467</v>
@@ -15113,7 +15592,7 @@
         <v>471</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -15132,7 +15611,7 @@
         <v>474</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C91" s="20" t="s">
         <v>474</v>
@@ -15157,7 +15636,7 @@
         <v>478</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -15168,7 +15647,7 @@
         <v>480</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -15179,7 +15658,7 @@
         <v>482</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -15234,1256 +15713,1256 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C101" s="27" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="12" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>822</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="C104" s="27" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="12" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>824</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="C107" s="27" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="12" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>560</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="C110" s="27" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="C111" s="28" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="C112" s="28" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="C113" s="28" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="12" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="C115" s="27" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C116" s="28" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="C117" s="28" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="C118" s="28" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="12" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>835</v>
+        <v>571</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="C120" s="27" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="10" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="C121" s="28" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="C122" s="28" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="C123" s="28" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="12" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>589</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="10" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="C125" s="27" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="12" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="C127" s="27" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="C128" s="28" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C129" s="28" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="12" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="C131" s="27" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="C132" s="28" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C133" s="28" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="10" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C134" s="28" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="C135" s="28" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="12" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="B137" s="10" t="s">
         <v>239</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="12" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="C141" s="27" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C142" s="28" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="10" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="C143" s="28" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="12" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="10" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="C145" s="27" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="C146" s="28" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="10" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="C147" s="28" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="12" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="12" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="C149" s="29" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C150" s="27" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="C151" s="28" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="C152" s="28" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="C153" s="28" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="12" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="12" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="C156" s="27" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="C157" s="28" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="C158" s="28" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="12" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="10" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="C160" s="24" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="12" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="C161" s="26" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="10" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="C162" s="24" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="12" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="C163" s="26" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="10" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="C164" s="27" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="10" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="C165" s="28" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="10" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="C166" s="28" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="C167" s="28" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="10" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="C168" s="28" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="C169" s="28" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="12" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="10" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="B171" s="10" t="s">
         <v>249</v>
       </c>
       <c r="C171" s="24" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="10" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="C172" s="25" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="C173" s="25" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="12" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="C174" s="26" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="12" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="10" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="C176" s="27" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="C177" s="28" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="10" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="C178" s="28" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="10" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="C179" s="28" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="12" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="10" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="C181" s="24" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="10" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="C182" s="25" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="10" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="C183" s="25" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="12" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="C184" s="26" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="10" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="C185" s="27" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="10" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="C186" s="28" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="10" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="C187" s="28" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="12" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="C188" s="19" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="10" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="C189" s="27" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="10" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="C190" s="28" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="C191" s="28" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="10" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="C192" s="28" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="10" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="C193" s="28" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="12" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="12" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="10" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="C196" s="27" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="10" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="C197" s="28" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="10" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="10" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="C199" s="28" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="12" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="C200" s="19" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="10" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="C201" s="24" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="10" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="C202" s="25" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="12" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="C203" s="26" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="12" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="10" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="C205" s="27" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="10" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="10" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="C207" s="28" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="10" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C208" s="28" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="10" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="10" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="C210" s="28" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A211" s="12" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="B211" s="12" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="10" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="C212" s="27" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="10" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="C213" s="28" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="12" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="B214" s="12" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C214" s="19" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -16494,112 +16973,112 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="12" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="C216" s="29" t="s">
-        <v>860</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="12" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="C217" s="29" t="s">
-        <v>933</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="12" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="C218" s="29" t="s">
-        <v>863</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="12" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="C219" s="29" t="s">
-        <v>958</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="12" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="C220" s="29" t="s">
-        <v>959</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="12" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="B221" s="12" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="C221" s="29" t="s">
-        <v>901</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="12" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="B222" s="12" t="s">
-        <v>902</v>
+        <v>1039</v>
       </c>
       <c r="C222" s="29" t="s">
-        <v>960</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="12" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="B223" s="12" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="C223" s="29" t="s">
-        <v>872</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="12" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="B224" s="12" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="C224" s="29" t="s">
-        <v>951</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="12" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="B225" s="12" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="C225" s="29" t="s">
-        <v>952</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -16609,1146 +17088,2108 @@
       <c r="B226" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C226" s="29" t="s">
-        <v>183</v>
+      <c r="C226" s="38" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="10" t="s">
-        <v>942</v>
+        <v>926</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>944</v>
-      </c>
-      <c r="C227" s="29" t="s">
-        <v>942</v>
+        <v>928</v>
+      </c>
+      <c r="C227" s="38" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="10" t="s">
-        <v>943</v>
+        <v>927</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>945</v>
-      </c>
-      <c r="C228" s="29" t="s">
-        <v>943</v>
+        <v>929</v>
+      </c>
+      <c r="C228" s="38" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="12" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="B229" s="12" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="C229" s="29" t="s">
-        <v>961</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="10" t="s">
-        <v>946</v>
+        <v>930</v>
       </c>
       <c r="B230" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C230" s="29" t="s">
-        <v>946</v>
+      <c r="C230" s="38" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="10" t="s">
-        <v>947</v>
+        <v>931</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>950</v>
-      </c>
-      <c r="C231" s="29" t="s">
-        <v>947</v>
+        <v>934</v>
+      </c>
+      <c r="C231" s="38" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="10" t="s">
-        <v>948</v>
+        <v>932</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="C232" s="29" t="s">
-        <v>948</v>
+        <v>933</v>
+      </c>
+      <c r="C232" s="38" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="12" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="B233" s="12" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="C233" s="29" t="s">
-        <v>962</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="C234" s="29" t="s">
-        <v>904</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="12" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="B235" s="12" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="C235" s="29" t="s">
-        <v>883</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="12" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="B236" s="12" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="C236" s="29" t="s">
-        <v>963</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="10" t="s">
-        <v>953</v>
+        <v>935</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="C237" s="27" t="s">
-        <v>954</v>
+        <v>936</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="10" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="C238" s="28" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="12" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="B239" s="12" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="C239" s="19" t="s">
-        <v>964</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="12" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="B240" s="12" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="C240" s="29" t="s">
-        <v>892</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="12" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="B241" s="12" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="C241" s="29" t="s">
-        <v>965</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="12" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="B242" s="12" t="s">
-        <v>940</v>
+        <v>924</v>
       </c>
       <c r="C242" s="29" t="s">
-        <v>896</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="12" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="B243" s="12" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="C243" s="33" t="s">
-        <v>897</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="10" t="s">
-        <v>935</v>
+        <v>919</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="C244" s="27" t="s">
-        <v>935</v>
+        <v>919</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="10" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
       <c r="B245" s="14" t="s">
-        <v>937</v>
+        <v>921</v>
       </c>
       <c r="C245" s="28" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="12" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="C246" s="19" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="10" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="C247" s="25" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="10" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="C248" s="25" t="s">
-        <v>966</v>
+        <v>940</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="10" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="C249" s="25" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="12" t="s">
-        <v>912</v>
+        <v>1048</v>
       </c>
       <c r="B250" s="12" t="s">
-        <v>913</v>
+        <v>898</v>
       </c>
       <c r="C250" s="26" t="s">
-        <v>967</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="10" t="s">
-        <v>968</v>
+        <v>941</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>914</v>
+        <v>899</v>
       </c>
       <c r="C251" s="24" t="s">
-        <v>968</v>
+        <v>941</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="10" t="s">
-        <v>938</v>
+        <v>922</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>939</v>
+        <v>923</v>
       </c>
       <c r="C252" s="25" t="s">
-        <v>941</v>
+        <v>925</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="12" t="s">
-        <v>915</v>
+        <v>900</v>
       </c>
       <c r="B253" s="12" t="s">
-        <v>916</v>
+        <v>901</v>
       </c>
       <c r="C253" s="26" t="s">
-        <v>969</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="12" t="s">
-        <v>955</v>
+        <v>937</v>
       </c>
       <c r="B254" s="12" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>970</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="12" t="s">
-        <v>918</v>
+        <v>903</v>
       </c>
       <c r="B255" s="12" t="s">
-        <v>919</v>
+        <v>904</v>
       </c>
       <c r="C255" s="8" t="s">
-        <v>918</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="12" t="s">
-        <v>956</v>
+        <v>938</v>
       </c>
       <c r="B256" s="12" t="s">
-        <v>971</v>
+        <v>942</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>956</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A257" s="21"/>
-      <c r="B257" s="21"/>
-      <c r="C257" s="9"/>
-      <c r="D257" s="9"/>
+      <c r="A257" s="41"/>
+      <c r="B257" s="41"/>
+      <c r="C257" s="40"/>
+      <c r="D257" s="40"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="10" t="s">
-        <v>972</v>
+        <v>943</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>973</v>
+        <v>944</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>1092</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="10" t="s">
-        <v>974</v>
+        <v>945</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>975</v>
+        <v>946</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>974</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="10" t="s">
-        <v>976</v>
+        <v>947</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>977</v>
+        <v>948</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>1053</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="12" t="s">
-        <v>978</v>
+        <v>949</v>
       </c>
       <c r="B261" s="12" t="s">
-        <v>981</v>
+        <v>952</v>
       </c>
       <c r="C261" s="24" t="s">
-        <v>1054</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="12" t="s">
-        <v>979</v>
+        <v>950</v>
       </c>
       <c r="B262" s="12" t="s">
-        <v>982</v>
+        <v>953</v>
       </c>
       <c r="C262" s="25" t="s">
-        <v>979</v>
+        <v>950</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="10" t="s">
-        <v>980</v>
+        <v>951</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>983</v>
+        <v>954</v>
       </c>
       <c r="C263" s="26" t="s">
-        <v>980</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="12" t="s">
-        <v>984</v>
+        <v>955</v>
       </c>
       <c r="B264" s="12" t="s">
-        <v>987</v>
+        <v>958</v>
       </c>
       <c r="C264" s="24" t="s">
-        <v>984</v>
+        <v>955</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="12" t="s">
-        <v>985</v>
+        <v>956</v>
       </c>
       <c r="B265" s="12" t="s">
-        <v>988</v>
+        <v>959</v>
       </c>
       <c r="C265" s="25" t="s">
-        <v>985</v>
+        <v>956</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="10" t="s">
-        <v>986</v>
+        <v>957</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>989</v>
+        <v>960</v>
       </c>
       <c r="C266" s="26" t="s">
-        <v>1093</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="10" t="s">
-        <v>990</v>
+        <v>961</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>991</v>
+        <v>962</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>1055</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="10" t="s">
-        <v>992</v>
+        <v>963</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>1056</v>
+        <v>1025</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>992</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="10" t="s">
-        <v>993</v>
+        <v>964</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>994</v>
+        <v>965</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>993</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="12" t="s">
-        <v>995</v>
+        <v>966</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>998</v>
+        <v>969</v>
       </c>
       <c r="C270" s="24" t="s">
-        <v>995</v>
+        <v>966</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="12" t="s">
-        <v>996</v>
+        <v>967</v>
       </c>
       <c r="B271" s="12" t="s">
-        <v>999</v>
+        <v>970</v>
       </c>
       <c r="C271" s="25" t="s">
-        <v>996</v>
+        <v>967</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="10" t="s">
-        <v>997</v>
+        <v>968</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>1000</v>
+        <v>971</v>
       </c>
       <c r="C272" s="19" t="s">
-        <v>1094</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="10" t="s">
-        <v>1001</v>
+        <v>972</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>1002</v>
+        <v>973</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>1001</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="10" t="s">
-        <v>1003</v>
+        <v>974</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>1004</v>
+        <v>975</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>1095</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="10" t="s">
-        <v>1005</v>
+        <v>976</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>1006</v>
+        <v>977</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>1005</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="10" t="s">
-        <v>1007</v>
+        <v>978</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>1008</v>
+        <v>979</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>1057</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="10" t="s">
-        <v>1009</v>
+        <v>980</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>1010</v>
+        <v>981</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>1096</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="10" t="s">
-        <v>1011</v>
+        <v>982</v>
       </c>
       <c r="B278" s="10" t="s">
-        <v>1012</v>
+        <v>983</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>1011</v>
+        <v>982</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="12" t="s">
-        <v>1013</v>
+        <v>984</v>
       </c>
       <c r="B279" s="12" t="s">
-        <v>1016</v>
+        <v>987</v>
       </c>
       <c r="C279" s="24" t="s">
-        <v>1058</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="12" t="s">
-        <v>1014</v>
+        <v>985</v>
       </c>
       <c r="B280" s="12" t="s">
-        <v>1017</v>
+        <v>988</v>
       </c>
       <c r="C280" s="25" t="s">
-        <v>1014</v>
+        <v>985</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="10" t="s">
-        <v>1015</v>
+        <v>986</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>1018</v>
+        <v>989</v>
       </c>
       <c r="C281" s="26" t="s">
-        <v>1097</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="10" t="s">
-        <v>1019</v>
+        <v>990</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>1020</v>
+        <v>991</v>
       </c>
       <c r="C282" s="8" t="s">
-        <v>1019</v>
+        <v>990</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="10" t="s">
-        <v>1021</v>
+        <v>992</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>1022</v>
+        <v>993</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>1098</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="10" t="s">
-        <v>1023</v>
+        <v>994</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>1024</v>
+        <v>995</v>
       </c>
       <c r="C284" s="8" t="s">
-        <v>1023</v>
+        <v>994</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="10" t="s">
-        <v>1025</v>
+        <v>996</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>1026</v>
+        <v>997</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>1025</v>
+        <v>996</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="10" t="s">
-        <v>1027</v>
+        <v>998</v>
       </c>
       <c r="B286" s="10" t="s">
-        <v>1028</v>
+        <v>999</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>1027</v>
+        <v>998</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="10" t="s">
-        <v>1029</v>
+        <v>1000</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>1030</v>
+        <v>1001</v>
       </c>
       <c r="C287" s="8" t="s">
-        <v>1099</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="10" t="s">
-        <v>1031</v>
+        <v>1002</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>1034</v>
+        <v>1005</v>
       </c>
       <c r="C288" s="8" t="s">
-        <v>1100</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="12" t="s">
-        <v>1032</v>
+        <v>1003</v>
       </c>
       <c r="B289" s="12" t="s">
-        <v>1033</v>
+        <v>1004</v>
       </c>
       <c r="C289" s="24" t="s">
-        <v>1059</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="12" t="s">
-        <v>1035</v>
+        <v>1006</v>
       </c>
       <c r="B290" s="12" t="s">
-        <v>1036</v>
+        <v>1007</v>
       </c>
       <c r="C290" s="25" t="s">
-        <v>1035</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="10" t="s">
-        <v>1037</v>
+        <v>1008</v>
       </c>
       <c r="B291" s="10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C291" s="26" t="s">
         <v>1038</v>
-      </c>
-      <c r="C291" s="26" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="10" t="s">
-        <v>1039</v>
+        <v>1010</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>1040</v>
+        <v>1011</v>
       </c>
       <c r="C292" s="8" t="s">
-        <v>1039</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="12" t="s">
-        <v>1041</v>
+        <v>1012</v>
       </c>
       <c r="B293" s="12" t="s">
-        <v>1042</v>
+        <v>1013</v>
       </c>
       <c r="C293" s="24" t="s">
-        <v>1060</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="12" t="s">
-        <v>1043</v>
+        <v>1014</v>
       </c>
       <c r="B294" s="12" t="s">
-        <v>1044</v>
+        <v>1015</v>
       </c>
       <c r="C294" s="25" t="s">
-        <v>1043</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="10" t="s">
-        <v>1045</v>
+        <v>1016</v>
       </c>
       <c r="B295" s="10" t="s">
-        <v>1046</v>
+        <v>1017</v>
       </c>
       <c r="C295" s="34" t="s">
-        <v>1045</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="12" t="s">
-        <v>1047</v>
+        <v>1018</v>
       </c>
       <c r="B296" s="13" t="s">
-        <v>1050</v>
+        <v>1021</v>
       </c>
       <c r="C296" s="24" t="s">
-        <v>1061</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="12" t="s">
-        <v>1048</v>
+        <v>1019</v>
       </c>
       <c r="B297" s="13" t="s">
-        <v>1051</v>
+        <v>1022</v>
       </c>
       <c r="C297" s="25" t="s">
-        <v>1048</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="10" t="s">
-        <v>1049</v>
+        <v>1020</v>
       </c>
       <c r="B298" s="14" t="s">
-        <v>1052</v>
+        <v>1023</v>
       </c>
       <c r="C298" s="26" t="s">
-        <v>1049</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A299" s="10"/>
-      <c r="B299" s="10"/>
-      <c r="C299" s="23"/>
+      <c r="A299" s="41"/>
+      <c r="B299" s="41"/>
+      <c r="C299" s="40"/>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A300" s="10"/>
+      <c r="A300" s="10" t="s">
+        <v>1099</v>
+      </c>
       <c r="B300" s="10"/>
-      <c r="C300" s="23"/>
+      <c r="C300" s="8"/>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301" s="10"/>
-      <c r="B301" s="10"/>
-      <c r="C301" s="23"/>
+      <c r="A301" s="10" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B301" s="10" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C301" s="8"/>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A302" s="10"/>
-      <c r="B302" s="10"/>
-      <c r="C302" s="23"/>
+      <c r="A302" s="10" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B302" s="10" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C302" s="8"/>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A303" s="10"/>
-      <c r="B303" s="10"/>
-      <c r="C303" s="23"/>
+      <c r="A303" s="10" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B303" s="10" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C303" s="8"/>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A304" s="10"/>
-      <c r="B304" s="10"/>
-      <c r="C304" s="23"/>
+      <c r="A304" s="10" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B304" s="10" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C304" s="8"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A305" s="10"/>
-      <c r="B305" s="10"/>
-      <c r="C305" s="23"/>
+      <c r="A305" s="12" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B305" s="12" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C305" s="24"/>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A306" s="10"/>
-      <c r="B306" s="10"/>
-      <c r="C306" s="23"/>
+      <c r="A306" s="12" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B306" s="12" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C306" s="25"/>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A307" s="10"/>
-      <c r="B307" s="10"/>
-      <c r="C307" s="23"/>
+      <c r="A307" s="10" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B307" s="10" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C307" s="26"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A308" s="10"/>
-      <c r="B308" s="10"/>
-      <c r="C308" s="23"/>
+      <c r="A308" s="12" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B308" s="12" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C308" s="24"/>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A309" s="10"/>
-      <c r="B309" s="10"/>
-      <c r="C309" s="23"/>
+      <c r="A309" s="12" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B309" s="12" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C309" s="25"/>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A310" s="10"/>
-      <c r="B310" s="10"/>
-      <c r="C310" s="23"/>
+      <c r="A310" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B310" s="10" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C310" s="26"/>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A311" s="10"/>
-      <c r="B311" s="10"/>
-      <c r="C311" s="23"/>
+      <c r="A311" s="12" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B311" s="12" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C311" s="24"/>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A312" s="10"/>
-      <c r="B312" s="10"/>
-      <c r="C312" s="23"/>
+      <c r="A312" s="12" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B312" s="12" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C312" s="25"/>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313" s="10"/>
-      <c r="B313" s="10"/>
-      <c r="C313" s="23"/>
+      <c r="A313" s="10" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B313" s="10" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C313" s="26"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A314" s="10"/>
-      <c r="B314" s="10"/>
-      <c r="C314" s="23"/>
+      <c r="A314" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B314" s="10" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C314" s="8"/>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A315" s="10"/>
-      <c r="B315" s="10"/>
-      <c r="C315" s="23"/>
+      <c r="A315" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B315" s="10" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C315" s="8"/>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A316" s="10"/>
-      <c r="B316" s="10"/>
-      <c r="C316" s="23"/>
+      <c r="A316" s="12" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B316" s="12" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C316" s="24"/>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A317" s="10"/>
-      <c r="B317" s="10"/>
-      <c r="C317" s="23"/>
+      <c r="A317" s="12" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B317" s="12" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C317" s="25"/>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318" s="10"/>
-      <c r="B318" s="10"/>
-      <c r="C318" s="23"/>
+      <c r="A318" s="10" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B318" s="10" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C318" s="26"/>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A319" s="10"/>
-      <c r="B319" s="10"/>
-      <c r="C319" s="23"/>
+      <c r="A319" s="12" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B319" s="12" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C319" s="24"/>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A320" s="10"/>
-      <c r="B320" s="10"/>
-      <c r="C320" s="23"/>
+      <c r="A320" s="12" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B320" s="12" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C320" s="25"/>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A321" s="10"/>
-      <c r="B321" s="10"/>
-      <c r="C321" s="23"/>
+      <c r="A321" s="10" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B321" s="10" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C321" s="26"/>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A322" s="10"/>
-      <c r="B322" s="10"/>
-      <c r="C322" s="23"/>
+      <c r="A322" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B322" s="10" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C322" s="8"/>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A323" s="10"/>
-      <c r="B323" s="10"/>
-      <c r="C323" s="23"/>
+      <c r="A323" s="10" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B323" s="10" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C323" s="8"/>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A324" s="10"/>
-      <c r="B324" s="10"/>
-      <c r="C324" s="23"/>
+      <c r="A324" s="10" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B324" s="10" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C324" s="8"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A325" s="10"/>
-      <c r="B325" s="10"/>
-      <c r="C325" s="23"/>
+      <c r="A325" s="12" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B325" s="12" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C325" s="24"/>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A326" s="10"/>
-      <c r="B326" s="10"/>
-      <c r="C326" s="23"/>
+      <c r="A326" s="12" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B326" s="12" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C326" s="25"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A327" s="10"/>
-      <c r="B327" s="10"/>
-      <c r="C327" s="23"/>
+      <c r="A327" s="10" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B327" s="10" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C327" s="26"/>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A328" s="10"/>
-      <c r="B328" s="10"/>
-      <c r="C328" s="23"/>
+      <c r="A328" s="10" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B328" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C328" s="8"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329" s="10"/>
-      <c r="B329" s="10"/>
-      <c r="C329" s="23"/>
+      <c r="A329" s="10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B329" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C329" s="8"/>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A330" s="10"/>
-      <c r="B330" s="10"/>
-      <c r="C330" s="23"/>
+      <c r="A330" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B330" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C330" s="8"/>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A331" s="10"/>
-      <c r="B331" s="10"/>
-      <c r="C331" s="23"/>
+      <c r="A331" s="10" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B331" s="10" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C331" s="8"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A332" s="10"/>
-      <c r="B332" s="10"/>
-      <c r="C332" s="23"/>
+      <c r="A332" s="12" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B332" s="12" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C332" s="24"/>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A333" s="10"/>
-      <c r="B333" s="10"/>
-      <c r="C333" s="23"/>
+      <c r="A333" s="12" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B333" s="12" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C333" s="25"/>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" s="10"/>
-      <c r="B334" s="10"/>
-      <c r="C334" s="23"/>
+      <c r="A334" s="10" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B334" s="10" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C334" s="26"/>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A335" s="10"/>
-      <c r="B335" s="10"/>
-      <c r="C335" s="23"/>
+      <c r="A335" s="12" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B335" s="12" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C335" s="24"/>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" s="10"/>
-      <c r="B336" s="10"/>
-      <c r="C336" s="23"/>
+      <c r="A336" s="12" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B336" s="12" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C336" s="25"/>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A337" s="10"/>
-      <c r="B337" s="10"/>
-      <c r="C337" s="23"/>
+      <c r="A337" s="10" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B337" s="10" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C337" s="26"/>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A338" s="10"/>
-      <c r="B338" s="10"/>
-      <c r="C338" s="23"/>
+      <c r="A338" s="12" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B338" s="12" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C338" s="24"/>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A339" s="10"/>
-      <c r="B339" s="10"/>
-      <c r="C339" s="23"/>
+      <c r="A339" s="12" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B339" s="12" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C339" s="25"/>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A340" s="10"/>
-      <c r="B340" s="10"/>
-      <c r="C340" s="23"/>
+      <c r="A340" s="10" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B340" s="10" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C340" s="26"/>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A341" s="10"/>
-      <c r="B341" s="10"/>
-      <c r="C341" s="23"/>
+      <c r="A341" s="10" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B341" s="10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C341" s="8"/>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A342" s="10"/>
-      <c r="B342" s="10"/>
-      <c r="C342" s="23"/>
+      <c r="A342" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B342" s="10" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C342" s="8"/>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A343" s="10"/>
-      <c r="B343" s="10"/>
-      <c r="C343" s="23"/>
+      <c r="A343" s="10" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B343" s="10" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C343" s="8"/>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A344" s="10"/>
-      <c r="B344" s="10"/>
-      <c r="C344" s="23"/>
+      <c r="A344" s="12" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B344" s="12" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C344" s="24"/>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A345" s="10"/>
-      <c r="B345" s="10"/>
-      <c r="C345" s="23"/>
+      <c r="A345" s="12" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B345" s="12" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C345" s="25"/>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A346" s="10"/>
-      <c r="B346" s="10"/>
-      <c r="C346" s="23"/>
+      <c r="A346" s="10" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B346" s="10" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C346" s="26"/>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A347" s="10"/>
-      <c r="B347" s="10"/>
-      <c r="C347" s="23"/>
+      <c r="A347" s="12" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B347" s="12" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C347" s="24"/>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A348" s="10"/>
-      <c r="B348" s="10"/>
-      <c r="C348" s="23"/>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A349" s="10"/>
-      <c r="B349" s="10"/>
-      <c r="C349" s="23"/>
+      <c r="A348" s="12" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B348" s="12" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C348" s="25"/>
+    </row>
+    <row r="349" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A349" s="10" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B349" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C349" s="26"/>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A350" s="10"/>
-      <c r="B350" s="10"/>
-      <c r="C350" s="23"/>
+      <c r="A350" s="10" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B350" s="10" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C350" s="8"/>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A351" s="10"/>
-      <c r="B351" s="10"/>
-      <c r="C351" s="23"/>
+      <c r="A351" s="10" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B351" s="10" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C351" s="8"/>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A352" s="10"/>
-      <c r="B352" s="10"/>
-      <c r="C352" s="23"/>
+      <c r="A352" s="10" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B352" s="10" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C352" s="8"/>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A353" s="10"/>
-      <c r="B353" s="10"/>
-      <c r="C353" s="23"/>
+      <c r="A353" s="12" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B353" s="12" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C353" s="24"/>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A354" s="10"/>
-      <c r="B354" s="10"/>
-      <c r="C354" s="23"/>
+      <c r="A354" s="12" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B354" s="12" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C354" s="25"/>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A355" s="10"/>
-      <c r="B355" s="10"/>
-      <c r="C355" s="23"/>
+      <c r="A355" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B355" s="10" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C355" s="26"/>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A356" s="10"/>
-      <c r="B356" s="10"/>
-      <c r="C356" s="23"/>
+      <c r="A356" s="10" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B356" s="10" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C356" s="8"/>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A357" s="10"/>
-      <c r="B357" s="10"/>
-      <c r="C357" s="23"/>
+      <c r="A357" s="10" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B357" s="10" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C357" s="8"/>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A358" s="10"/>
-      <c r="B358" s="10"/>
-      <c r="C358" s="23"/>
+      <c r="A358" s="10" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B358" s="10" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C358" s="8"/>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A359" s="10"/>
-      <c r="B359" s="10"/>
-      <c r="C359" s="23"/>
+      <c r="A359" s="10" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B359" s="10" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C359" s="8"/>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A360" s="10"/>
-      <c r="B360" s="10"/>
-      <c r="C360" s="23"/>
+      <c r="A360" s="10" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B360" s="10" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C360" s="8"/>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A361" s="10"/>
-      <c r="B361" s="10"/>
-      <c r="C361" s="23"/>
+      <c r="A361" s="12" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B361" s="12" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C361" s="24"/>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A362" s="10"/>
-      <c r="B362" s="10"/>
-      <c r="C362" s="23"/>
+      <c r="A362" s="12" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B362" s="12" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C362" s="25"/>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A363" s="10"/>
-      <c r="B363" s="10"/>
-      <c r="C363" s="23"/>
+      <c r="A363" s="10" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B363" s="10" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C363" s="26"/>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A364" s="10"/>
-      <c r="B364" s="10"/>
-      <c r="C364" s="23"/>
+      <c r="A364" s="10" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B364" s="10" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C364" s="8"/>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A365" s="10"/>
-      <c r="B365" s="10"/>
-      <c r="C365" s="23"/>
+      <c r="A365" s="10" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B365" s="10" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C365" s="8"/>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A366" s="10"/>
-      <c r="B366" s="10"/>
-      <c r="C366" s="23"/>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A367" s="10"/>
-      <c r="B367" s="10"/>
-      <c r="C367" s="23"/>
+      <c r="A366" s="10" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B366" s="10" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C366" s="8"/>
+    </row>
+    <row r="367" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A367" s="10" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B367" s="10" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C367" s="8"/>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A368" s="10"/>
-      <c r="B368" s="10"/>
-      <c r="C368" s="23"/>
+      <c r="A368" s="10" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B368" s="10" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C368" s="8"/>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" s="10" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B369" s="10" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C369" s="8"/>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" s="10" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B370" s="10" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C370" s="8"/>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" s="12" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B371" s="12" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C371" s="24"/>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" s="12" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B372" s="12" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C372" s="25"/>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" s="10" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B373" s="10" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C373" s="26"/>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" s="10" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B374" s="10" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C374" s="8"/>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" s="10" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B375" s="10" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C375" s="8"/>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" s="10"/>
+      <c r="B376" s="10"/>
+      <c r="C376" s="23"/>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" s="10"/>
+      <c r="B377" s="10"/>
+      <c r="C377" s="23"/>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" s="10"/>
+      <c r="B378" s="10"/>
+      <c r="C378" s="23"/>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" s="10"/>
+      <c r="B379" s="10"/>
+      <c r="C379" s="23"/>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" s="10"/>
+      <c r="B380" s="10"/>
+      <c r="C380" s="23"/>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" s="10"/>
+      <c r="B381" s="10"/>
+      <c r="C381" s="23"/>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" s="10"/>
+      <c r="B382" s="10"/>
+      <c r="C382" s="23"/>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" s="10"/>
+      <c r="B383" s="10"/>
+      <c r="C383" s="23"/>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" s="10"/>
+      <c r="B384" s="10"/>
+      <c r="C384" s="23"/>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385" s="10"/>
+      <c r="B385" s="10"/>
+      <c r="C385" s="23"/>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386" s="10"/>
+      <c r="B386" s="10"/>
+      <c r="C386" s="23"/>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387" s="10"/>
+      <c r="B387" s="10"/>
+      <c r="C387" s="23"/>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388" s="10"/>
+      <c r="B388" s="10"/>
+      <c r="C388" s="23"/>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389" s="10"/>
+      <c r="B389" s="10"/>
+      <c r="C389" s="23"/>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390" s="10"/>
+      <c r="B390" s="10"/>
+      <c r="C390" s="23"/>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" s="10"/>
+      <c r="B391" s="10"/>
+      <c r="C391" s="23"/>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392" s="10"/>
+      <c r="B392" s="10"/>
+      <c r="C392" s="23"/>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393" s="10"/>
+      <c r="B393" s="10"/>
+      <c r="C393" s="23"/>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394" s="10"/>
+      <c r="B394" s="10"/>
+      <c r="C394" s="23"/>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395" s="10"/>
+      <c r="B395" s="10"/>
+      <c r="C395" s="23"/>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396" s="10"/>
+      <c r="B396" s="10"/>
+      <c r="C396" s="23"/>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397" s="10"/>
+      <c r="B397" s="10"/>
+      <c r="C397" s="23"/>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398" s="10"/>
+      <c r="B398" s="10"/>
+      <c r="C398" s="23"/>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A399" s="10"/>
+      <c r="B399" s="10"/>
+      <c r="C399" s="23"/>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400" s="10"/>
+      <c r="B400" s="10"/>
+      <c r="C400" s="23"/>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401" s="10"/>
+      <c r="B401" s="10"/>
+      <c r="C401" s="23"/>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402" s="10"/>
+      <c r="B402" s="10"/>
+      <c r="C402" s="23"/>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403" s="10"/>
+      <c r="B403" s="10"/>
+      <c r="C403" s="23"/>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A404" s="10"/>
+      <c r="B404" s="10"/>
+      <c r="C404" s="23"/>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405" s="10"/>
+      <c r="B405" s="10"/>
+      <c r="C405" s="23"/>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406" s="10"/>
+      <c r="B406" s="10"/>
+      <c r="C406" s="23"/>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A407" s="10"/>
+      <c r="B407" s="10"/>
+      <c r="C407" s="23"/>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A408" s="10"/>
+      <c r="B408" s="10"/>
+      <c r="C408" s="23"/>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409" s="10"/>
+      <c r="B409" s="10"/>
+      <c r="C409" s="23"/>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410" s="10"/>
+      <c r="B410" s="10"/>
+      <c r="C410" s="23"/>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411" s="10"/>
+      <c r="B411" s="10"/>
+      <c r="C411" s="23"/>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412" s="10"/>
+      <c r="B412" s="10"/>
+      <c r="C412" s="23"/>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413" s="10"/>
+      <c r="B413" s="10"/>
+      <c r="C413" s="23"/>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414" s="10"/>
+      <c r="B414" s="10"/>
+      <c r="C414" s="23"/>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" s="10"/>
+      <c r="B415" s="10"/>
+      <c r="C415" s="23"/>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416" s="10"/>
+      <c r="B416" s="10"/>
+      <c r="C416" s="23"/>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417" s="10"/>
+      <c r="B417" s="10"/>
+      <c r="C417" s="23"/>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418" s="10"/>
+      <c r="B418" s="10"/>
+      <c r="C418" s="23"/>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A419" s="10"/>
+      <c r="B419" s="10"/>
+      <c r="C419" s="23"/>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420" s="10"/>
+      <c r="B420" s="10"/>
+      <c r="C420" s="23"/>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" s="10"/>
+      <c r="B421" s="10"/>
+      <c r="C421" s="23"/>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" s="10"/>
+      <c r="B422" s="10"/>
+      <c r="C422" s="23"/>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" s="10"/>
+      <c r="B423" s="10"/>
+      <c r="C423" s="23"/>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424" s="10"/>
+      <c r="B424" s="10"/>
+      <c r="C424" s="23"/>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425" s="10"/>
+      <c r="B425" s="10"/>
+      <c r="C425" s="23"/>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426" s="10"/>
+      <c r="B426" s="10"/>
+      <c r="C426" s="23"/>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A427" s="10"/>
+      <c r="B427" s="10"/>
+      <c r="C427" s="23"/>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A428" s="10"/>
+      <c r="B428" s="10"/>
+      <c r="C428" s="23"/>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A429" s="10"/>
+      <c r="B429" s="10"/>
+      <c r="C429" s="23"/>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A430" s="10"/>
+      <c r="B430" s="10"/>
+      <c r="C430" s="23"/>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A431" s="10"/>
+      <c r="B431" s="10"/>
+      <c r="C431" s="23"/>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" s="10"/>
+      <c r="B432" s="10"/>
+      <c r="C432" s="23"/>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" s="10"/>
+      <c r="B433" s="10"/>
+      <c r="C433" s="23"/>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434" s="10"/>
+      <c r="B434" s="10"/>
+      <c r="C434" s="23"/>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" s="10"/>
+      <c r="B435" s="10"/>
+      <c r="C435" s="23"/>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" s="10"/>
+      <c r="B436" s="10"/>
+      <c r="C436" s="23"/>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A437" s="10"/>
+      <c r="B437" s="10"/>
+      <c r="C437" s="23"/>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A438" s="10"/>
+      <c r="B438" s="10"/>
+      <c r="C438" s="23"/>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A439" s="10"/>
+      <c r="B439" s="10"/>
+      <c r="C439" s="23"/>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A440" s="10"/>
+      <c r="B440" s="10"/>
+      <c r="C440" s="23"/>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A441" s="10"/>
+      <c r="B441" s="10"/>
+      <c r="C441" s="23"/>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A442" s="10"/>
+      <c r="B442" s="10"/>
+      <c r="C442" s="23"/>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A443" s="10"/>
+      <c r="B443" s="10"/>
+      <c r="C443" s="23"/>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444" s="10"/>
+      <c r="B444" s="10"/>
+      <c r="C444" s="23"/>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A445" s="10"/>
+      <c r="B445" s="10"/>
+      <c r="C445" s="23"/>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A446" s="10"/>
+      <c r="B446" s="10"/>
+      <c r="C446" s="23"/>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A447" s="10"/>
+      <c r="B447" s="10"/>
+      <c r="C447" s="23"/>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A448" s="10"/>
+      <c r="B448" s="10"/>
+      <c r="C448" s="23"/>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A449" s="10"/>
+      <c r="B449" s="10"/>
+      <c r="C449" s="23"/>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A450" s="10"/>
+      <c r="B450" s="10"/>
+      <c r="C450" s="23"/>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A451" s="10"/>
+      <c r="B451" s="10"/>
+      <c r="C451" s="23"/>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A452" s="10"/>
+      <c r="B452" s="10"/>
+      <c r="C452" s="23"/>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A453" s="10"/>
+      <c r="B453" s="10"/>
+      <c r="C453" s="23"/>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A454" s="10"/>
+      <c r="B454" s="10"/>
+      <c r="C454" s="23"/>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A455" s="10"/>
+      <c r="B455" s="10"/>
+      <c r="C455" s="23"/>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456" s="10"/>
+      <c r="B456" s="10"/>
+      <c r="C456" s="23"/>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A457" s="10"/>
+      <c r="B457" s="10"/>
+      <c r="C457" s="23"/>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A458" s="10"/>
+      <c r="B458" s="10"/>
+      <c r="C458" s="23"/>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A459" s="10"/>
+      <c r="B459" s="10"/>
+      <c r="C459" s="23"/>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A460" s="10"/>
+      <c r="B460" s="10"/>
+      <c r="C460" s="23"/>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A461" s="10"/>
+      <c r="B461" s="10"/>
+      <c r="C461" s="23"/>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A462" s="10"/>
+      <c r="B462" s="10"/>
+      <c r="C462" s="23"/>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A463" s="10"/>
+      <c r="B463" s="10"/>
+      <c r="C463" s="23"/>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A464" s="10"/>
+      <c r="B464" s="10"/>
+      <c r="C464" s="23"/>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A465" s="10"/>
+      <c r="B465" s="10"/>
+      <c r="C465" s="23"/>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A466" s="10"/>
+      <c r="B466" s="10"/>
+      <c r="C466" s="23"/>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A467" s="10"/>
+      <c r="B467" s="10"/>
+      <c r="C467" s="23"/>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A468" s="10"/>
+      <c r="B468" s="10"/>
+      <c r="C468" s="23"/>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A469" s="10"/>
+      <c r="B469" s="10"/>
+      <c r="C469" s="23"/>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A470" s="10"/>
+      <c r="B470" s="10"/>
+      <c r="C470" s="23"/>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A471" s="10"/>
+      <c r="B471" s="10"/>
+      <c r="C471" s="23"/>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A472" s="10"/>
+      <c r="B472" s="10"/>
+      <c r="C472" s="23"/>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A473" s="10"/>
+      <c r="B473" s="10"/>
+      <c r="C473" s="23"/>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A474" s="10"/>
+      <c r="B474" s="10"/>
+      <c r="C474" s="23"/>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A475" s="10"/>
+      <c r="B475" s="10"/>
+      <c r="C475" s="23"/>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A476" s="10"/>
+      <c r="B476" s="10"/>
+      <c r="C476" s="23"/>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A477" s="10"/>
+      <c r="B477" s="10"/>
+      <c r="C477" s="23"/>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A478" s="10"/>
+      <c r="B478" s="10"/>
+      <c r="C478" s="23"/>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A479" s="10"/>
+      <c r="B479" s="10"/>
+      <c r="C479" s="23"/>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A480" s="10"/>
+      <c r="B480" s="10"/>
+      <c r="C480" s="23"/>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A481" s="10"/>
+      <c r="B481" s="10"/>
+      <c r="C481" s="23"/>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A482" s="10"/>
+      <c r="B482" s="10"/>
+      <c r="C482" s="23"/>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A483" s="10"/>
+      <c r="B483" s="10"/>
+      <c r="C483" s="23"/>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A484" s="10"/>
+      <c r="B484" s="10"/>
+      <c r="C484" s="23"/>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A485" s="10"/>
+      <c r="B485" s="10"/>
+      <c r="C485" s="23"/>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A486" s="10"/>
+      <c r="B486" s="10"/>
+      <c r="C486" s="23"/>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A487" s="10"/>
+      <c r="B487" s="10"/>
+      <c r="C487" s="23"/>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A488" s="10"/>
+      <c r="B488" s="10"/>
+      <c r="C488" s="23"/>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A489" s="10"/>
+      <c r="B489" s="10"/>
+      <c r="C489" s="23"/>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A490" s="10"/>
+      <c r="B490" s="10"/>
+      <c r="C490" s="23"/>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A491" s="10"/>
+      <c r="B491" s="10"/>
+      <c r="C491" s="23"/>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A492" s="10"/>
+      <c r="B492" s="10"/>
+      <c r="C492" s="23"/>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A493" s="10"/>
+      <c r="B493" s="10"/>
+      <c r="C493" s="23"/>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A494" s="10"/>
+      <c r="B494" s="10"/>
+      <c r="C494" s="23"/>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A495" s="10"/>
+      <c r="B495" s="10"/>
+      <c r="C495" s="23"/>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A496" s="10"/>
+      <c r="B496" s="10"/>
+      <c r="C496" s="23"/>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A497" s="10"/>
+      <c r="B497" s="10"/>
+      <c r="C497" s="23"/>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A498" s="10"/>
+      <c r="B498" s="10"/>
+      <c r="C498" s="23"/>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A499" s="10"/>
+      <c r="B499" s="10"/>
+      <c r="C499" s="23"/>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A500" s="10"/>
+      <c r="B500" s="10"/>
+      <c r="C500" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17760,8 +19201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408249BA-B587-4090-9C66-27B099C0148E}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17775,658 +19216,602 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="E1" s="35" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="A1" s="39" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="E1" s="39" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>841</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>1065</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>842</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>1067</v>
-      </c>
+        <v>831</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>843</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>1069</v>
-      </c>
+        <v>832</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="23"/>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>844</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>1071</v>
-      </c>
+        <v>833</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>845</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>1073</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>848</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>1075</v>
-      </c>
+        <v>837</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>764</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>1077</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>766</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>1079</v>
-      </c>
+        <v>758</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>768</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>1081</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>771</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>1083</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>849</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>1087</v>
-      </c>
+        <v>838</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>850</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>1086</v>
-      </c>
+        <v>839</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>776</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>1089</v>
-      </c>
+        <v>768</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="23"/>
     </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>778</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>1091</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>856</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
+        <v>845</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
       <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>857</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
+        <v>846</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
       <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>855</v>
-      </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
+        <v>844</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
       <c r="G18" s="23"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>784</v>
-      </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
+        <v>776</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
       <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>858</v>
-      </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
+        <v>847</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
       <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>788</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
+        <v>780</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
       <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>790</v>
-      </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
+        <v>782</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="23"/>
     </row>
     <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>792</v>
-      </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
+        <v>784</v>
+      </c>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
       <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>859</v>
-      </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
+        <v>848</v>
+      </c>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
       <c r="G24" s="23"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>796</v>
-      </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
+        <v>788</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
       <c r="G25" s="23"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>798</v>
-      </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
+        <v>790</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
       <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>800</v>
-      </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
+        <v>792</v>
+      </c>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
       <c r="G27" s="23"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>920</v>
+        <v>905</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C28" s="22"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
       <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>923</v>
+        <v>908</v>
       </c>
       <c r="C29" s="22"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
       <c r="G29" s="23"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>924</v>
+        <v>909</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>925</v>
+        <v>910</v>
       </c>
       <c r="C30" s="22"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
       <c r="G30" s="23"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>926</v>
+        <v>911</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>927</v>
+        <v>912</v>
       </c>
       <c r="C31" s="22"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
       <c r="G31" s="23"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>928</v>
+        <v>913</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="C32" s="22"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
       <c r="G32" s="23"/>
     </row>
     <row r="33" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>930</v>
+        <v>915</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>931</v>
+        <v>916</v>
       </c>
       <c r="C33" s="22"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
       <c r="G33" s="23"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="22"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
       <c r="G34" s="23"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="22"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
       <c r="G35" s="23"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="22"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
       <c r="G36" s="23"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="22"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
       <c r="G37" s="23"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="22"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
       <c r="G38" s="23"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="22"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
       <c r="G39" s="23"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="C40" s="22"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
       <c r="G40" s="23"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="22"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
       <c r="G41" s="23"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="22"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
       <c r="G42" s="23"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="22"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
       <c r="G43" s="23"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="22"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
       <c r="G44" s="23"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="22"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
       <c r="G45" s="23"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="22"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
       <c r="G46" s="23"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="22"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
       <c r="G47" s="23"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="22"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
       <c r="G48" s="23"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="22"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
       <c r="G49" s="23"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="22"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
       <c r="G50" s="23"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="22"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
       <c r="G51" s="23"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
       <c r="G52" s="23"/>
     </row>
   </sheetData>
@@ -18437,4 +19822,28 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299F8B89-B3DF-435C-8B77-8E47C5D2A088}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="50.33203125" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>